--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fe753deea9fa81e/Documents/GitHub/Strathdar/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1B29C08FBD9FA8495E0B8DB0FB2D62B1703A4670" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0719A66-23B6-4DEB-801B-795B101CDA60}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Observing</t>
   </si>
@@ -33,12 +27,21 @@
   <si>
     <t>idling</t>
   </si>
+  <si>
+    <t>num observed</t>
+  </si>
+  <si>
+    <t>num processed</t>
+  </si>
+  <si>
+    <t>num downlinked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +411,17 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,8 +437,17 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>6000</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -488,8 +463,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>12000</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -505,8 +489,17 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>18000</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -522,8 +515,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>17400</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -539,8 +541,17 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>16800</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -556,8 +567,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>16200</v>
+      </c>
+      <c r="G7">
+        <v>1800</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,8 +593,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>15600</v>
+      </c>
+      <c r="G8">
+        <v>2400</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -590,8 +619,17 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -607,8 +645,17 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>14400</v>
+      </c>
+      <c r="G10">
+        <v>3600</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -624,8 +671,17 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>13800</v>
+      </c>
+      <c r="G11">
+        <v>4200</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -641,8 +697,17 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>13200</v>
+      </c>
+      <c r="G12">
+        <v>4800</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -658,8 +723,17 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>12600</v>
+      </c>
+      <c r="G13">
+        <v>5400</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -675,8 +749,17 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>12000</v>
+      </c>
+      <c r="G14">
+        <v>6000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -692,8 +775,17 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>11400</v>
+      </c>
+      <c r="G15">
+        <v>6600</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -709,8 +801,17 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>10800</v>
+      </c>
+      <c r="G16">
+        <v>7200</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,8 +827,17 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>10200</v>
+      </c>
+      <c r="G17">
+        <v>7800</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -743,8 +853,17 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>9600</v>
+      </c>
+      <c r="G18">
+        <v>8400</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -760,8 +879,17 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>9000</v>
+      </c>
+      <c r="G19">
+        <v>9000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -777,8 +905,17 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>8400</v>
+      </c>
+      <c r="G20">
+        <v>9600</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -794,8 +931,17 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>14400</v>
+      </c>
+      <c r="G21">
+        <v>9600</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -811,8 +957,17 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>20400</v>
+      </c>
+      <c r="G22">
+        <v>9600</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -828,8 +983,17 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>26400</v>
+      </c>
+      <c r="G23">
+        <v>9600</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -845,8 +1009,17 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>32400</v>
+      </c>
+      <c r="G24">
+        <v>9600</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -862,8 +1035,17 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>38400</v>
+      </c>
+      <c r="G25">
+        <v>9600</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -879,8 +1061,17 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>44400</v>
+      </c>
+      <c r="G26">
+        <v>9600</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -896,8 +1087,17 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>50400</v>
+      </c>
+      <c r="G27">
+        <v>9600</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -913,8 +1113,17 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>56400</v>
+      </c>
+      <c r="G28">
+        <v>9600</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -930,8 +1139,17 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>62400</v>
+      </c>
+      <c r="G29">
+        <v>9600</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -947,8 +1165,17 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>68400</v>
+      </c>
+      <c r="G30">
+        <v>9600</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -964,8 +1191,17 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>74400</v>
+      </c>
+      <c r="G31">
+        <v>9600</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -981,8 +1217,17 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>80400</v>
+      </c>
+      <c r="G32">
+        <v>9600</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -998,8 +1243,17 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>79800</v>
+      </c>
+      <c r="G33">
+        <v>10200</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1015,8 +1269,17 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>79200</v>
+      </c>
+      <c r="G34">
+        <v>10800</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1032,8 +1295,17 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>78600</v>
+      </c>
+      <c r="G35">
+        <v>11400</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1049,8 +1321,17 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>78000</v>
+      </c>
+      <c r="G36">
+        <v>12000</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1066,8 +1347,17 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>77400</v>
+      </c>
+      <c r="G37">
+        <v>12600</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1083,8 +1373,17 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>76800</v>
+      </c>
+      <c r="G38">
+        <v>13200</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1100,8 +1399,17 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>76200</v>
+      </c>
+      <c r="G39">
+        <v>13800</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1117,8 +1425,17 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>75600</v>
+      </c>
+      <c r="G40">
+        <v>14400</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1134,8 +1451,17 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>75600</v>
+      </c>
+      <c r="G41">
+        <v>8040</v>
+      </c>
+      <c r="H41">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1151,8 +1477,17 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>75000</v>
+      </c>
+      <c r="G42">
+        <v>8640</v>
+      </c>
+      <c r="H42">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1168,8 +1503,17 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>74400</v>
+      </c>
+      <c r="G43">
+        <v>9240</v>
+      </c>
+      <c r="H43">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1185,8 +1529,17 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>73800</v>
+      </c>
+      <c r="G44">
+        <v>9840</v>
+      </c>
+      <c r="H44">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1202,8 +1555,17 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>73200</v>
+      </c>
+      <c r="G45">
+        <v>10440</v>
+      </c>
+      <c r="H45">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1219,8 +1581,17 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>72600</v>
+      </c>
+      <c r="G46">
+        <v>11040</v>
+      </c>
+      <c r="H46">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1236,8 +1607,17 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>72000</v>
+      </c>
+      <c r="G47">
+        <v>11640</v>
+      </c>
+      <c r="H47">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1253,8 +1633,17 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>78000</v>
+      </c>
+      <c r="G48">
+        <v>11640</v>
+      </c>
+      <c r="H48">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1270,8 +1659,17 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>84000</v>
+      </c>
+      <c r="G49">
+        <v>11640</v>
+      </c>
+      <c r="H49">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1287,8 +1685,17 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>83400</v>
+      </c>
+      <c r="G50">
+        <v>12240</v>
+      </c>
+      <c r="H50">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1304,8 +1711,17 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>82800</v>
+      </c>
+      <c r="G51">
+        <v>12840</v>
+      </c>
+      <c r="H51">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1321,8 +1737,17 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>82200</v>
+      </c>
+      <c r="G52">
+        <v>13440</v>
+      </c>
+      <c r="H52">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1338,8 +1763,17 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>81600</v>
+      </c>
+      <c r="G53">
+        <v>14040</v>
+      </c>
+      <c r="H53">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1355,8 +1789,17 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>81000</v>
+      </c>
+      <c r="G54">
+        <v>14640</v>
+      </c>
+      <c r="H54">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1372,8 +1815,17 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>80400</v>
+      </c>
+      <c r="G55">
+        <v>15240</v>
+      </c>
+      <c r="H55">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1389,8 +1841,17 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>86400</v>
+      </c>
+      <c r="G56">
+        <v>15240</v>
+      </c>
+      <c r="H56">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1406,8 +1867,17 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>92400</v>
+      </c>
+      <c r="G57">
+        <v>15240</v>
+      </c>
+      <c r="H57">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1423,8 +1893,17 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>98400</v>
+      </c>
+      <c r="G58">
+        <v>15240</v>
+      </c>
+      <c r="H58">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1440,8 +1919,17 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>104400</v>
+      </c>
+      <c r="G59">
+        <v>15240</v>
+      </c>
+      <c r="H59">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1457,8 +1945,17 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>110400</v>
+      </c>
+      <c r="G60">
+        <v>15240</v>
+      </c>
+      <c r="H60">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1474,8 +1971,17 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>116400</v>
+      </c>
+      <c r="G61">
+        <v>15240</v>
+      </c>
+      <c r="H61">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1491,8 +1997,17 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>122400</v>
+      </c>
+      <c r="G62">
+        <v>15240</v>
+      </c>
+      <c r="H62">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1508,8 +2023,17 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>128400</v>
+      </c>
+      <c r="G63">
+        <v>15240</v>
+      </c>
+      <c r="H63">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1525,8 +2049,17 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>134400</v>
+      </c>
+      <c r="G64">
+        <v>15240</v>
+      </c>
+      <c r="H64">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1542,8 +2075,17 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>140400</v>
+      </c>
+      <c r="G65">
+        <v>15240</v>
+      </c>
+      <c r="H65">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1559,8 +2101,17 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>146400</v>
+      </c>
+      <c r="G66">
+        <v>15240</v>
+      </c>
+      <c r="H66">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1576,8 +2127,17 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>145800</v>
+      </c>
+      <c r="G67">
+        <v>15840</v>
+      </c>
+      <c r="H67">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1593,8 +2153,17 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>145200</v>
+      </c>
+      <c r="G68">
+        <v>16440</v>
+      </c>
+      <c r="H68">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1610,8 +2179,17 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>144600</v>
+      </c>
+      <c r="G69">
+        <v>17040</v>
+      </c>
+      <c r="H69">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1627,8 +2205,17 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>144000</v>
+      </c>
+      <c r="G70">
+        <v>17640</v>
+      </c>
+      <c r="H70">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1644,8 +2231,17 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>143400</v>
+      </c>
+      <c r="G71">
+        <v>18240</v>
+      </c>
+      <c r="H71">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1661,8 +2257,17 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>142800</v>
+      </c>
+      <c r="G72">
+        <v>18840</v>
+      </c>
+      <c r="H72">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1678,8 +2283,17 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>142200</v>
+      </c>
+      <c r="G73">
+        <v>19440</v>
+      </c>
+      <c r="H73">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1695,8 +2309,17 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>141600</v>
+      </c>
+      <c r="G74">
+        <v>20040</v>
+      </c>
+      <c r="H74">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1712,8 +2335,17 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>141000</v>
+      </c>
+      <c r="G75">
+        <v>20640</v>
+      </c>
+      <c r="H75">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1729,8 +2361,17 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>140400</v>
+      </c>
+      <c r="G76">
+        <v>21240</v>
+      </c>
+      <c r="H76">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1746,8 +2387,17 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>139800</v>
+      </c>
+      <c r="G77">
+        <v>21840</v>
+      </c>
+      <c r="H77">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1763,8 +2413,17 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>139200</v>
+      </c>
+      <c r="G78">
+        <v>22440</v>
+      </c>
+      <c r="H78">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1780,8 +2439,17 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>138600</v>
+      </c>
+      <c r="G79">
+        <v>23040</v>
+      </c>
+      <c r="H79">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1797,8 +2465,17 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>138000</v>
+      </c>
+      <c r="G80">
+        <v>23640</v>
+      </c>
+      <c r="H80">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1814,8 +2491,17 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>137400</v>
+      </c>
+      <c r="G81">
+        <v>24240</v>
+      </c>
+      <c r="H81">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1831,8 +2517,17 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>136800</v>
+      </c>
+      <c r="G82">
+        <v>24840</v>
+      </c>
+      <c r="H82">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1848,8 +2543,17 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>136200</v>
+      </c>
+      <c r="G83">
+        <v>25440</v>
+      </c>
+      <c r="H83">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1865,8 +2569,17 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>135600</v>
+      </c>
+      <c r="G84">
+        <v>26040</v>
+      </c>
+      <c r="H84">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1882,8 +2595,17 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>135000</v>
+      </c>
+      <c r="G85">
+        <v>26640</v>
+      </c>
+      <c r="H85">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1899,8 +2621,17 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>134400</v>
+      </c>
+      <c r="G86">
+        <v>27240</v>
+      </c>
+      <c r="H86">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1916,8 +2647,17 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>133800</v>
+      </c>
+      <c r="G87">
+        <v>27840</v>
+      </c>
+      <c r="H87">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1933,8 +2673,17 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>133200</v>
+      </c>
+      <c r="G88">
+        <v>28440</v>
+      </c>
+      <c r="H88">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1950,8 +2699,17 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>132600</v>
+      </c>
+      <c r="G89">
+        <v>29040</v>
+      </c>
+      <c r="H89">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1967,8 +2725,17 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>132000</v>
+      </c>
+      <c r="G90">
+        <v>29640</v>
+      </c>
+      <c r="H90">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1984,8 +2751,17 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>131400</v>
+      </c>
+      <c r="G91">
+        <v>30240</v>
+      </c>
+      <c r="H91">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2001,8 +2777,17 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>130800</v>
+      </c>
+      <c r="G92">
+        <v>30840</v>
+      </c>
+      <c r="H92">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2018,8 +2803,17 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>136800</v>
+      </c>
+      <c r="G93">
+        <v>30840</v>
+      </c>
+      <c r="H93">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2035,8 +2829,17 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>136200</v>
+      </c>
+      <c r="G94">
+        <v>31440</v>
+      </c>
+      <c r="H94">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2052,8 +2855,17 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>142200</v>
+      </c>
+      <c r="G95">
+        <v>31440</v>
+      </c>
+      <c r="H95">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2069,8 +2881,17 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>148200</v>
+      </c>
+      <c r="G96">
+        <v>31440</v>
+      </c>
+      <c r="H96">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2086,8 +2907,17 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>154200</v>
+      </c>
+      <c r="G97">
+        <v>31440</v>
+      </c>
+      <c r="H97">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2103,8 +2933,17 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>153600</v>
+      </c>
+      <c r="G98">
+        <v>32040</v>
+      </c>
+      <c r="H98">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2120,8 +2959,17 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>153000</v>
+      </c>
+      <c r="G99">
+        <v>32640</v>
+      </c>
+      <c r="H99">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2137,8 +2985,17 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>152400</v>
+      </c>
+      <c r="G100">
+        <v>33240</v>
+      </c>
+      <c r="H100">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2154,8 +3011,17 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>151800</v>
+      </c>
+      <c r="G101">
+        <v>33840</v>
+      </c>
+      <c r="H101">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2171,8 +3037,17 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>151200</v>
+      </c>
+      <c r="G102">
+        <v>34440</v>
+      </c>
+      <c r="H102">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2188,8 +3063,17 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>150600</v>
+      </c>
+      <c r="G103">
+        <v>35040</v>
+      </c>
+      <c r="H103">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2205,8 +3089,17 @@
       <c r="E104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>150000</v>
+      </c>
+      <c r="G104">
+        <v>35640</v>
+      </c>
+      <c r="H104">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2222,8 +3115,17 @@
       <c r="E105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>149400</v>
+      </c>
+      <c r="G105">
+        <v>36240</v>
+      </c>
+      <c r="H105">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2239,8 +3141,17 @@
       <c r="E106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>148800</v>
+      </c>
+      <c r="G106">
+        <v>36840</v>
+      </c>
+      <c r="H106">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2256,8 +3167,17 @@
       <c r="E107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>148200</v>
+      </c>
+      <c r="G107">
+        <v>37440</v>
+      </c>
+      <c r="H107">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2273,8 +3193,17 @@
       <c r="E108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>147600</v>
+      </c>
+      <c r="G108">
+        <v>38040</v>
+      </c>
+      <c r="H108">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2290,8 +3219,17 @@
       <c r="E109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>147000</v>
+      </c>
+      <c r="G109">
+        <v>38640</v>
+      </c>
+      <c r="H109">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2307,8 +3245,17 @@
       <c r="E110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>146400</v>
+      </c>
+      <c r="G110">
+        <v>39240</v>
+      </c>
+      <c r="H110">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2324,8 +3271,17 @@
       <c r="E111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>145800</v>
+      </c>
+      <c r="G111">
+        <v>39840</v>
+      </c>
+      <c r="H111">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2341,8 +3297,17 @@
       <c r="E112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>145200</v>
+      </c>
+      <c r="G112">
+        <v>40440</v>
+      </c>
+      <c r="H112">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2358,8 +3323,17 @@
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>144600</v>
+      </c>
+      <c r="G113">
+        <v>41040</v>
+      </c>
+      <c r="H113">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2375,8 +3349,17 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>144000</v>
+      </c>
+      <c r="G114">
+        <v>41640</v>
+      </c>
+      <c r="H114">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2392,8 +3375,17 @@
       <c r="E115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>143400</v>
+      </c>
+      <c r="G115">
+        <v>42240</v>
+      </c>
+      <c r="H115">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2409,8 +3401,17 @@
       <c r="E116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>142800</v>
+      </c>
+      <c r="G116">
+        <v>42840</v>
+      </c>
+      <c r="H116">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2426,8 +3427,17 @@
       <c r="E117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>142200</v>
+      </c>
+      <c r="G117">
+        <v>43440</v>
+      </c>
+      <c r="H117">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2443,8 +3453,17 @@
       <c r="E118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>141600</v>
+      </c>
+      <c r="G118">
+        <v>44040</v>
+      </c>
+      <c r="H118">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2460,8 +3479,17 @@
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>141000</v>
+      </c>
+      <c r="G119">
+        <v>44640</v>
+      </c>
+      <c r="H119">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2477,8 +3505,17 @@
       <c r="E120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>140400</v>
+      </c>
+      <c r="G120">
+        <v>45240</v>
+      </c>
+      <c r="H120">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2494,8 +3531,17 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>139800</v>
+      </c>
+      <c r="G121">
+        <v>45840</v>
+      </c>
+      <c r="H121">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2511,8 +3557,17 @@
       <c r="E122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>139200</v>
+      </c>
+      <c r="G122">
+        <v>46440</v>
+      </c>
+      <c r="H122">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2528,8 +3583,17 @@
       <c r="E123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>138600</v>
+      </c>
+      <c r="G123">
+        <v>47040</v>
+      </c>
+      <c r="H123">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2545,8 +3609,17 @@
       <c r="E124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>138000</v>
+      </c>
+      <c r="G124">
+        <v>47640</v>
+      </c>
+      <c r="H124">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2562,8 +3635,17 @@
       <c r="E125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>137400</v>
+      </c>
+      <c r="G125">
+        <v>48240</v>
+      </c>
+      <c r="H125">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2579,8 +3661,17 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>136800</v>
+      </c>
+      <c r="G126">
+        <v>48840</v>
+      </c>
+      <c r="H126">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2596,8 +3687,17 @@
       <c r="E127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>136200</v>
+      </c>
+      <c r="G127">
+        <v>49440</v>
+      </c>
+      <c r="H127">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2613,8 +3713,17 @@
       <c r="E128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>135600</v>
+      </c>
+      <c r="G128">
+        <v>50040</v>
+      </c>
+      <c r="H128">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2630,8 +3739,17 @@
       <c r="E129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>135000</v>
+      </c>
+      <c r="G129">
+        <v>50640</v>
+      </c>
+      <c r="H129">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2647,8 +3765,17 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>134400</v>
+      </c>
+      <c r="G130">
+        <v>51240</v>
+      </c>
+      <c r="H130">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2664,8 +3791,17 @@
       <c r="E131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>133800</v>
+      </c>
+      <c r="G131">
+        <v>51840</v>
+      </c>
+      <c r="H131">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2681,8 +3817,17 @@
       <c r="E132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>133200</v>
+      </c>
+      <c r="G132">
+        <v>52440</v>
+      </c>
+      <c r="H132">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2698,8 +3843,17 @@
       <c r="E133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>132600</v>
+      </c>
+      <c r="G133">
+        <v>53040</v>
+      </c>
+      <c r="H133">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2715,8 +3869,17 @@
       <c r="E134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>132000</v>
+      </c>
+      <c r="G134">
+        <v>53640</v>
+      </c>
+      <c r="H134">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2732,8 +3895,17 @@
       <c r="E135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>138000</v>
+      </c>
+      <c r="G135">
+        <v>53640</v>
+      </c>
+      <c r="H135">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2749,8 +3921,17 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>144000</v>
+      </c>
+      <c r="G136">
+        <v>53640</v>
+      </c>
+      <c r="H136">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2766,8 +3947,17 @@
       <c r="E137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>150000</v>
+      </c>
+      <c r="G137">
+        <v>53640</v>
+      </c>
+      <c r="H137">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2783,8 +3973,17 @@
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>156000</v>
+      </c>
+      <c r="G138">
+        <v>53640</v>
+      </c>
+      <c r="H138">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2800,8 +3999,17 @@
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>162000</v>
+      </c>
+      <c r="G139">
+        <v>53640</v>
+      </c>
+      <c r="H139">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2817,8 +4025,17 @@
       <c r="E140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>168000</v>
+      </c>
+      <c r="G140">
+        <v>53640</v>
+      </c>
+      <c r="H140">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2834,8 +4051,17 @@
       <c r="E141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>174000</v>
+      </c>
+      <c r="G141">
+        <v>53640</v>
+      </c>
+      <c r="H141">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2851,8 +4077,17 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>180000</v>
+      </c>
+      <c r="G142">
+        <v>53640</v>
+      </c>
+      <c r="H142">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2868,8 +4103,17 @@
       <c r="E143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>186000</v>
+      </c>
+      <c r="G143">
+        <v>53640</v>
+      </c>
+      <c r="H143">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2885,8 +4129,17 @@
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>192000</v>
+      </c>
+      <c r="G144">
+        <v>53640</v>
+      </c>
+      <c r="H144">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2902,8 +4155,17 @@
       <c r="E145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>198000</v>
+      </c>
+      <c r="G145">
+        <v>53640</v>
+      </c>
+      <c r="H145">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2919,8 +4181,17 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>197400</v>
+      </c>
+      <c r="G146">
+        <v>54240</v>
+      </c>
+      <c r="H146">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2936,8 +4207,17 @@
       <c r="E147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>196800</v>
+      </c>
+      <c r="G147">
+        <v>54840</v>
+      </c>
+      <c r="H147">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2953,8 +4233,17 @@
       <c r="E148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>196200</v>
+      </c>
+      <c r="G148">
+        <v>55440</v>
+      </c>
+      <c r="H148">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2970,8 +4259,17 @@
       <c r="E149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>195600</v>
+      </c>
+      <c r="G149">
+        <v>56040</v>
+      </c>
+      <c r="H149">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2987,8 +4285,17 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>195000</v>
+      </c>
+      <c r="G150">
+        <v>56640</v>
+      </c>
+      <c r="H150">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3004,8 +4311,17 @@
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>194400</v>
+      </c>
+      <c r="G151">
+        <v>57240</v>
+      </c>
+      <c r="H151">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3021,8 +4337,17 @@
       <c r="E152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>193800</v>
+      </c>
+      <c r="G152">
+        <v>57840</v>
+      </c>
+      <c r="H152">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3038,8 +4363,17 @@
       <c r="E153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>193200</v>
+      </c>
+      <c r="G153">
+        <v>58440</v>
+      </c>
+      <c r="H153">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3055,8 +4389,17 @@
       <c r="E154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>192600</v>
+      </c>
+      <c r="G154">
+        <v>59040</v>
+      </c>
+      <c r="H154">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3072,8 +4415,17 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>192000</v>
+      </c>
+      <c r="G155">
+        <v>59640</v>
+      </c>
+      <c r="H155">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3089,8 +4441,17 @@
       <c r="E156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>191400</v>
+      </c>
+      <c r="G156">
+        <v>60240</v>
+      </c>
+      <c r="H156">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3098,16 +4459,25 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>190800</v>
+      </c>
+      <c r="G157">
+        <v>60840</v>
+      </c>
+      <c r="H157">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3123,8 +4493,17 @@
       <c r="E158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>190200</v>
+      </c>
+      <c r="G158">
+        <v>61440</v>
+      </c>
+      <c r="H158">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3140,8 +4519,17 @@
       <c r="E159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>189600</v>
+      </c>
+      <c r="G159">
+        <v>62040</v>
+      </c>
+      <c r="H159">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3157,8 +4545,17 @@
       <c r="E160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>189000</v>
+      </c>
+      <c r="G160">
+        <v>62640</v>
+      </c>
+      <c r="H160">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3174,8 +4571,17 @@
       <c r="E161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>188400</v>
+      </c>
+      <c r="G161">
+        <v>63240</v>
+      </c>
+      <c r="H161">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3191,8 +4597,17 @@
       <c r="E162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>187800</v>
+      </c>
+      <c r="G162">
+        <v>63840</v>
+      </c>
+      <c r="H162">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3208,8 +4623,17 @@
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>187200</v>
+      </c>
+      <c r="G163">
+        <v>64440</v>
+      </c>
+      <c r="H163">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3225,8 +4649,17 @@
       <c r="E164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>186600</v>
+      </c>
+      <c r="G164">
+        <v>65040</v>
+      </c>
+      <c r="H164">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3242,8 +4675,17 @@
       <c r="E165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>186000</v>
+      </c>
+      <c r="G165">
+        <v>65640</v>
+      </c>
+      <c r="H165">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3259,8 +4701,17 @@
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>185400</v>
+      </c>
+      <c r="G166">
+        <v>66240</v>
+      </c>
+      <c r="H166">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3276,8 +4727,17 @@
       <c r="E167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>184800</v>
+      </c>
+      <c r="G167">
+        <v>66840</v>
+      </c>
+      <c r="H167">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3293,8 +4753,17 @@
       <c r="E168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>190800</v>
+      </c>
+      <c r="G168">
+        <v>66840</v>
+      </c>
+      <c r="H168">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3310,8 +4779,17 @@
       <c r="E169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>196800</v>
+      </c>
+      <c r="G169">
+        <v>66840</v>
+      </c>
+      <c r="H169">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3327,8 +4805,17 @@
       <c r="E170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>202800</v>
+      </c>
+      <c r="G170">
+        <v>66840</v>
+      </c>
+      <c r="H170">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3344,8 +4831,17 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>208800</v>
+      </c>
+      <c r="G171">
+        <v>66840</v>
+      </c>
+      <c r="H171">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3361,8 +4857,17 @@
       <c r="E172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>214800</v>
+      </c>
+      <c r="G172">
+        <v>66840</v>
+      </c>
+      <c r="H172">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3378,8 +4883,17 @@
       <c r="E173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>220800</v>
+      </c>
+      <c r="G173">
+        <v>66840</v>
+      </c>
+      <c r="H173">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3395,8 +4909,17 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>226800</v>
+      </c>
+      <c r="G174">
+        <v>66840</v>
+      </c>
+      <c r="H174">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3412,8 +4935,17 @@
       <c r="E175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>232800</v>
+      </c>
+      <c r="G175">
+        <v>66840</v>
+      </c>
+      <c r="H175">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3429,8 +4961,17 @@
       <c r="E176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>238800</v>
+      </c>
+      <c r="G176">
+        <v>66840</v>
+      </c>
+      <c r="H176">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3446,8 +4987,17 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>244800</v>
+      </c>
+      <c r="G177">
+        <v>66840</v>
+      </c>
+      <c r="H177">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3463,8 +5013,17 @@
       <c r="E178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>250800</v>
+      </c>
+      <c r="G178">
+        <v>66840</v>
+      </c>
+      <c r="H178">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3480,8 +5039,17 @@
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>256800</v>
+      </c>
+      <c r="G179">
+        <v>66840</v>
+      </c>
+      <c r="H179">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3497,8 +5065,17 @@
       <c r="E180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>256200</v>
+      </c>
+      <c r="G180">
+        <v>67440</v>
+      </c>
+      <c r="H180">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3514,8 +5091,17 @@
       <c r="E181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>255600</v>
+      </c>
+      <c r="G181">
+        <v>68040</v>
+      </c>
+      <c r="H181">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3531,8 +5117,17 @@
       <c r="E182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>255000</v>
+      </c>
+      <c r="G182">
+        <v>68640</v>
+      </c>
+      <c r="H182">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3548,8 +5143,17 @@
       <c r="E183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>254400</v>
+      </c>
+      <c r="G183">
+        <v>69240</v>
+      </c>
+      <c r="H183">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3565,8 +5169,17 @@
       <c r="E184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>253800</v>
+      </c>
+      <c r="G184">
+        <v>69840</v>
+      </c>
+      <c r="H184">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3582,8 +5195,17 @@
       <c r="E185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>253200</v>
+      </c>
+      <c r="G185">
+        <v>70440</v>
+      </c>
+      <c r="H185">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3599,8 +5221,17 @@
       <c r="E186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>259200</v>
+      </c>
+      <c r="G186">
+        <v>70440</v>
+      </c>
+      <c r="H186">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3616,8 +5247,17 @@
       <c r="E187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>265200</v>
+      </c>
+      <c r="G187">
+        <v>70440</v>
+      </c>
+      <c r="H187">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3633,8 +5273,17 @@
       <c r="E188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>271200</v>
+      </c>
+      <c r="G188">
+        <v>70440</v>
+      </c>
+      <c r="H188">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3650,8 +5299,17 @@
       <c r="E189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>277200</v>
+      </c>
+      <c r="G189">
+        <v>70440</v>
+      </c>
+      <c r="H189">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3667,8 +5325,17 @@
       <c r="E190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>283200</v>
+      </c>
+      <c r="G190">
+        <v>70440</v>
+      </c>
+      <c r="H190">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3684,8 +5351,17 @@
       <c r="E191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>289200</v>
+      </c>
+      <c r="G191">
+        <v>70440</v>
+      </c>
+      <c r="H191">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3701,8 +5377,17 @@
       <c r="E192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>288600</v>
+      </c>
+      <c r="G192">
+        <v>71040</v>
+      </c>
+      <c r="H192">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3718,8 +5403,17 @@
       <c r="E193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>288000</v>
+      </c>
+      <c r="G193">
+        <v>71640</v>
+      </c>
+      <c r="H193">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3735,8 +5429,17 @@
       <c r="E194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>287400</v>
+      </c>
+      <c r="G194">
+        <v>72240</v>
+      </c>
+      <c r="H194">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3752,8 +5455,17 @@
       <c r="E195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>286800</v>
+      </c>
+      <c r="G195">
+        <v>72840</v>
+      </c>
+      <c r="H195">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3769,8 +5481,17 @@
       <c r="E196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>286200</v>
+      </c>
+      <c r="G196">
+        <v>73440</v>
+      </c>
+      <c r="H196">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3786,8 +5507,17 @@
       <c r="E197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>285600</v>
+      </c>
+      <c r="G197">
+        <v>74040</v>
+      </c>
+      <c r="H197">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3803,8 +5533,17 @@
       <c r="E198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>285000</v>
+      </c>
+      <c r="G198">
+        <v>74640</v>
+      </c>
+      <c r="H198">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3820,8 +5559,17 @@
       <c r="E199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>284400</v>
+      </c>
+      <c r="G199">
+        <v>75240</v>
+      </c>
+      <c r="H199">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3837,8 +5585,17 @@
       <c r="E200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>283800</v>
+      </c>
+      <c r="G200">
+        <v>75840</v>
+      </c>
+      <c r="H200">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3854,8 +5611,17 @@
       <c r="E201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>283200</v>
+      </c>
+      <c r="G201">
+        <v>76440</v>
+      </c>
+      <c r="H201">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3871,8 +5637,17 @@
       <c r="E202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>282600</v>
+      </c>
+      <c r="G202">
+        <v>77040</v>
+      </c>
+      <c r="H202">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3888,8 +5663,17 @@
       <c r="E203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>282000</v>
+      </c>
+      <c r="G203">
+        <v>77640</v>
+      </c>
+      <c r="H203">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3905,8 +5689,17 @@
       <c r="E204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>281400</v>
+      </c>
+      <c r="G204">
+        <v>78240</v>
+      </c>
+      <c r="H204">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3922,8 +5715,17 @@
       <c r="E205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>280800</v>
+      </c>
+      <c r="G205">
+        <v>78840</v>
+      </c>
+      <c r="H205">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3939,8 +5741,17 @@
       <c r="E206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>280200</v>
+      </c>
+      <c r="G206">
+        <v>79440</v>
+      </c>
+      <c r="H206">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3956,8 +5767,17 @@
       <c r="E207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>279600</v>
+      </c>
+      <c r="G207">
+        <v>80040</v>
+      </c>
+      <c r="H207">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3973,8 +5793,17 @@
       <c r="E208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>279000</v>
+      </c>
+      <c r="G208">
+        <v>80640</v>
+      </c>
+      <c r="H208">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3990,8 +5819,17 @@
       <c r="E209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>278400</v>
+      </c>
+      <c r="G209">
+        <v>81240</v>
+      </c>
+      <c r="H209">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4007,8 +5845,17 @@
       <c r="E210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>277800</v>
+      </c>
+      <c r="G210">
+        <v>81840</v>
+      </c>
+      <c r="H210">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4024,8 +5871,17 @@
       <c r="E211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>277200</v>
+      </c>
+      <c r="G211">
+        <v>82440</v>
+      </c>
+      <c r="H211">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4041,8 +5897,17 @@
       <c r="E212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>276600</v>
+      </c>
+      <c r="G212">
+        <v>83040</v>
+      </c>
+      <c r="H212">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4058,8 +5923,17 @@
       <c r="E213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>276000</v>
+      </c>
+      <c r="G213">
+        <v>83640</v>
+      </c>
+      <c r="H213">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4075,8 +5949,17 @@
       <c r="E214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>275400</v>
+      </c>
+      <c r="G214">
+        <v>84240</v>
+      </c>
+      <c r="H214">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4092,8 +5975,17 @@
       <c r="E215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>274800</v>
+      </c>
+      <c r="G215">
+        <v>84840</v>
+      </c>
+      <c r="H215">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4109,8 +6001,17 @@
       <c r="E216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>274200</v>
+      </c>
+      <c r="G216">
+        <v>85440</v>
+      </c>
+      <c r="H216">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4126,8 +6027,17 @@
       <c r="E217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>273600</v>
+      </c>
+      <c r="G217">
+        <v>86040</v>
+      </c>
+      <c r="H217">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4143,8 +6053,17 @@
       <c r="E218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>273000</v>
+      </c>
+      <c r="G218">
+        <v>86640</v>
+      </c>
+      <c r="H218">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4160,8 +6079,17 @@
       <c r="E219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>272400</v>
+      </c>
+      <c r="G219">
+        <v>87240</v>
+      </c>
+      <c r="H219">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4177,8 +6105,17 @@
       <c r="E220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>271800</v>
+      </c>
+      <c r="G220">
+        <v>87840</v>
+      </c>
+      <c r="H220">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4194,8 +6131,17 @@
       <c r="E221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>271200</v>
+      </c>
+      <c r="G221">
+        <v>88440</v>
+      </c>
+      <c r="H221">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4211,8 +6157,17 @@
       <c r="E222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>270600</v>
+      </c>
+      <c r="G222">
+        <v>89040</v>
+      </c>
+      <c r="H222">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4228,8 +6183,17 @@
       <c r="E223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>270000</v>
+      </c>
+      <c r="G223">
+        <v>89640</v>
+      </c>
+      <c r="H223">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4245,8 +6209,17 @@
       <c r="E224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>269400</v>
+      </c>
+      <c r="G224">
+        <v>90240</v>
+      </c>
+      <c r="H224">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4262,8 +6235,17 @@
       <c r="E225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>268800</v>
+      </c>
+      <c r="G225">
+        <v>90840</v>
+      </c>
+      <c r="H225">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4279,8 +6261,17 @@
       <c r="E226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>268200</v>
+      </c>
+      <c r="G226">
+        <v>91440</v>
+      </c>
+      <c r="H226">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4296,8 +6287,17 @@
       <c r="E227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>267600</v>
+      </c>
+      <c r="G227">
+        <v>92040</v>
+      </c>
+      <c r="H227">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4313,8 +6313,17 @@
       <c r="E228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>267000</v>
+      </c>
+      <c r="G228">
+        <v>92640</v>
+      </c>
+      <c r="H228">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4330,8 +6339,17 @@
       <c r="E229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>266400</v>
+      </c>
+      <c r="G229">
+        <v>93240</v>
+      </c>
+      <c r="H229">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4339,16 +6357,25 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>265800</v>
+      </c>
+      <c r="G230">
+        <v>93840</v>
+      </c>
+      <c r="H230">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4356,16 +6383,25 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>265200</v>
+      </c>
+      <c r="G231">
+        <v>94440</v>
+      </c>
+      <c r="H231">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4381,8 +6417,17 @@
       <c r="E232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>271200</v>
+      </c>
+      <c r="G232">
+        <v>94440</v>
+      </c>
+      <c r="H232">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4398,8 +6443,17 @@
       <c r="E233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>277200</v>
+      </c>
+      <c r="G233">
+        <v>94440</v>
+      </c>
+      <c r="H233">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4415,8 +6469,17 @@
       <c r="E234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>283200</v>
+      </c>
+      <c r="G234">
+        <v>94440</v>
+      </c>
+      <c r="H234">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4432,8 +6495,17 @@
       <c r="E235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>289200</v>
+      </c>
+      <c r="G235">
+        <v>94440</v>
+      </c>
+      <c r="H235">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4449,8 +6521,17 @@
       <c r="E236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>295200</v>
+      </c>
+      <c r="G236">
+        <v>94440</v>
+      </c>
+      <c r="H236">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4466,8 +6547,17 @@
       <c r="E237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>294600</v>
+      </c>
+      <c r="G237">
+        <v>95040</v>
+      </c>
+      <c r="H237">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4483,8 +6573,17 @@
       <c r="E238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>294000</v>
+      </c>
+      <c r="G238">
+        <v>95640</v>
+      </c>
+      <c r="H238">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4500,8 +6599,17 @@
       <c r="E239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>293400</v>
+      </c>
+      <c r="G239">
+        <v>96240</v>
+      </c>
+      <c r="H239">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4517,8 +6625,17 @@
       <c r="E240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>292800</v>
+      </c>
+      <c r="G240">
+        <v>96840</v>
+      </c>
+      <c r="H240">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4534,8 +6651,17 @@
       <c r="E241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>292200</v>
+      </c>
+      <c r="G241">
+        <v>97440</v>
+      </c>
+      <c r="H241">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4551,8 +6677,17 @@
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>291600</v>
+      </c>
+      <c r="G242">
+        <v>98040</v>
+      </c>
+      <c r="H242">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4568,8 +6703,17 @@
       <c r="E243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>291000</v>
+      </c>
+      <c r="G243">
+        <v>98640</v>
+      </c>
+      <c r="H243">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4585,8 +6729,17 @@
       <c r="E244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>290400</v>
+      </c>
+      <c r="G244">
+        <v>99240</v>
+      </c>
+      <c r="H244">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4602,8 +6755,17 @@
       <c r="E245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>289800</v>
+      </c>
+      <c r="G245">
+        <v>99840</v>
+      </c>
+      <c r="H245">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4619,8 +6781,17 @@
       <c r="E246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>289200</v>
+      </c>
+      <c r="G246">
+        <v>100440</v>
+      </c>
+      <c r="H246">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4636,8 +6807,17 @@
       <c r="E247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>288600</v>
+      </c>
+      <c r="G247">
+        <v>101040</v>
+      </c>
+      <c r="H247">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4653,8 +6833,17 @@
       <c r="E248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>294600</v>
+      </c>
+      <c r="G248">
+        <v>101040</v>
+      </c>
+      <c r="H248">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4670,8 +6859,17 @@
       <c r="E249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>300600</v>
+      </c>
+      <c r="G249">
+        <v>101040</v>
+      </c>
+      <c r="H249">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4687,8 +6885,17 @@
       <c r="E250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>306600</v>
+      </c>
+      <c r="G250">
+        <v>101040</v>
+      </c>
+      <c r="H250">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4704,8 +6911,17 @@
       <c r="E251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>312600</v>
+      </c>
+      <c r="G251">
+        <v>101040</v>
+      </c>
+      <c r="H251">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4721,8 +6937,17 @@
       <c r="E252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>318600</v>
+      </c>
+      <c r="G252">
+        <v>101040</v>
+      </c>
+      <c r="H252">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4738,8 +6963,17 @@
       <c r="E253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>324600</v>
+      </c>
+      <c r="G253">
+        <v>101040</v>
+      </c>
+      <c r="H253">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4755,8 +6989,17 @@
       <c r="E254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>330600</v>
+      </c>
+      <c r="G254">
+        <v>101040</v>
+      </c>
+      <c r="H254">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4772,8 +7015,17 @@
       <c r="E255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>336600</v>
+      </c>
+      <c r="G255">
+        <v>101040</v>
+      </c>
+      <c r="H255">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4789,8 +7041,17 @@
       <c r="E256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>342600</v>
+      </c>
+      <c r="G256">
+        <v>101040</v>
+      </c>
+      <c r="H256">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4806,8 +7067,17 @@
       <c r="E257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>348600</v>
+      </c>
+      <c r="G257">
+        <v>101040</v>
+      </c>
+      <c r="H257">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4823,8 +7093,17 @@
       <c r="E258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>354600</v>
+      </c>
+      <c r="G258">
+        <v>101040</v>
+      </c>
+      <c r="H258">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4840,8 +7119,17 @@
       <c r="E259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>354000</v>
+      </c>
+      <c r="G259">
+        <v>101640</v>
+      </c>
+      <c r="H259">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4857,8 +7145,17 @@
       <c r="E260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>353400</v>
+      </c>
+      <c r="G260">
+        <v>102240</v>
+      </c>
+      <c r="H260">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4874,8 +7171,17 @@
       <c r="E261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>352800</v>
+      </c>
+      <c r="G261">
+        <v>102840</v>
+      </c>
+      <c r="H261">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4891,8 +7197,17 @@
       <c r="E262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>352200</v>
+      </c>
+      <c r="G262">
+        <v>103440</v>
+      </c>
+      <c r="H262">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4908,8 +7223,17 @@
       <c r="E263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>351600</v>
+      </c>
+      <c r="G263">
+        <v>104040</v>
+      </c>
+      <c r="H263">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4925,8 +7249,17 @@
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>351000</v>
+      </c>
+      <c r="G264">
+        <v>104640</v>
+      </c>
+      <c r="H264">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4942,8 +7275,17 @@
       <c r="E265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>350400</v>
+      </c>
+      <c r="G265">
+        <v>105240</v>
+      </c>
+      <c r="H265">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4959,8 +7301,17 @@
       <c r="E266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>349800</v>
+      </c>
+      <c r="G266">
+        <v>105840</v>
+      </c>
+      <c r="H266">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4976,8 +7327,17 @@
       <c r="E267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>349200</v>
+      </c>
+      <c r="G267">
+        <v>106440</v>
+      </c>
+      <c r="H267">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4993,8 +7353,17 @@
       <c r="E268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>348600</v>
+      </c>
+      <c r="G268">
+        <v>107040</v>
+      </c>
+      <c r="H268">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5010,8 +7379,17 @@
       <c r="E269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>348000</v>
+      </c>
+      <c r="G269">
+        <v>107640</v>
+      </c>
+      <c r="H269">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5027,8 +7405,17 @@
       <c r="E270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>347400</v>
+      </c>
+      <c r="G270">
+        <v>108240</v>
+      </c>
+      <c r="H270">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5044,8 +7431,17 @@
       <c r="E271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>346800</v>
+      </c>
+      <c r="G271">
+        <v>108840</v>
+      </c>
+      <c r="H271">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5061,8 +7457,17 @@
       <c r="E272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>346200</v>
+      </c>
+      <c r="G272">
+        <v>109440</v>
+      </c>
+      <c r="H272">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5078,8 +7483,17 @@
       <c r="E273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>345600</v>
+      </c>
+      <c r="G273">
+        <v>110040</v>
+      </c>
+      <c r="H273">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5095,8 +7509,17 @@
       <c r="E274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>345000</v>
+      </c>
+      <c r="G274">
+        <v>110640</v>
+      </c>
+      <c r="H274">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5112,8 +7535,17 @@
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>344400</v>
+      </c>
+      <c r="G275">
+        <v>111240</v>
+      </c>
+      <c r="H275">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5129,8 +7561,17 @@
       <c r="E276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>343800</v>
+      </c>
+      <c r="G276">
+        <v>111840</v>
+      </c>
+      <c r="H276">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5146,8 +7587,17 @@
       <c r="E277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>343200</v>
+      </c>
+      <c r="G277">
+        <v>112440</v>
+      </c>
+      <c r="H277">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5163,8 +7613,17 @@
       <c r="E278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>349200</v>
+      </c>
+      <c r="G278">
+        <v>112440</v>
+      </c>
+      <c r="H278">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5180,8 +7639,17 @@
       <c r="E279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>355200</v>
+      </c>
+      <c r="G279">
+        <v>112440</v>
+      </c>
+      <c r="H279">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5197,8 +7665,17 @@
       <c r="E280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>361200</v>
+      </c>
+      <c r="G280">
+        <v>112440</v>
+      </c>
+      <c r="H280">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -5214,8 +7691,17 @@
       <c r="E281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>367200</v>
+      </c>
+      <c r="G281">
+        <v>112440</v>
+      </c>
+      <c r="H281">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -5231,8 +7717,17 @@
       <c r="E282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>373200</v>
+      </c>
+      <c r="G282">
+        <v>112440</v>
+      </c>
+      <c r="H282">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -5248,8 +7743,17 @@
       <c r="E283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>379200</v>
+      </c>
+      <c r="G283">
+        <v>112440</v>
+      </c>
+      <c r="H283">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -5265,8 +7769,17 @@
       <c r="E284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>385200</v>
+      </c>
+      <c r="G284">
+        <v>112440</v>
+      </c>
+      <c r="H284">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -5282,8 +7795,17 @@
       <c r="E285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>391200</v>
+      </c>
+      <c r="G285">
+        <v>112440</v>
+      </c>
+      <c r="H285">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -5299,8 +7821,17 @@
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>397200</v>
+      </c>
+      <c r="G286">
+        <v>112440</v>
+      </c>
+      <c r="H286">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -5316,8 +7847,17 @@
       <c r="E287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>403200</v>
+      </c>
+      <c r="G287">
+        <v>112440</v>
+      </c>
+      <c r="H287">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -5333,8 +7873,17 @@
       <c r="E288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>409200</v>
+      </c>
+      <c r="G288">
+        <v>112440</v>
+      </c>
+      <c r="H288">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -5350,8 +7899,17 @@
       <c r="E289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>415200</v>
+      </c>
+      <c r="G289">
+        <v>112440</v>
+      </c>
+      <c r="H289">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -5367,8 +7925,17 @@
       <c r="E290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>421200</v>
+      </c>
+      <c r="G290">
+        <v>112440</v>
+      </c>
+      <c r="H290">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -5384,8 +7951,17 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>421200</v>
+      </c>
+      <c r="G291">
+        <v>112440</v>
+      </c>
+      <c r="H291">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -5401,8 +7977,17 @@
       <c r="E292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>421200</v>
+      </c>
+      <c r="G292">
+        <v>112440</v>
+      </c>
+      <c r="H292">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -5418,8 +8003,17 @@
       <c r="E293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>421200</v>
+      </c>
+      <c r="G293">
+        <v>112440</v>
+      </c>
+      <c r="H293">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -5435,8 +8029,17 @@
       <c r="E294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>421200</v>
+      </c>
+      <c r="G294">
+        <v>112440</v>
+      </c>
+      <c r="H294">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -5452,8 +8055,17 @@
       <c r="E295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>421200</v>
+      </c>
+      <c r="G295">
+        <v>112440</v>
+      </c>
+      <c r="H295">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -5469,8 +8081,17 @@
       <c r="E296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>421200</v>
+      </c>
+      <c r="G296">
+        <v>112440</v>
+      </c>
+      <c r="H296">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -5486,8 +8107,17 @@
       <c r="E297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>421200</v>
+      </c>
+      <c r="G297">
+        <v>112440</v>
+      </c>
+      <c r="H297">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -5503,8 +8133,17 @@
       <c r="E298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>421200</v>
+      </c>
+      <c r="G298">
+        <v>112440</v>
+      </c>
+      <c r="H298">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -5520,8 +8159,17 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>421200</v>
+      </c>
+      <c r="G299">
+        <v>112440</v>
+      </c>
+      <c r="H299">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -5537,8 +8185,17 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>421200</v>
+      </c>
+      <c r="G300">
+        <v>112440</v>
+      </c>
+      <c r="H300">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -5554,20 +8211,17 @@
       <c r="E301">
         <v>1</v>
       </c>
+      <c r="F301">
+        <v>421200</v>
+      </c>
+      <c r="G301">
+        <v>112440</v>
+      </c>
+      <c r="H301">
+        <v>6360</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fe753deea9fa81e/Documents/GitHub/Strathdar/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_36118080FA576A5EB80B8DB0FB2D62B1A0BBDC62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE5AB62-F2DC-48F2-9C1D-714A85E9DD11}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Observing</t>
   </si>
@@ -36,12 +54,15 @@
   <si>
     <t>num downlinked</t>
   </si>
+  <si>
+    <t>memory used (kB)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,17 +114,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="I301" sqref="I301"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +488,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -446,8 +517,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -472,8 +546,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -498,8 +575,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -524,8 +604,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2610180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -550,8 +633,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>2520360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -576,8 +662,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2430540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -602,8 +691,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>2340720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -628,8 +720,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>2250900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -654,8 +749,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>2161080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -680,8 +778,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>2071260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -706,8 +807,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>1981440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -732,8 +836,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1891620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -758,8 +865,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1801800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -784,8 +894,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1711980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -810,8 +923,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1622160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -836,8 +952,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1532340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -862,8 +981,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>1442520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -888,8 +1010,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>1352700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -914,8 +1039,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1262880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -940,8 +1068,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>2162880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -966,8 +1097,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>3062880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -992,8 +1126,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>3962880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1018,8 +1155,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>4862880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1044,8 +1184,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>5762880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1070,8 +1213,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>6662880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1096,8 +1242,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>7562880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1122,8 +1271,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>8462880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1148,8 +1300,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>9362880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1174,8 +1329,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>10262880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1200,8 +1358,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>11162880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1226,8 +1387,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>12062880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1252,8 +1416,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>11973060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1278,8 +1445,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>11883240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1304,8 +1474,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>11793420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1330,8 +1503,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>11703600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1356,8 +1532,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>11613780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1382,8 +1561,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>11523960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1408,8 +1590,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>11434140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1434,8 +1619,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>11344320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1460,8 +1648,11 @@
       <c r="H41">
         <v>6360</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>11342412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1486,8 +1677,11 @@
       <c r="H42">
         <v>6360</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>11252592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1512,8 +1706,11 @@
       <c r="H43">
         <v>6360</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>11162772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1538,8 +1735,11 @@
       <c r="H44">
         <v>6360</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>11072952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1564,8 +1764,11 @@
       <c r="H45">
         <v>6360</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>10983132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1590,8 +1793,11 @@
       <c r="H46">
         <v>6360</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>10893312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1616,8 +1822,11 @@
       <c r="H47">
         <v>6360</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>10803492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1642,8 +1851,11 @@
       <c r="H48">
         <v>6360</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>11703492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1668,8 +1880,11 @@
       <c r="H49">
         <v>6360</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>12603492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1694,8 +1909,11 @@
       <c r="H50">
         <v>6360</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>12513672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1720,8 +1938,11 @@
       <c r="H51">
         <v>6360</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>12423852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1746,8 +1967,11 @@
       <c r="H52">
         <v>6360</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>12334032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1772,8 +1996,11 @@
       <c r="H53">
         <v>6360</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>12244212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1798,8 +2025,29 @@
       <c r="H54">
         <v>6360</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>12154392</v>
+      </c>
+      <c r="L54">
+        <v>150</v>
+      </c>
+      <c r="M54">
+        <f>F54*L54</f>
+        <v>12150000</v>
+      </c>
+      <c r="N54">
+        <v>0.3</v>
+      </c>
+      <c r="O54">
+        <f>N54*G54</f>
+        <v>4392</v>
+      </c>
+      <c r="P54">
+        <f>M54+O54</f>
+        <v>12154392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1807,25 +2055,34 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>80400</v>
+        <v>81000</v>
       </c>
       <c r="G55">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H55">
         <v>6360</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>12154392</v>
+      </c>
+      <c r="L55">
+        <v>150</v>
+      </c>
+      <c r="N55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1842,16 +2099,25 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>86400</v>
+        <v>87000</v>
       </c>
       <c r="G56">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H56">
         <v>6360</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>13054392</v>
+      </c>
+      <c r="L56">
+        <v>150</v>
+      </c>
+      <c r="N56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1868,16 +2134,25 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>92400</v>
+        <v>93000</v>
       </c>
       <c r="G57">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H57">
         <v>6360</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>13954392</v>
+      </c>
+      <c r="L57">
+        <v>150</v>
+      </c>
+      <c r="N57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1894,16 +2169,25 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>98400</v>
+        <v>99000</v>
       </c>
       <c r="G58">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H58">
         <v>6360</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>14854392</v>
+      </c>
+      <c r="L58">
+        <v>150</v>
+      </c>
+      <c r="N58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1920,16 +2204,25 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>104400</v>
+        <v>105000</v>
       </c>
       <c r="G59">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H59">
         <v>6360</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>15754392</v>
+      </c>
+      <c r="L59">
+        <v>150</v>
+      </c>
+      <c r="N59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1946,16 +2239,25 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>110400</v>
+        <v>111000</v>
       </c>
       <c r="G60">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H60">
         <v>6360</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>16654392</v>
+      </c>
+      <c r="L60">
+        <v>150</v>
+      </c>
+      <c r="N60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1972,16 +2274,22 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>116400</v>
+        <v>117000</v>
       </c>
       <c r="G61">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H61">
         <v>6360</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>17554392</v>
+      </c>
+      <c r="L61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1998,16 +2306,22 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>122400</v>
+        <v>123000</v>
       </c>
       <c r="G62">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H62">
         <v>6360</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>18454392</v>
+      </c>
+      <c r="L62">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2024,16 +2338,22 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>128400</v>
+        <v>129000</v>
       </c>
       <c r="G63">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H63">
         <v>6360</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>19354392</v>
+      </c>
+      <c r="L63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2050,16 +2370,22 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>134400</v>
+        <v>135000</v>
       </c>
       <c r="G64">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H64">
         <v>6360</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>20254392</v>
+      </c>
+      <c r="L64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2076,16 +2402,22 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>140400</v>
+        <v>141000</v>
       </c>
       <c r="G65">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H65">
         <v>6360</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>21154392</v>
+      </c>
+      <c r="L65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2102,16 +2434,22 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>146400</v>
+        <v>147000</v>
       </c>
       <c r="G66">
-        <v>15240</v>
+        <v>14640</v>
       </c>
       <c r="H66">
         <v>6360</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>22054392</v>
+      </c>
+      <c r="L66">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2128,16 +2466,22 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>145800</v>
+        <v>146400</v>
       </c>
       <c r="G67">
-        <v>15840</v>
+        <v>15240</v>
       </c>
       <c r="H67">
         <v>6360</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>21964572</v>
+      </c>
+      <c r="L67">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2154,16 +2498,22 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>145200</v>
+        <v>145800</v>
       </c>
       <c r="G68">
-        <v>16440</v>
+        <v>15840</v>
       </c>
       <c r="H68">
         <v>6360</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>21874752</v>
+      </c>
+      <c r="L68">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2180,16 +2530,22 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>144600</v>
+        <v>145200</v>
       </c>
       <c r="G69">
-        <v>17040</v>
+        <v>16440</v>
       </c>
       <c r="H69">
         <v>6360</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>21784932</v>
+      </c>
+      <c r="L69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2206,16 +2562,22 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>144000</v>
+        <v>144600</v>
       </c>
       <c r="G70">
-        <v>17640</v>
+        <v>17040</v>
       </c>
       <c r="H70">
         <v>6360</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>21695112</v>
+      </c>
+      <c r="L70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2232,16 +2594,22 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>143400</v>
+        <v>144000</v>
       </c>
       <c r="G71">
-        <v>18240</v>
+        <v>17640</v>
       </c>
       <c r="H71">
         <v>6360</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>21605292</v>
+      </c>
+      <c r="L71">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2258,16 +2626,22 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>142800</v>
+        <v>143400</v>
       </c>
       <c r="G72">
-        <v>18840</v>
+        <v>18240</v>
       </c>
       <c r="H72">
         <v>6360</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>21515472</v>
+      </c>
+      <c r="L72">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2284,16 +2658,22 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>142200</v>
+        <v>142800</v>
       </c>
       <c r="G73">
-        <v>19440</v>
+        <v>18840</v>
       </c>
       <c r="H73">
         <v>6360</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>21425652</v>
+      </c>
+      <c r="L73">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2310,16 +2690,22 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>141600</v>
+        <v>142200</v>
       </c>
       <c r="G74">
-        <v>20040</v>
+        <v>19440</v>
       </c>
       <c r="H74">
         <v>6360</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>21335832</v>
+      </c>
+      <c r="L74">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2336,16 +2722,22 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>141000</v>
+        <v>141600</v>
       </c>
       <c r="G75">
-        <v>20640</v>
+        <v>20040</v>
       </c>
       <c r="H75">
         <v>6360</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>21246012</v>
+      </c>
+      <c r="L75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2362,16 +2754,22 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>140400</v>
+        <v>141000</v>
       </c>
       <c r="G76">
-        <v>21240</v>
+        <v>20640</v>
       </c>
       <c r="H76">
         <v>6360</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>21156192</v>
+      </c>
+      <c r="L76">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2388,16 +2786,22 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>139800</v>
+        <v>140400</v>
       </c>
       <c r="G77">
-        <v>21840</v>
+        <v>21240</v>
       </c>
       <c r="H77">
         <v>6360</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>21066372</v>
+      </c>
+      <c r="L77">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2414,16 +2818,22 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>139200</v>
+        <v>139800</v>
       </c>
       <c r="G78">
-        <v>22440</v>
+        <v>21840</v>
       </c>
       <c r="H78">
         <v>6360</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>20976552</v>
+      </c>
+      <c r="L78">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2440,16 +2850,22 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>138600</v>
+        <v>139200</v>
       </c>
       <c r="G79">
-        <v>23040</v>
+        <v>22440</v>
       </c>
       <c r="H79">
         <v>6360</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>20886732</v>
+      </c>
+      <c r="L79">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2466,16 +2882,22 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>138000</v>
+        <v>138600</v>
       </c>
       <c r="G80">
-        <v>23640</v>
+        <v>23040</v>
       </c>
       <c r="H80">
         <v>6360</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>20796912</v>
+      </c>
+      <c r="L80">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2492,16 +2914,22 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>137400</v>
+        <v>138000</v>
       </c>
       <c r="G81">
-        <v>24240</v>
+        <v>23640</v>
       </c>
       <c r="H81">
         <v>6360</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>20707092</v>
+      </c>
+      <c r="L81">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2518,16 +2946,22 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>136800</v>
+        <v>137400</v>
       </c>
       <c r="G82">
-        <v>24840</v>
+        <v>24240</v>
       </c>
       <c r="H82">
         <v>6360</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>20617272</v>
+      </c>
+      <c r="L82">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2544,16 +2978,22 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>136200</v>
+        <v>136800</v>
       </c>
       <c r="G83">
-        <v>25440</v>
+        <v>24840</v>
       </c>
       <c r="H83">
         <v>6360</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>20527452</v>
+      </c>
+      <c r="L83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2570,16 +3010,22 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>135600</v>
+        <v>136200</v>
       </c>
       <c r="G84">
-        <v>26040</v>
+        <v>25440</v>
       </c>
       <c r="H84">
         <v>6360</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>20437632</v>
+      </c>
+      <c r="L84">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2596,16 +3042,22 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>135000</v>
+        <v>135600</v>
       </c>
       <c r="G85">
-        <v>26640</v>
+        <v>26040</v>
       </c>
       <c r="H85">
         <v>6360</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>20347812</v>
+      </c>
+      <c r="L85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2622,16 +3074,22 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>134400</v>
+        <v>135000</v>
       </c>
       <c r="G86">
-        <v>27240</v>
+        <v>26640</v>
       </c>
       <c r="H86">
         <v>6360</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>20257992</v>
+      </c>
+      <c r="L86">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2648,16 +3106,22 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>133800</v>
+        <v>134400</v>
       </c>
       <c r="G87">
-        <v>27840</v>
+        <v>27240</v>
       </c>
       <c r="H87">
         <v>6360</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>20168172</v>
+      </c>
+      <c r="L87">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2674,16 +3138,22 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>133200</v>
+        <v>133800</v>
       </c>
       <c r="G88">
-        <v>28440</v>
+        <v>27840</v>
       </c>
       <c r="H88">
         <v>6360</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>20078352</v>
+      </c>
+      <c r="L88">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2700,16 +3170,22 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>132600</v>
+        <v>133200</v>
       </c>
       <c r="G89">
-        <v>29040</v>
+        <v>28440</v>
       </c>
       <c r="H89">
         <v>6360</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>19988532</v>
+      </c>
+      <c r="L89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2726,16 +3202,22 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>132000</v>
+        <v>132600</v>
       </c>
       <c r="G90">
-        <v>29640</v>
+        <v>29040</v>
       </c>
       <c r="H90">
         <v>6360</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>19898712</v>
+      </c>
+      <c r="L90">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2752,16 +3234,22 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>131400</v>
+        <v>132000</v>
       </c>
       <c r="G91">
-        <v>30240</v>
+        <v>29640</v>
       </c>
       <c r="H91">
         <v>6360</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <v>19808892</v>
+      </c>
+      <c r="L91">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2778,16 +3266,22 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>130800</v>
+        <v>131400</v>
       </c>
       <c r="G92">
-        <v>30840</v>
+        <v>30240</v>
       </c>
       <c r="H92">
         <v>6360</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92">
+        <v>19719072</v>
+      </c>
+      <c r="L92">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2804,16 +3298,22 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>136800</v>
+        <v>137400</v>
       </c>
       <c r="G93">
-        <v>30840</v>
+        <v>30240</v>
       </c>
       <c r="H93">
         <v>6360</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>20619072</v>
+      </c>
+      <c r="L93">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2821,25 +3321,31 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>136200</v>
+        <v>137400</v>
       </c>
       <c r="G94">
-        <v>31440</v>
+        <v>30240</v>
       </c>
       <c r="H94">
         <v>6360</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94">
+        <v>20619072</v>
+      </c>
+      <c r="L94">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2856,16 +3362,22 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>142200</v>
+        <v>143400</v>
       </c>
       <c r="G95">
-        <v>31440</v>
+        <v>30240</v>
       </c>
       <c r="H95">
         <v>6360</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>21519072</v>
+      </c>
+      <c r="L95">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2882,16 +3394,22 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>148200</v>
+        <v>149400</v>
       </c>
       <c r="G96">
-        <v>31440</v>
+        <v>30240</v>
       </c>
       <c r="H96">
         <v>6360</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>22419072</v>
+      </c>
+      <c r="L96">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2908,16 +3426,22 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>154200</v>
+        <v>155400</v>
       </c>
       <c r="G97">
-        <v>31440</v>
+        <v>30240</v>
       </c>
       <c r="H97">
         <v>6360</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97">
+        <v>23319072</v>
+      </c>
+      <c r="L97">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2934,16 +3458,19 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>153600</v>
+        <v>154800</v>
       </c>
       <c r="G98">
-        <v>32040</v>
+        <v>30840</v>
       </c>
       <c r="H98">
         <v>6360</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98">
+        <v>23229252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2960,16 +3487,19 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>153000</v>
+        <v>154200</v>
       </c>
       <c r="G99">
-        <v>32640</v>
+        <v>31440</v>
       </c>
       <c r="H99">
         <v>6360</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>23139432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2986,16 +3516,19 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>152400</v>
+        <v>153600</v>
       </c>
       <c r="G100">
-        <v>33240</v>
+        <v>32040</v>
       </c>
       <c r="H100">
         <v>6360</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>23049612</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3012,16 +3545,19 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>151800</v>
+        <v>153000</v>
       </c>
       <c r="G101">
-        <v>33840</v>
+        <v>32640</v>
       </c>
       <c r="H101">
         <v>6360</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101">
+        <v>22959792</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3038,16 +3574,19 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>151200</v>
+        <v>152400</v>
       </c>
       <c r="G102">
-        <v>34440</v>
+        <v>33240</v>
       </c>
       <c r="H102">
         <v>6360</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>22869972</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3064,16 +3603,19 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>150600</v>
+        <v>151800</v>
       </c>
       <c r="G103">
-        <v>35040</v>
+        <v>33840</v>
       </c>
       <c r="H103">
         <v>6360</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>22780152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3090,16 +3632,19 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>150000</v>
+        <v>151200</v>
       </c>
       <c r="G104">
-        <v>35640</v>
+        <v>34440</v>
       </c>
       <c r="H104">
         <v>6360</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104">
+        <v>22690332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3116,16 +3661,19 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>149400</v>
+        <v>150600</v>
       </c>
       <c r="G105">
-        <v>36240</v>
+        <v>35040</v>
       </c>
       <c r="H105">
         <v>6360</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105">
+        <v>22600512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3142,16 +3690,19 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>148800</v>
+        <v>150000</v>
       </c>
       <c r="G106">
-        <v>36840</v>
+        <v>35640</v>
       </c>
       <c r="H106">
         <v>6360</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106">
+        <v>22510692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3168,16 +3719,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>148200</v>
+        <v>149400</v>
       </c>
       <c r="G107">
-        <v>37440</v>
+        <v>36240</v>
       </c>
       <c r="H107">
         <v>6360</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107">
+        <v>22420872</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3194,16 +3748,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>147600</v>
+        <v>148800</v>
       </c>
       <c r="G108">
-        <v>38040</v>
+        <v>36840</v>
       </c>
       <c r="H108">
         <v>6360</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108">
+        <v>22331052</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3220,16 +3777,19 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>147000</v>
+        <v>148200</v>
       </c>
       <c r="G109">
-        <v>38640</v>
+        <v>37440</v>
       </c>
       <c r="H109">
         <v>6360</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109">
+        <v>22241232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3246,16 +3806,19 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>146400</v>
+        <v>147600</v>
       </c>
       <c r="G110">
-        <v>39240</v>
+        <v>38040</v>
       </c>
       <c r="H110">
         <v>6360</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110">
+        <v>22151412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3272,16 +3835,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>145800</v>
+        <v>147000</v>
       </c>
       <c r="G111">
-        <v>39840</v>
+        <v>38640</v>
       </c>
       <c r="H111">
         <v>6360</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111">
+        <v>22061592</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3298,16 +3864,19 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>145200</v>
+        <v>146400</v>
       </c>
       <c r="G112">
-        <v>40440</v>
+        <v>39240</v>
       </c>
       <c r="H112">
         <v>6360</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112">
+        <v>21971772</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3324,16 +3893,19 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>144600</v>
+        <v>145800</v>
       </c>
       <c r="G113">
-        <v>41040</v>
+        <v>39840</v>
       </c>
       <c r="H113">
         <v>6360</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113">
+        <v>21881952</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3350,16 +3922,19 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>144000</v>
+        <v>145200</v>
       </c>
       <c r="G114">
-        <v>41640</v>
+        <v>40440</v>
       </c>
       <c r="H114">
         <v>6360</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114">
+        <v>21792132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3376,16 +3951,19 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>143400</v>
+        <v>144600</v>
       </c>
       <c r="G115">
-        <v>42240</v>
+        <v>41040</v>
       </c>
       <c r="H115">
         <v>6360</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115">
+        <v>21702312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3402,16 +3980,19 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>142800</v>
+        <v>144000</v>
       </c>
       <c r="G116">
-        <v>42840</v>
+        <v>41640</v>
       </c>
       <c r="H116">
         <v>6360</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116">
+        <v>21612492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3428,16 +4009,19 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>142200</v>
+        <v>143400</v>
       </c>
       <c r="G117">
-        <v>43440</v>
+        <v>42240</v>
       </c>
       <c r="H117">
         <v>6360</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117">
+        <v>21522672</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3454,16 +4038,19 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>141600</v>
+        <v>142800</v>
       </c>
       <c r="G118">
-        <v>44040</v>
+        <v>42840</v>
       </c>
       <c r="H118">
         <v>6360</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118">
+        <v>21432852</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3480,16 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>141000</v>
+        <v>142200</v>
       </c>
       <c r="G119">
-        <v>44640</v>
+        <v>43440</v>
       </c>
       <c r="H119">
         <v>6360</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119">
+        <v>21343032</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3506,16 +4096,19 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>140400</v>
+        <v>141600</v>
       </c>
       <c r="G120">
-        <v>45240</v>
+        <v>44040</v>
       </c>
       <c r="H120">
         <v>6360</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120">
+        <v>21253212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3532,16 +4125,19 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>139800</v>
+        <v>141000</v>
       </c>
       <c r="G121">
-        <v>45840</v>
+        <v>44640</v>
       </c>
       <c r="H121">
         <v>6360</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121">
+        <v>21163392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3558,16 +4154,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>139200</v>
+        <v>140400</v>
       </c>
       <c r="G122">
-        <v>46440</v>
+        <v>45240</v>
       </c>
       <c r="H122">
         <v>6360</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122">
+        <v>21073572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3584,16 +4183,19 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>138600</v>
+        <v>139800</v>
       </c>
       <c r="G123">
-        <v>47040</v>
+        <v>45840</v>
       </c>
       <c r="H123">
         <v>6360</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123">
+        <v>20983752</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3610,16 +4212,19 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>138000</v>
+        <v>139200</v>
       </c>
       <c r="G124">
-        <v>47640</v>
+        <v>46440</v>
       </c>
       <c r="H124">
         <v>6360</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124">
+        <v>20893932</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3636,16 +4241,19 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>137400</v>
+        <v>138600</v>
       </c>
       <c r="G125">
-        <v>48240</v>
+        <v>47040</v>
       </c>
       <c r="H125">
         <v>6360</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125">
+        <v>20804112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3662,16 +4270,19 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>136800</v>
+        <v>138000</v>
       </c>
       <c r="G126">
-        <v>48840</v>
+        <v>47640</v>
       </c>
       <c r="H126">
         <v>6360</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126">
+        <v>20714292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3688,16 +4299,19 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>136200</v>
+        <v>137400</v>
       </c>
       <c r="G127">
-        <v>49440</v>
+        <v>48240</v>
       </c>
       <c r="H127">
         <v>6360</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127">
+        <v>20624472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3714,16 +4328,19 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>135600</v>
+        <v>136800</v>
       </c>
       <c r="G128">
-        <v>50040</v>
+        <v>48840</v>
       </c>
       <c r="H128">
         <v>6360</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128">
+        <v>20534652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3740,16 +4357,19 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>135000</v>
+        <v>136200</v>
       </c>
       <c r="G129">
-        <v>50640</v>
+        <v>49440</v>
       </c>
       <c r="H129">
         <v>6360</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129">
+        <v>20444832</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3766,16 +4386,19 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>134400</v>
+        <v>135600</v>
       </c>
       <c r="G130">
-        <v>51240</v>
+        <v>50040</v>
       </c>
       <c r="H130">
         <v>6360</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130">
+        <v>20355012</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3792,16 +4415,19 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>133800</v>
+        <v>135000</v>
       </c>
       <c r="G131">
-        <v>51840</v>
+        <v>50640</v>
       </c>
       <c r="H131">
         <v>6360</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131">
+        <v>20265192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3818,16 +4444,19 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>133200</v>
+        <v>134400</v>
       </c>
       <c r="G132">
-        <v>52440</v>
+        <v>51240</v>
       </c>
       <c r="H132">
         <v>6360</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132">
+        <v>20175372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3844,16 +4473,19 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>132600</v>
+        <v>133800</v>
       </c>
       <c r="G133">
-        <v>53040</v>
+        <v>51840</v>
       </c>
       <c r="H133">
         <v>6360</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133">
+        <v>20085552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3870,16 +4502,19 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>132000</v>
+        <v>133200</v>
       </c>
       <c r="G134">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H134">
         <v>6360</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134">
+        <v>19995732</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3896,16 +4531,19 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>138000</v>
+        <v>139200</v>
       </c>
       <c r="G135">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H135">
         <v>6360</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135">
+        <v>20895732</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3922,16 +4560,19 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>144000</v>
+        <v>145200</v>
       </c>
       <c r="G136">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H136">
         <v>6360</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136">
+        <v>21795732</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3948,16 +4589,19 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>150000</v>
+        <v>151200</v>
       </c>
       <c r="G137">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H137">
         <v>6360</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137">
+        <v>22695732</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3974,16 +4618,19 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>156000</v>
+        <v>157200</v>
       </c>
       <c r="G138">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H138">
         <v>6360</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138">
+        <v>23595732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4000,16 +4647,19 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>162000</v>
+        <v>163200</v>
       </c>
       <c r="G139">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H139">
         <v>6360</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139">
+        <v>24495732</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4026,16 +4676,19 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="G140">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H140">
         <v>6360</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140">
+        <v>25395732</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4052,16 +4705,19 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>174000</v>
+        <v>175200</v>
       </c>
       <c r="G141">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H141">
         <v>6360</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141">
+        <v>26295732</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4078,16 +4734,19 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>180000</v>
+        <v>181200</v>
       </c>
       <c r="G142">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H142">
         <v>6360</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142">
+        <v>27195732</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4104,16 +4763,19 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>186000</v>
+        <v>187200</v>
       </c>
       <c r="G143">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H143">
         <v>6360</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143">
+        <v>28095732</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4130,16 +4792,19 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>192000</v>
+        <v>193200</v>
       </c>
       <c r="G144">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H144">
         <v>6360</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144">
+        <v>28995732</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4156,16 +4821,19 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>198000</v>
+        <v>199200</v>
       </c>
       <c r="G145">
-        <v>53640</v>
+        <v>52440</v>
       </c>
       <c r="H145">
         <v>6360</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145">
+        <v>29895732</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4182,16 +4850,19 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>197400</v>
+        <v>198600</v>
       </c>
       <c r="G146">
-        <v>54240</v>
+        <v>53040</v>
       </c>
       <c r="H146">
         <v>6360</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>29805912</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4208,16 +4879,19 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>196800</v>
+        <v>198000</v>
       </c>
       <c r="G147">
-        <v>54840</v>
+        <v>53640</v>
       </c>
       <c r="H147">
         <v>6360</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147">
+        <v>29716092</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4234,16 +4908,19 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>196200</v>
+        <v>197400</v>
       </c>
       <c r="G148">
-        <v>55440</v>
+        <v>54240</v>
       </c>
       <c r="H148">
         <v>6360</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148">
+        <v>29626272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4260,16 +4937,19 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>195600</v>
+        <v>196800</v>
       </c>
       <c r="G149">
-        <v>56040</v>
+        <v>54840</v>
       </c>
       <c r="H149">
         <v>6360</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>29536452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4286,16 +4966,19 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>195000</v>
+        <v>196200</v>
       </c>
       <c r="G150">
-        <v>56640</v>
+        <v>55440</v>
       </c>
       <c r="H150">
         <v>6360</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150">
+        <v>29446632</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4312,16 +4995,19 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>194400</v>
+        <v>195600</v>
       </c>
       <c r="G151">
-        <v>57240</v>
+        <v>56040</v>
       </c>
       <c r="H151">
         <v>6360</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151">
+        <v>29356812</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4338,16 +5024,19 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>193800</v>
+        <v>195000</v>
       </c>
       <c r="G152">
-        <v>57840</v>
+        <v>56640</v>
       </c>
       <c r="H152">
         <v>6360</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152">
+        <v>29266992</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4364,16 +5053,19 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>193200</v>
+        <v>194400</v>
       </c>
       <c r="G153">
-        <v>58440</v>
+        <v>57240</v>
       </c>
       <c r="H153">
         <v>6360</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153">
+        <v>29177172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4390,16 +5082,19 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>192600</v>
+        <v>193800</v>
       </c>
       <c r="G154">
-        <v>59040</v>
+        <v>57840</v>
       </c>
       <c r="H154">
         <v>6360</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154">
+        <v>29087352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4416,16 +5111,19 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>192000</v>
+        <v>193200</v>
       </c>
       <c r="G155">
-        <v>59640</v>
+        <v>58440</v>
       </c>
       <c r="H155">
         <v>6360</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155">
+        <v>28997532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4442,16 +5140,19 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>191400</v>
+        <v>192600</v>
       </c>
       <c r="G156">
-        <v>60240</v>
+        <v>59040</v>
       </c>
       <c r="H156">
         <v>6360</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156">
+        <v>28907712</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4468,16 +5169,19 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>190800</v>
+        <v>192000</v>
       </c>
       <c r="G157">
-        <v>60840</v>
+        <v>59640</v>
       </c>
       <c r="H157">
         <v>6360</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157">
+        <v>28817892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4494,16 +5198,19 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>190200</v>
+        <v>191400</v>
       </c>
       <c r="G158">
-        <v>61440</v>
+        <v>60240</v>
       </c>
       <c r="H158">
         <v>6360</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158">
+        <v>28728072</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4520,16 +5227,19 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>189600</v>
+        <v>190800</v>
       </c>
       <c r="G159">
-        <v>62040</v>
+        <v>60840</v>
       </c>
       <c r="H159">
         <v>6360</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159">
+        <v>28638252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4546,16 +5256,19 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>189000</v>
+        <v>190200</v>
       </c>
       <c r="G160">
-        <v>62640</v>
+        <v>61440</v>
       </c>
       <c r="H160">
         <v>6360</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160">
+        <v>28548432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4572,16 +5285,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>188400</v>
+        <v>189600</v>
       </c>
       <c r="G161">
-        <v>63240</v>
+        <v>62040</v>
       </c>
       <c r="H161">
         <v>6360</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161">
+        <v>28458612</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4598,16 +5314,19 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>187800</v>
+        <v>189000</v>
       </c>
       <c r="G162">
-        <v>63840</v>
+        <v>62640</v>
       </c>
       <c r="H162">
         <v>6360</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162">
+        <v>28368792</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4624,16 +5343,19 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>187200</v>
+        <v>188400</v>
       </c>
       <c r="G163">
-        <v>64440</v>
+        <v>63240</v>
       </c>
       <c r="H163">
         <v>6360</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163">
+        <v>28278972</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4650,16 +5372,19 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>186600</v>
+        <v>187800</v>
       </c>
       <c r="G164">
-        <v>65040</v>
+        <v>63840</v>
       </c>
       <c r="H164">
         <v>6360</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164">
+        <v>28189152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4676,16 +5401,19 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>186000</v>
+        <v>187200</v>
       </c>
       <c r="G165">
-        <v>65640</v>
+        <v>64440</v>
       </c>
       <c r="H165">
         <v>6360</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165">
+        <v>28099332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4702,16 +5430,19 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>185400</v>
+        <v>186600</v>
       </c>
       <c r="G166">
-        <v>66240</v>
+        <v>65040</v>
       </c>
       <c r="H166">
         <v>6360</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166">
+        <v>28009512</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4728,16 +5459,19 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>184800</v>
+        <v>186000</v>
       </c>
       <c r="G167">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H167">
         <v>6360</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167">
+        <v>27919692</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4754,16 +5488,19 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>190800</v>
+        <v>192000</v>
       </c>
       <c r="G168">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H168">
         <v>6360</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168">
+        <v>28819692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4780,16 +5517,19 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>196800</v>
+        <v>198000</v>
       </c>
       <c r="G169">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H169">
         <v>6360</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169">
+        <v>29719692</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4806,16 +5546,19 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>202800</v>
+        <v>204000</v>
       </c>
       <c r="G170">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H170">
         <v>6360</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170">
+        <v>30619692</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4832,16 +5575,19 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>208800</v>
+        <v>210000</v>
       </c>
       <c r="G171">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H171">
         <v>6360</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171">
+        <v>31519692</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4858,16 +5604,19 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>214800</v>
+        <v>216000</v>
       </c>
       <c r="G172">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H172">
         <v>6360</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172">
+        <v>32419692</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4884,16 +5633,19 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>220800</v>
+        <v>222000</v>
       </c>
       <c r="G173">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H173">
         <v>6360</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173">
+        <v>33319692</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4910,16 +5662,19 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>226800</v>
+        <v>228000</v>
       </c>
       <c r="G174">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H174">
         <v>6360</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174">
+        <v>34219692</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4936,16 +5691,19 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>232800</v>
+        <v>234000</v>
       </c>
       <c r="G175">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H175">
         <v>6360</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175">
+        <v>35119692</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4962,16 +5720,19 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>238800</v>
+        <v>240000</v>
       </c>
       <c r="G176">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H176">
         <v>6360</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176">
+        <v>36019692</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4988,16 +5749,19 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>244800</v>
+        <v>246000</v>
       </c>
       <c r="G177">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H177">
         <v>6360</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177">
+        <v>36919692</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5014,16 +5778,19 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>250800</v>
+        <v>252000</v>
       </c>
       <c r="G178">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H178">
         <v>6360</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178">
+        <v>37819692</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5040,16 +5807,19 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>256800</v>
+        <v>258000</v>
       </c>
       <c r="G179">
-        <v>66840</v>
+        <v>65640</v>
       </c>
       <c r="H179">
         <v>6360</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179">
+        <v>38719692</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5066,16 +5836,19 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>256200</v>
+        <v>257400</v>
       </c>
       <c r="G180">
-        <v>67440</v>
+        <v>66240</v>
       </c>
       <c r="H180">
         <v>6360</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180">
+        <v>38629872</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5092,16 +5865,19 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>255600</v>
+        <v>256800</v>
       </c>
       <c r="G181">
-        <v>68040</v>
+        <v>66840</v>
       </c>
       <c r="H181">
         <v>6360</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181">
+        <v>38540052</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5118,16 +5894,19 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>255000</v>
+        <v>256200</v>
       </c>
       <c r="G182">
-        <v>68640</v>
+        <v>67440</v>
       </c>
       <c r="H182">
         <v>6360</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182">
+        <v>38450232</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5144,16 +5923,19 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>254400</v>
+        <v>255600</v>
       </c>
       <c r="G183">
-        <v>69240</v>
+        <v>68040</v>
       </c>
       <c r="H183">
         <v>6360</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183">
+        <v>38360412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5170,16 +5952,19 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>253800</v>
+        <v>255000</v>
       </c>
       <c r="G184">
-        <v>69840</v>
+        <v>68640</v>
       </c>
       <c r="H184">
         <v>6360</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184">
+        <v>38270592</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5196,16 +5981,19 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>253200</v>
+        <v>254400</v>
       </c>
       <c r="G185">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H185">
         <v>6360</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185">
+        <v>38180772</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5222,16 +6010,19 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>259200</v>
+        <v>260400</v>
       </c>
       <c r="G186">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H186">
         <v>6360</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186">
+        <v>39080772</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5248,16 +6039,19 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>265200</v>
+        <v>266400</v>
       </c>
       <c r="G187">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H187">
         <v>6360</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187">
+        <v>39980772</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5274,16 +6068,19 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>271200</v>
+        <v>272400</v>
       </c>
       <c r="G188">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H188">
         <v>6360</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188">
+        <v>40880772</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5300,16 +6097,19 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>277200</v>
+        <v>278400</v>
       </c>
       <c r="G189">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H189">
         <v>6360</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189">
+        <v>41780772</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5326,16 +6126,19 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>283200</v>
+        <v>284400</v>
       </c>
       <c r="G190">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H190">
         <v>6360</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190">
+        <v>42680772</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5352,16 +6155,19 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>289200</v>
+        <v>290400</v>
       </c>
       <c r="G191">
-        <v>70440</v>
+        <v>69240</v>
       </c>
       <c r="H191">
         <v>6360</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191">
+        <v>43580772</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5378,16 +6184,19 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>288600</v>
+        <v>289800</v>
       </c>
       <c r="G192">
-        <v>71040</v>
+        <v>69840</v>
       </c>
       <c r="H192">
         <v>6360</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192">
+        <v>43490952</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5404,16 +6213,19 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>288000</v>
+        <v>289200</v>
       </c>
       <c r="G193">
-        <v>71640</v>
+        <v>70440</v>
       </c>
       <c r="H193">
         <v>6360</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193">
+        <v>43401132</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5430,16 +6242,19 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>287400</v>
+        <v>288600</v>
       </c>
       <c r="G194">
-        <v>72240</v>
+        <v>71040</v>
       </c>
       <c r="H194">
         <v>6360</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194">
+        <v>43311312</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5456,16 +6271,19 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>286800</v>
+        <v>288000</v>
       </c>
       <c r="G195">
-        <v>72840</v>
+        <v>71640</v>
       </c>
       <c r="H195">
         <v>6360</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195">
+        <v>43221492</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5482,16 +6300,19 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>286200</v>
+        <v>287400</v>
       </c>
       <c r="G196">
-        <v>73440</v>
+        <v>72240</v>
       </c>
       <c r="H196">
         <v>6360</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196">
+        <v>43131672</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5508,16 +6329,19 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>285600</v>
+        <v>286800</v>
       </c>
       <c r="G197">
-        <v>74040</v>
+        <v>72840</v>
       </c>
       <c r="H197">
         <v>6360</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197">
+        <v>43041852</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5534,16 +6358,19 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>285000</v>
+        <v>286200</v>
       </c>
       <c r="G198">
-        <v>74640</v>
+        <v>73440</v>
       </c>
       <c r="H198">
         <v>6360</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198">
+        <v>42952032</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5560,16 +6387,19 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>284400</v>
+        <v>285600</v>
       </c>
       <c r="G199">
-        <v>75240</v>
+        <v>74040</v>
       </c>
       <c r="H199">
         <v>6360</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199">
+        <v>42862212</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5586,16 +6416,19 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>283800</v>
+        <v>285000</v>
       </c>
       <c r="G200">
-        <v>75840</v>
+        <v>74640</v>
       </c>
       <c r="H200">
         <v>6360</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200">
+        <v>42772392</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5612,16 +6445,19 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>283200</v>
+        <v>284400</v>
       </c>
       <c r="G201">
-        <v>76440</v>
+        <v>75240</v>
       </c>
       <c r="H201">
         <v>6360</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201">
+        <v>42682572</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5638,16 +6474,19 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>282600</v>
+        <v>283800</v>
       </c>
       <c r="G202">
-        <v>77040</v>
+        <v>75840</v>
       </c>
       <c r="H202">
         <v>6360</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202">
+        <v>42592752</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5664,16 +6503,19 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>282000</v>
+        <v>283200</v>
       </c>
       <c r="G203">
-        <v>77640</v>
+        <v>76440</v>
       </c>
       <c r="H203">
         <v>6360</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203">
+        <v>42502932</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5690,16 +6532,19 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>281400</v>
+        <v>282600</v>
       </c>
       <c r="G204">
-        <v>78240</v>
+        <v>77040</v>
       </c>
       <c r="H204">
         <v>6360</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204">
+        <v>42413112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5716,16 +6561,19 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>280800</v>
+        <v>282000</v>
       </c>
       <c r="G205">
-        <v>78840</v>
+        <v>77640</v>
       </c>
       <c r="H205">
         <v>6360</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205">
+        <v>42323292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5742,16 +6590,19 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>280200</v>
+        <v>281400</v>
       </c>
       <c r="G206">
-        <v>79440</v>
+        <v>78240</v>
       </c>
       <c r="H206">
         <v>6360</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206">
+        <v>42233472</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5768,16 +6619,19 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>279600</v>
+        <v>280800</v>
       </c>
       <c r="G207">
-        <v>80040</v>
+        <v>78840</v>
       </c>
       <c r="H207">
         <v>6360</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207">
+        <v>42143652</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5794,16 +6648,19 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>279000</v>
+        <v>280200</v>
       </c>
       <c r="G208">
-        <v>80640</v>
+        <v>79440</v>
       </c>
       <c r="H208">
         <v>6360</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208">
+        <v>42053832</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5820,16 +6677,19 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>278400</v>
+        <v>279600</v>
       </c>
       <c r="G209">
-        <v>81240</v>
+        <v>80040</v>
       </c>
       <c r="H209">
         <v>6360</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209">
+        <v>41964012</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5846,16 +6706,19 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>277800</v>
+        <v>279000</v>
       </c>
       <c r="G210">
-        <v>81840</v>
+        <v>80640</v>
       </c>
       <c r="H210">
         <v>6360</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210">
+        <v>41874192</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5872,16 +6735,19 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>277200</v>
+        <v>278400</v>
       </c>
       <c r="G211">
-        <v>82440</v>
+        <v>81240</v>
       </c>
       <c r="H211">
         <v>6360</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211">
+        <v>41784372</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5898,16 +6764,19 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>276600</v>
+        <v>277800</v>
       </c>
       <c r="G212">
-        <v>83040</v>
+        <v>81840</v>
       </c>
       <c r="H212">
         <v>6360</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212">
+        <v>41694552</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5924,16 +6793,19 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>276000</v>
+        <v>277200</v>
       </c>
       <c r="G213">
-        <v>83640</v>
+        <v>82440</v>
       </c>
       <c r="H213">
         <v>6360</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213">
+        <v>41604732</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5950,16 +6822,19 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>275400</v>
+        <v>276600</v>
       </c>
       <c r="G214">
-        <v>84240</v>
+        <v>83040</v>
       </c>
       <c r="H214">
         <v>6360</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214">
+        <v>41514912</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5976,16 +6851,19 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>274800</v>
+        <v>276000</v>
       </c>
       <c r="G215">
-        <v>84840</v>
+        <v>83640</v>
       </c>
       <c r="H215">
         <v>6360</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215">
+        <v>41425092</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6002,16 +6880,19 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>274200</v>
+        <v>275400</v>
       </c>
       <c r="G216">
-        <v>85440</v>
+        <v>84240</v>
       </c>
       <c r="H216">
         <v>6360</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216">
+        <v>41335272</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6028,16 +6909,19 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>273600</v>
+        <v>274800</v>
       </c>
       <c r="G217">
-        <v>86040</v>
+        <v>84840</v>
       </c>
       <c r="H217">
         <v>6360</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217">
+        <v>41245452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6054,16 +6938,19 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>273000</v>
+        <v>274200</v>
       </c>
       <c r="G218">
-        <v>86640</v>
+        <v>85440</v>
       </c>
       <c r="H218">
         <v>6360</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218">
+        <v>41155632</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6080,16 +6967,19 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>272400</v>
+        <v>273600</v>
       </c>
       <c r="G219">
-        <v>87240</v>
+        <v>86040</v>
       </c>
       <c r="H219">
         <v>6360</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219">
+        <v>41065812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6106,16 +6996,19 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>271800</v>
+        <v>273000</v>
       </c>
       <c r="G220">
-        <v>87840</v>
+        <v>86640</v>
       </c>
       <c r="H220">
         <v>6360</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220">
+        <v>40975992</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6132,16 +7025,19 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>271200</v>
+        <v>272400</v>
       </c>
       <c r="G221">
-        <v>88440</v>
+        <v>87240</v>
       </c>
       <c r="H221">
         <v>6360</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221">
+        <v>40886172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6158,16 +7054,19 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>270600</v>
+        <v>271800</v>
       </c>
       <c r="G222">
-        <v>89040</v>
+        <v>87840</v>
       </c>
       <c r="H222">
         <v>6360</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222">
+        <v>40796352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6184,16 +7083,19 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>270000</v>
+        <v>271200</v>
       </c>
       <c r="G223">
-        <v>89640</v>
+        <v>88440</v>
       </c>
       <c r="H223">
         <v>6360</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223">
+        <v>40706532</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6210,16 +7112,19 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>269400</v>
+        <v>270600</v>
       </c>
       <c r="G224">
-        <v>90240</v>
+        <v>89040</v>
       </c>
       <c r="H224">
         <v>6360</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224">
+        <v>40616712</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6236,16 +7141,19 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>268800</v>
+        <v>270000</v>
       </c>
       <c r="G225">
-        <v>90840</v>
+        <v>89640</v>
       </c>
       <c r="H225">
         <v>6360</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225">
+        <v>40526892</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6262,16 +7170,19 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>268200</v>
+        <v>269400</v>
       </c>
       <c r="G226">
-        <v>91440</v>
+        <v>90240</v>
       </c>
       <c r="H226">
         <v>6360</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226">
+        <v>40437072</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6288,16 +7199,19 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>267600</v>
+        <v>268800</v>
       </c>
       <c r="G227">
-        <v>92040</v>
+        <v>90840</v>
       </c>
       <c r="H227">
         <v>6360</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227">
+        <v>40347252</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6314,16 +7228,19 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>267000</v>
+        <v>268200</v>
       </c>
       <c r="G228">
-        <v>92640</v>
+        <v>91440</v>
       </c>
       <c r="H228">
         <v>6360</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228">
+        <v>40257432</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6340,16 +7257,19 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>266400</v>
+        <v>267600</v>
       </c>
       <c r="G229">
-        <v>93240</v>
+        <v>92040</v>
       </c>
       <c r="H229">
         <v>6360</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229">
+        <v>40167612</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6366,16 +7286,19 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>265800</v>
+        <v>267000</v>
       </c>
       <c r="G230">
-        <v>93840</v>
+        <v>92640</v>
       </c>
       <c r="H230">
         <v>6360</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230">
+        <v>40077792</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6392,16 +7315,19 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>265200</v>
+        <v>266400</v>
       </c>
       <c r="G231">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H231">
         <v>6360</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231">
+        <v>39987972</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6418,16 +7344,19 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>271200</v>
+        <v>272400</v>
       </c>
       <c r="G232">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H232">
         <v>6360</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232">
+        <v>40887972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6444,16 +7373,19 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>277200</v>
+        <v>278400</v>
       </c>
       <c r="G233">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H233">
         <v>6360</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233">
+        <v>41787972</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6470,16 +7402,19 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>283200</v>
+        <v>284400</v>
       </c>
       <c r="G234">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H234">
         <v>6360</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234">
+        <v>42687972</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6496,16 +7431,19 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>289200</v>
+        <v>290400</v>
       </c>
       <c r="G235">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H235">
         <v>6360</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235">
+        <v>43587972</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6522,16 +7460,19 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>295200</v>
+        <v>296400</v>
       </c>
       <c r="G236">
-        <v>94440</v>
+        <v>93240</v>
       </c>
       <c r="H236">
         <v>6360</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236">
+        <v>44487972</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6548,16 +7489,19 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>294600</v>
+        <v>295800</v>
       </c>
       <c r="G237">
-        <v>95040</v>
+        <v>93840</v>
       </c>
       <c r="H237">
         <v>6360</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237">
+        <v>44398152</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6574,16 +7518,19 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>294000</v>
+        <v>295200</v>
       </c>
       <c r="G238">
-        <v>95640</v>
+        <v>94440</v>
       </c>
       <c r="H238">
         <v>6360</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238">
+        <v>44308332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6591,25 +7538,28 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>293400</v>
+        <v>295200</v>
       </c>
       <c r="G239">
-        <v>96240</v>
+        <v>94440</v>
       </c>
       <c r="H239">
         <v>6360</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239">
+        <v>44308332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6617,25 +7567,28 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>292800</v>
+        <v>295200</v>
       </c>
       <c r="G240">
-        <v>96840</v>
+        <v>94440</v>
       </c>
       <c r="H240">
         <v>6360</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240">
+        <v>44308332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6652,16 +7605,19 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>292200</v>
+        <v>294600</v>
       </c>
       <c r="G241">
-        <v>97440</v>
+        <v>95040</v>
       </c>
       <c r="H241">
         <v>6360</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241">
+        <v>44218512</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6678,16 +7634,19 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>291600</v>
+        <v>294000</v>
       </c>
       <c r="G242">
-        <v>98040</v>
+        <v>95640</v>
       </c>
       <c r="H242">
         <v>6360</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242">
+        <v>44128692</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6704,16 +7663,19 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>291000</v>
+        <v>293400</v>
       </c>
       <c r="G243">
-        <v>98640</v>
+        <v>96240</v>
       </c>
       <c r="H243">
         <v>6360</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243">
+        <v>44038872</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6721,25 +7683,28 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>290400</v>
+        <v>293400</v>
       </c>
       <c r="G244">
-        <v>99240</v>
+        <v>96240</v>
       </c>
       <c r="H244">
         <v>6360</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244">
+        <v>44038872</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6756,16 +7721,19 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>289800</v>
+        <v>292800</v>
       </c>
       <c r="G245">
-        <v>99840</v>
+        <v>96840</v>
       </c>
       <c r="H245">
         <v>6360</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245">
+        <v>43949052</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6782,16 +7750,19 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>289200</v>
+        <v>292200</v>
       </c>
       <c r="G246">
-        <v>100440</v>
+        <v>97440</v>
       </c>
       <c r="H246">
         <v>6360</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246">
+        <v>43859232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6808,16 +7779,19 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>288600</v>
+        <v>291600</v>
       </c>
       <c r="G247">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H247">
         <v>6360</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247">
+        <v>43769412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6834,16 +7808,19 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>294600</v>
+        <v>297600</v>
       </c>
       <c r="G248">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H248">
         <v>6360</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248">
+        <v>44669412</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6860,16 +7837,19 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>300600</v>
+        <v>303600</v>
       </c>
       <c r="G249">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H249">
         <v>6360</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249">
+        <v>45569412</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6886,16 +7866,19 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>306600</v>
+        <v>309600</v>
       </c>
       <c r="G250">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H250">
         <v>6360</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250">
+        <v>46469412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6912,16 +7895,19 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>312600</v>
+        <v>315600</v>
       </c>
       <c r="G251">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H251">
         <v>6360</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251">
+        <v>47369412</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6938,16 +7924,19 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>318600</v>
+        <v>321600</v>
       </c>
       <c r="G252">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H252">
         <v>6360</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="I252">
+        <v>48269412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6964,16 +7953,19 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>324600</v>
+        <v>327600</v>
       </c>
       <c r="G253">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H253">
         <v>6360</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="I253">
+        <v>49169412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6990,16 +7982,19 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>330600</v>
+        <v>333600</v>
       </c>
       <c r="G254">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H254">
         <v>6360</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254">
+        <v>50069412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7016,16 +8011,19 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>336600</v>
+        <v>339600</v>
       </c>
       <c r="G255">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H255">
         <v>6360</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="I255">
+        <v>50969412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7042,16 +8040,19 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>342600</v>
+        <v>345600</v>
       </c>
       <c r="G256">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H256">
         <v>6360</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="I256">
+        <v>51869412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7068,16 +8069,19 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>348600</v>
+        <v>351600</v>
       </c>
       <c r="G257">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H257">
         <v>6360</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="I257">
+        <v>52769412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7094,16 +8098,19 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>354600</v>
+        <v>357600</v>
       </c>
       <c r="G258">
-        <v>101040</v>
+        <v>98040</v>
       </c>
       <c r="H258">
         <v>6360</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="I258">
+        <v>53669412</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7120,16 +8127,19 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>354000</v>
+        <v>357000</v>
       </c>
       <c r="G259">
-        <v>101640</v>
+        <v>98640</v>
       </c>
       <c r="H259">
         <v>6360</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="I259">
+        <v>53579592</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7137,25 +8147,28 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
-        <v>353400</v>
+        <v>357000</v>
       </c>
       <c r="G260">
-        <v>102240</v>
+        <v>98640</v>
       </c>
       <c r="H260">
         <v>6360</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="I260">
+        <v>53579592</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7172,16 +8185,19 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>352800</v>
+        <v>356400</v>
       </c>
       <c r="G261">
-        <v>102840</v>
+        <v>99240</v>
       </c>
       <c r="H261">
         <v>6360</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="I261">
+        <v>53489772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7198,16 +8214,19 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>352200</v>
+        <v>355800</v>
       </c>
       <c r="G262">
-        <v>103440</v>
+        <v>99840</v>
       </c>
       <c r="H262">
         <v>6360</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
+      <c r="I262">
+        <v>53399952</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7224,16 +8243,19 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>351600</v>
+        <v>355200</v>
       </c>
       <c r="G263">
-        <v>104040</v>
+        <v>100440</v>
       </c>
       <c r="H263">
         <v>6360</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="I263">
+        <v>53310132</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7241,25 +8263,28 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264">
-        <v>351000</v>
+        <v>355200</v>
       </c>
       <c r="G264">
-        <v>104640</v>
+        <v>100440</v>
       </c>
       <c r="H264">
         <v>6360</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="I264">
+        <v>53310132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7276,16 +8301,19 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>350400</v>
+        <v>354600</v>
       </c>
       <c r="G265">
-        <v>105240</v>
+        <v>101040</v>
       </c>
       <c r="H265">
         <v>6360</v>
       </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="I265">
+        <v>53220312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7302,16 +8330,19 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>349800</v>
+        <v>354000</v>
       </c>
       <c r="G266">
-        <v>105840</v>
+        <v>101640</v>
       </c>
       <c r="H266">
         <v>6360</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="I266">
+        <v>53130492</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7328,16 +8359,19 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>349200</v>
+        <v>353400</v>
       </c>
       <c r="G267">
-        <v>106440</v>
+        <v>102240</v>
       </c>
       <c r="H267">
         <v>6360</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="I267">
+        <v>53040672</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7354,16 +8388,19 @@
         <v>0</v>
       </c>
       <c r="F268">
-        <v>348600</v>
+        <v>352800</v>
       </c>
       <c r="G268">
-        <v>107040</v>
+        <v>102840</v>
       </c>
       <c r="H268">
         <v>6360</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="I268">
+        <v>52950852</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7380,16 +8417,19 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>348000</v>
+        <v>352200</v>
       </c>
       <c r="G269">
-        <v>107640</v>
+        <v>103440</v>
       </c>
       <c r="H269">
         <v>6360</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="I269">
+        <v>52861032</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7406,16 +8446,19 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>347400</v>
+        <v>351600</v>
       </c>
       <c r="G270">
-        <v>108240</v>
+        <v>104040</v>
       </c>
       <c r="H270">
         <v>6360</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270">
+        <v>52771212</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7432,16 +8475,19 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>346800</v>
+        <v>351000</v>
       </c>
       <c r="G271">
-        <v>108840</v>
+        <v>104640</v>
       </c>
       <c r="H271">
         <v>6360</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="I271">
+        <v>52681392</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7449,25 +8495,28 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272">
-        <v>346200</v>
+        <v>351000</v>
       </c>
       <c r="G272">
-        <v>109440</v>
+        <v>104640</v>
       </c>
       <c r="H272">
         <v>6360</v>
       </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="I272">
+        <v>52681392</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7484,16 +8533,19 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>345600</v>
+        <v>350400</v>
       </c>
       <c r="G273">
-        <v>110040</v>
+        <v>105240</v>
       </c>
       <c r="H273">
         <v>6360</v>
       </c>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="I273">
+        <v>52591572</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7510,16 +8562,19 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>345000</v>
+        <v>349800</v>
       </c>
       <c r="G274">
-        <v>110640</v>
+        <v>105840</v>
       </c>
       <c r="H274">
         <v>6360</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="I274">
+        <v>52501752</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7536,16 +8591,19 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>344400</v>
+        <v>349200</v>
       </c>
       <c r="G275">
-        <v>111240</v>
+        <v>106440</v>
       </c>
       <c r="H275">
         <v>6360</v>
       </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="I275">
+        <v>52411932</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7562,16 +8620,19 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>343800</v>
+        <v>348600</v>
       </c>
       <c r="G276">
-        <v>111840</v>
+        <v>107040</v>
       </c>
       <c r="H276">
         <v>6360</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="I276">
+        <v>52322112</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7588,16 +8649,19 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>343200</v>
+        <v>348000</v>
       </c>
       <c r="G277">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H277">
         <v>6360</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="I277">
+        <v>52232292</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7614,16 +8678,19 @@
         <v>0</v>
       </c>
       <c r="F278">
-        <v>349200</v>
+        <v>354000</v>
       </c>
       <c r="G278">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H278">
         <v>6360</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="I278">
+        <v>53132292</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7640,16 +8707,19 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>355200</v>
+        <v>360000</v>
       </c>
       <c r="G279">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H279">
         <v>6360</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="I279">
+        <v>54032292</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7666,16 +8736,19 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>361200</v>
+        <v>366000</v>
       </c>
       <c r="G280">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H280">
         <v>6360</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="I280">
+        <v>54932292</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7692,16 +8765,19 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>367200</v>
+        <v>372000</v>
       </c>
       <c r="G281">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H281">
         <v>6360</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="I281">
+        <v>55832292</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7718,16 +8794,19 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>373200</v>
+        <v>378000</v>
       </c>
       <c r="G282">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H282">
         <v>6360</v>
       </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="I282">
+        <v>56732292</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7744,16 +8823,19 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>379200</v>
+        <v>384000</v>
       </c>
       <c r="G283">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H283">
         <v>6360</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="I283">
+        <v>57632292</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7770,16 +8852,19 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>385200</v>
+        <v>390000</v>
       </c>
       <c r="G284">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H284">
         <v>6360</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="I284">
+        <v>58532292</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7796,16 +8881,19 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>391200</v>
+        <v>396000</v>
       </c>
       <c r="G285">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H285">
         <v>6360</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="I285">
+        <v>59432292</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7822,16 +8910,19 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>397200</v>
+        <v>402000</v>
       </c>
       <c r="G286">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H286">
         <v>6360</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="I286">
+        <v>60332292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7848,16 +8939,19 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>403200</v>
+        <v>408000</v>
       </c>
       <c r="G287">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H287">
         <v>6360</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287">
+        <v>61232292</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7874,16 +8968,19 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>409200</v>
+        <v>414000</v>
       </c>
       <c r="G288">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H288">
         <v>6360</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I288">
+        <v>62132292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7900,16 +8997,19 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>415200</v>
+        <v>420000</v>
       </c>
       <c r="G289">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H289">
         <v>6360</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289">
+        <v>63032292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7926,16 +9026,19 @@
         <v>0</v>
       </c>
       <c r="F290">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G290">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H290">
         <v>6360</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7952,16 +9055,19 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G291">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H291">
         <v>6360</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7978,16 +9084,19 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G292">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H292">
         <v>6360</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="I292">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8004,16 +9113,19 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G293">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H293">
         <v>6360</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8030,16 +9142,19 @@
         <v>1</v>
       </c>
       <c r="F294">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G294">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H294">
         <v>6360</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="I294">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -8056,16 +9171,19 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G295">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H295">
         <v>6360</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="I295">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8082,16 +9200,19 @@
         <v>1</v>
       </c>
       <c r="F296">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G296">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H296">
         <v>6360</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="I296">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8108,16 +9229,19 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G297">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H297">
         <v>6360</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="I297">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8134,16 +9258,19 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G298">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H298">
         <v>6360</v>
       </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="I298">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8160,16 +9287,19 @@
         <v>1</v>
       </c>
       <c r="F299">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G299">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H299">
         <v>6360</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="I299">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8186,16 +9316,19 @@
         <v>1</v>
       </c>
       <c r="F300">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G300">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H300">
         <v>6360</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="I300">
+        <v>63932292</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8212,13 +9345,16 @@
         <v>1</v>
       </c>
       <c r="F301">
-        <v>421200</v>
+        <v>426000</v>
       </c>
       <c r="G301">
-        <v>112440</v>
+        <v>107640</v>
       </c>
       <c r="H301">
         <v>6360</v>
+      </c>
+      <c r="I301" s="2">
+        <v>63932292</v>
       </c>
     </row>
   </sheetData>

--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fe753deea9fa81e/Documents/GitHub/Strathdar/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_36118080FA576A5EB80B8DB0FB2D62B1A0BBDC62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE5AB62-F2DC-48F2-9C1D-714A85E9DD11}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,26 +96,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,16 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="I301" sqref="I301"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -521,7 +456,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -550,7 +485,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -579,7 +514,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -608,7 +543,7 @@
         <v>2610180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -637,7 +572,7 @@
         <v>2520360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -666,7 +601,7 @@
         <v>2430540</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -695,7 +630,7 @@
         <v>2340720</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -724,7 +659,7 @@
         <v>2250900</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -753,7 +688,7 @@
         <v>2161080</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -782,7 +717,7 @@
         <v>2071260</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -811,7 +746,7 @@
         <v>1981440</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -840,7 +775,7 @@
         <v>1891620</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -869,7 +804,7 @@
         <v>1801800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -898,7 +833,7 @@
         <v>1711980</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -927,7 +862,7 @@
         <v>1622160</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -956,7 +891,7 @@
         <v>1532340</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -985,7 +920,7 @@
         <v>1442520</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1014,7 +949,7 @@
         <v>1352700</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1043,7 +978,7 @@
         <v>1262880</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1072,7 +1007,7 @@
         <v>2162880</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1101,7 +1036,7 @@
         <v>3062880</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1130,7 +1065,7 @@
         <v>3962880</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1159,7 +1094,7 @@
         <v>4862880</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1188,7 +1123,7 @@
         <v>5762880</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1217,7 +1152,7 @@
         <v>6662880</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1246,7 +1181,7 @@
         <v>7562880</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1275,7 +1210,7 @@
         <v>8462880</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1304,7 +1239,7 @@
         <v>9362880</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1333,7 +1268,7 @@
         <v>10262880</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1362,7 +1297,7 @@
         <v>11162880</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1391,7 +1326,7 @@
         <v>12062880</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1420,7 +1355,7 @@
         <v>11973060</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1449,7 +1384,7 @@
         <v>11883240</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1478,7 +1413,7 @@
         <v>11793420</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1507,7 +1442,7 @@
         <v>11703600</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1536,7 +1471,7 @@
         <v>11613780</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1565,7 +1500,7 @@
         <v>11523960</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1594,7 +1529,7 @@
         <v>11434140</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1623,7 +1558,7 @@
         <v>11344320</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1652,7 +1587,7 @@
         <v>11342412</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1681,7 +1616,7 @@
         <v>11252592</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1710,7 +1645,7 @@
         <v>11162772</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1739,7 +1674,7 @@
         <v>11072952</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1768,7 +1703,7 @@
         <v>10983132</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1797,7 +1732,7 @@
         <v>10893312</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1826,7 +1761,7 @@
         <v>10803492</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1855,7 +1790,7 @@
         <v>11703492</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1884,7 +1819,7 @@
         <v>12603492</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1913,7 +1848,7 @@
         <v>12513672</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1942,7 +1877,7 @@
         <v>12423852</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1971,7 +1906,7 @@
         <v>12334032</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2000,7 +1935,7 @@
         <v>12244212</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2028,26 +1963,8 @@
       <c r="I54">
         <v>12154392</v>
       </c>
-      <c r="L54">
-        <v>150</v>
-      </c>
-      <c r="M54">
-        <f>F54*L54</f>
-        <v>12150000</v>
-      </c>
-      <c r="N54">
-        <v>0.3</v>
-      </c>
-      <c r="O54">
-        <f>N54*G54</f>
-        <v>4392</v>
-      </c>
-      <c r="P54">
-        <f>M54+O54</f>
-        <v>12154392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2075,14 +1992,8 @@
       <c r="I55">
         <v>12154392</v>
       </c>
-      <c r="L55">
-        <v>150</v>
-      </c>
-      <c r="N55">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2110,14 +2021,8 @@
       <c r="I56">
         <v>13054392</v>
       </c>
-      <c r="L56">
-        <v>150</v>
-      </c>
-      <c r="N56">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2145,14 +2050,8 @@
       <c r="I57">
         <v>13954392</v>
       </c>
-      <c r="L57">
-        <v>150</v>
-      </c>
-      <c r="N57">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2180,14 +2079,8 @@
       <c r="I58">
         <v>14854392</v>
       </c>
-      <c r="L58">
-        <v>150</v>
-      </c>
-      <c r="N58">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2215,14 +2108,8 @@
       <c r="I59">
         <v>15754392</v>
       </c>
-      <c r="L59">
-        <v>150</v>
-      </c>
-      <c r="N59">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2250,14 +2137,8 @@
       <c r="I60">
         <v>16654392</v>
       </c>
-      <c r="L60">
-        <v>150</v>
-      </c>
-      <c r="N60">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2285,11 +2166,8 @@
       <c r="I61">
         <v>17554392</v>
       </c>
-      <c r="L61">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2317,11 +2195,8 @@
       <c r="I62">
         <v>18454392</v>
       </c>
-      <c r="L62">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2349,11 +2224,8 @@
       <c r="I63">
         <v>19354392</v>
       </c>
-      <c r="L63">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2381,11 +2253,8 @@
       <c r="I64">
         <v>20254392</v>
       </c>
-      <c r="L64">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2413,11 +2282,8 @@
       <c r="I65">
         <v>21154392</v>
       </c>
-      <c r="L65">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2445,11 +2311,8 @@
       <c r="I66">
         <v>22054392</v>
       </c>
-      <c r="L66">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2477,11 +2340,8 @@
       <c r="I67">
         <v>21964572</v>
       </c>
-      <c r="L67">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2509,11 +2369,8 @@
       <c r="I68">
         <v>21874752</v>
       </c>
-      <c r="L68">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2541,11 +2398,8 @@
       <c r="I69">
         <v>21784932</v>
       </c>
-      <c r="L69">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2573,11 +2427,8 @@
       <c r="I70">
         <v>21695112</v>
       </c>
-      <c r="L70">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2605,11 +2456,8 @@
       <c r="I71">
         <v>21605292</v>
       </c>
-      <c r="L71">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2637,11 +2485,8 @@
       <c r="I72">
         <v>21515472</v>
       </c>
-      <c r="L72">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2669,11 +2514,8 @@
       <c r="I73">
         <v>21425652</v>
       </c>
-      <c r="L73">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2701,11 +2543,8 @@
       <c r="I74">
         <v>21335832</v>
       </c>
-      <c r="L74">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2733,11 +2572,8 @@
       <c r="I75">
         <v>21246012</v>
       </c>
-      <c r="L75">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2765,11 +2601,8 @@
       <c r="I76">
         <v>21156192</v>
       </c>
-      <c r="L76">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2797,11 +2630,8 @@
       <c r="I77">
         <v>21066372</v>
       </c>
-      <c r="L77">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2829,11 +2659,8 @@
       <c r="I78">
         <v>20976552</v>
       </c>
-      <c r="L78">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2861,11 +2688,8 @@
       <c r="I79">
         <v>20886732</v>
       </c>
-      <c r="L79">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2893,11 +2717,8 @@
       <c r="I80">
         <v>20796912</v>
       </c>
-      <c r="L80">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2925,11 +2746,8 @@
       <c r="I81">
         <v>20707092</v>
       </c>
-      <c r="L81">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2957,11 +2775,8 @@
       <c r="I82">
         <v>20617272</v>
       </c>
-      <c r="L82">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2989,11 +2804,8 @@
       <c r="I83">
         <v>20527452</v>
       </c>
-      <c r="L83">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3021,11 +2833,8 @@
       <c r="I84">
         <v>20437632</v>
       </c>
-      <c r="L84">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3053,11 +2862,8 @@
       <c r="I85">
         <v>20347812</v>
       </c>
-      <c r="L85">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3085,11 +2891,8 @@
       <c r="I86">
         <v>20257992</v>
       </c>
-      <c r="L86">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3117,11 +2920,8 @@
       <c r="I87">
         <v>20168172</v>
       </c>
-      <c r="L87">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3149,11 +2949,8 @@
       <c r="I88">
         <v>20078352</v>
       </c>
-      <c r="L88">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3181,11 +2978,8 @@
       <c r="I89">
         <v>19988532</v>
       </c>
-      <c r="L89">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3213,11 +3007,8 @@
       <c r="I90">
         <v>19898712</v>
       </c>
-      <c r="L90">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3245,11 +3036,8 @@
       <c r="I91">
         <v>19808892</v>
       </c>
-      <c r="L91">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3277,11 +3065,8 @@
       <c r="I92">
         <v>19719072</v>
       </c>
-      <c r="L92">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3309,11 +3094,8 @@
       <c r="I93">
         <v>20619072</v>
       </c>
-      <c r="L93">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3341,11 +3123,8 @@
       <c r="I94">
         <v>20619072</v>
       </c>
-      <c r="L94">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3373,11 +3152,8 @@
       <c r="I95">
         <v>21519072</v>
       </c>
-      <c r="L95">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3405,11 +3181,8 @@
       <c r="I96">
         <v>22419072</v>
       </c>
-      <c r="L96">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3437,11 +3210,8 @@
       <c r="I97">
         <v>23319072</v>
       </c>
-      <c r="L97">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3470,7 +3240,7 @@
         <v>23229252</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3499,7 +3269,7 @@
         <v>23139432</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3528,7 +3298,7 @@
         <v>23049612</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3557,7 +3327,7 @@
         <v>22959792</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3586,7 +3356,7 @@
         <v>22869972</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3615,7 +3385,7 @@
         <v>22780152</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3644,7 +3414,7 @@
         <v>22690332</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3673,7 +3443,7 @@
         <v>22600512</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3702,7 +3472,7 @@
         <v>22510692</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3731,7 +3501,7 @@
         <v>22420872</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3760,7 +3530,7 @@
         <v>22331052</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3789,7 +3559,7 @@
         <v>22241232</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3818,7 +3588,7 @@
         <v>22151412</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3847,7 +3617,7 @@
         <v>22061592</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3876,7 +3646,7 @@
         <v>21971772</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3905,7 +3675,7 @@
         <v>21881952</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3934,7 +3704,7 @@
         <v>21792132</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3963,7 +3733,7 @@
         <v>21702312</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3992,7 +3762,7 @@
         <v>21612492</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4021,7 +3791,7 @@
         <v>21522672</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4050,7 +3820,7 @@
         <v>21432852</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4079,7 +3849,7 @@
         <v>21343032</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4108,7 +3878,7 @@
         <v>21253212</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4137,7 +3907,7 @@
         <v>21163392</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4166,7 +3936,7 @@
         <v>21073572</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4195,7 +3965,7 @@
         <v>20983752</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4224,7 +3994,7 @@
         <v>20893932</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4253,7 +4023,7 @@
         <v>20804112</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4282,7 +4052,7 @@
         <v>20714292</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4311,7 +4081,7 @@
         <v>20624472</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4340,7 +4110,7 @@
         <v>20534652</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4369,7 +4139,7 @@
         <v>20444832</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4398,7 +4168,7 @@
         <v>20355012</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4427,7 +4197,7 @@
         <v>20265192</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4456,7 +4226,7 @@
         <v>20175372</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4485,7 +4255,7 @@
         <v>20085552</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4514,7 +4284,7 @@
         <v>19995732</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4543,7 +4313,7 @@
         <v>20895732</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4572,7 +4342,7 @@
         <v>21795732</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4601,7 +4371,7 @@
         <v>22695732</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4630,7 +4400,7 @@
         <v>23595732</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4659,7 +4429,7 @@
         <v>24495732</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4688,7 +4458,7 @@
         <v>25395732</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4717,7 +4487,7 @@
         <v>26295732</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4746,7 +4516,7 @@
         <v>27195732</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4775,7 +4545,7 @@
         <v>28095732</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4804,7 +4574,7 @@
         <v>28995732</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4833,7 +4603,7 @@
         <v>29895732</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4862,7 +4632,7 @@
         <v>29805912</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4891,7 +4661,7 @@
         <v>29716092</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4920,7 +4690,7 @@
         <v>29626272</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4949,7 +4719,7 @@
         <v>29536452</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4978,7 +4748,7 @@
         <v>29446632</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5007,7 +4777,7 @@
         <v>29356812</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5036,7 +4806,7 @@
         <v>29266992</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5065,7 +4835,7 @@
         <v>29177172</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5094,7 +4864,7 @@
         <v>29087352</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5123,7 +4893,7 @@
         <v>28997532</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5152,7 +4922,7 @@
         <v>28907712</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5181,7 +4951,7 @@
         <v>28817892</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5210,7 +4980,7 @@
         <v>28728072</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5239,7 +5009,7 @@
         <v>28638252</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5268,7 +5038,7 @@
         <v>28548432</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5297,7 +5067,7 @@
         <v>28458612</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5326,7 +5096,7 @@
         <v>28368792</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5355,7 +5125,7 @@
         <v>28278972</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5384,7 +5154,7 @@
         <v>28189152</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5413,7 +5183,7 @@
         <v>28099332</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5442,7 +5212,7 @@
         <v>28009512</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5471,7 +5241,7 @@
         <v>27919692</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5500,7 +5270,7 @@
         <v>28819692</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5529,7 +5299,7 @@
         <v>29719692</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5558,7 +5328,7 @@
         <v>30619692</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5587,7 +5357,7 @@
         <v>31519692</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5616,7 +5386,7 @@
         <v>32419692</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5645,7 +5415,7 @@
         <v>33319692</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5674,7 +5444,7 @@
         <v>34219692</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5703,7 +5473,7 @@
         <v>35119692</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5732,7 +5502,7 @@
         <v>36019692</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5761,7 +5531,7 @@
         <v>36919692</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5790,7 +5560,7 @@
         <v>37819692</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5819,7 +5589,7 @@
         <v>38719692</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5848,7 +5618,7 @@
         <v>38629872</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5877,7 +5647,7 @@
         <v>38540052</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5906,7 +5676,7 @@
         <v>38450232</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5935,7 +5705,7 @@
         <v>38360412</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5964,7 +5734,7 @@
         <v>38270592</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5993,7 +5763,7 @@
         <v>38180772</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6022,7 +5792,7 @@
         <v>39080772</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6051,7 +5821,7 @@
         <v>39980772</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6080,7 +5850,7 @@
         <v>40880772</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6109,7 +5879,7 @@
         <v>41780772</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6138,7 +5908,7 @@
         <v>42680772</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6167,7 +5937,7 @@
         <v>43580772</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6196,7 +5966,7 @@
         <v>43490952</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6225,7 +5995,7 @@
         <v>43401132</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6254,7 +6024,7 @@
         <v>43311312</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6283,7 +6053,7 @@
         <v>43221492</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6312,7 +6082,7 @@
         <v>43131672</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6341,7 +6111,7 @@
         <v>43041852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6370,7 +6140,7 @@
         <v>42952032</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6399,7 +6169,7 @@
         <v>42862212</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6428,7 +6198,7 @@
         <v>42772392</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6457,7 +6227,7 @@
         <v>42682572</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6486,7 +6256,7 @@
         <v>42592752</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6515,7 +6285,7 @@
         <v>42502932</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6544,7 +6314,7 @@
         <v>42413112</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6573,7 +6343,7 @@
         <v>42323292</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6602,7 +6372,7 @@
         <v>42233472</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6631,7 +6401,7 @@
         <v>42143652</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6660,7 +6430,7 @@
         <v>42053832</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6689,7 +6459,7 @@
         <v>41964012</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6718,7 +6488,7 @@
         <v>41874192</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6747,7 +6517,7 @@
         <v>41784372</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6776,7 +6546,7 @@
         <v>41694552</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6805,7 +6575,7 @@
         <v>41604732</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6834,7 +6604,7 @@
         <v>41514912</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6863,7 +6633,7 @@
         <v>41425092</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6892,7 +6662,7 @@
         <v>41335272</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6921,7 +6691,7 @@
         <v>41245452</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6950,7 +6720,7 @@
         <v>41155632</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6979,7 +6749,7 @@
         <v>41065812</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7008,7 +6778,7 @@
         <v>40975992</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7037,7 +6807,7 @@
         <v>40886172</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7066,7 +6836,7 @@
         <v>40796352</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7095,7 +6865,7 @@
         <v>40706532</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7124,7 +6894,7 @@
         <v>40616712</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7153,7 +6923,7 @@
         <v>40526892</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7182,7 +6952,7 @@
         <v>40437072</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7211,7 +6981,7 @@
         <v>40347252</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7240,7 +7010,7 @@
         <v>40257432</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7269,7 +7039,7 @@
         <v>40167612</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7298,7 +7068,7 @@
         <v>40077792</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7327,7 +7097,7 @@
         <v>39987972</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7356,7 +7126,7 @@
         <v>40887972</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7385,7 +7155,7 @@
         <v>41787972</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7414,7 +7184,7 @@
         <v>42687972</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7443,7 +7213,7 @@
         <v>43587972</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7472,7 +7242,7 @@
         <v>44487972</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7501,7 +7271,7 @@
         <v>44398152</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7530,7 +7300,7 @@
         <v>44308332</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7559,7 +7329,7 @@
         <v>44308332</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7588,7 +7358,7 @@
         <v>44308332</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7617,7 +7387,7 @@
         <v>44218512</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7646,7 +7416,7 @@
         <v>44128692</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7675,7 +7445,7 @@
         <v>44038872</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7704,7 +7474,7 @@
         <v>44038872</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7733,7 +7503,7 @@
         <v>43949052</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7762,7 +7532,7 @@
         <v>43859232</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7791,7 +7561,7 @@
         <v>43769412</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7820,7 +7590,7 @@
         <v>44669412</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7849,7 +7619,7 @@
         <v>45569412</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7878,7 +7648,7 @@
         <v>46469412</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7907,7 +7677,7 @@
         <v>47369412</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7936,7 +7706,7 @@
         <v>48269412</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7965,7 +7735,7 @@
         <v>49169412</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7994,7 +7764,7 @@
         <v>50069412</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8023,7 +7793,7 @@
         <v>50969412</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8052,7 +7822,7 @@
         <v>51869412</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8081,7 +7851,7 @@
         <v>52769412</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8110,7 +7880,7 @@
         <v>53669412</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8139,7 +7909,7 @@
         <v>53579592</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8168,7 +7938,7 @@
         <v>53579592</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8197,7 +7967,7 @@
         <v>53489772</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8226,7 +7996,7 @@
         <v>53399952</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8255,7 +8025,7 @@
         <v>53310132</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8284,7 +8054,7 @@
         <v>53310132</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8313,7 +8083,7 @@
         <v>53220312</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8342,7 +8112,7 @@
         <v>53130492</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8371,7 +8141,7 @@
         <v>53040672</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8400,7 +8170,7 @@
         <v>52950852</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8429,7 +8199,7 @@
         <v>52861032</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8458,7 +8228,7 @@
         <v>52771212</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8487,7 +8257,7 @@
         <v>52681392</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8516,7 +8286,7 @@
         <v>52681392</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8545,7 +8315,7 @@
         <v>52591572</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8574,7 +8344,7 @@
         <v>52501752</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8603,7 +8373,7 @@
         <v>52411932</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8632,7 +8402,7 @@
         <v>52322112</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8661,7 +8431,7 @@
         <v>52232292</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8690,7 +8460,7 @@
         <v>53132292</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8719,7 +8489,7 @@
         <v>54032292</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8748,7 +8518,7 @@
         <v>54932292</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8777,7 +8547,7 @@
         <v>55832292</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8806,7 +8576,7 @@
         <v>56732292</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8835,7 +8605,7 @@
         <v>57632292</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8864,7 +8634,7 @@
         <v>58532292</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8893,7 +8663,7 @@
         <v>59432292</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8922,7 +8692,7 @@
         <v>60332292</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -8951,7 +8721,7 @@
         <v>61232292</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8980,7 +8750,7 @@
         <v>62132292</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9009,7 +8779,7 @@
         <v>63032292</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9038,7 +8808,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9067,7 +8837,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9096,7 +8866,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9125,7 +8895,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9154,7 +8924,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9183,7 +8953,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9212,7 +8982,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9241,7 +9011,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9270,7 +9040,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9299,7 +9069,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9328,7 +9098,7 @@
         <v>63932292</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9353,7 +9123,7 @@
       <c r="H301">
         <v>6360</v>
       </c>
-      <c r="I301" s="2">
+      <c r="I301">
         <v>63932292</v>
       </c>
     </row>

--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="she7et1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1800000</v>
+        <v>2700000</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2700000</v>
+        <v>3600000</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17400</v>
+        <v>23400</v>
       </c>
       <c r="G6">
         <v>600</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2610180</v>
+        <v>3510180</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16800</v>
+        <v>22800</v>
       </c>
       <c r="G7">
         <v>1200</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2520360</v>
+        <v>3420360</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16200</v>
+        <v>22200</v>
       </c>
       <c r="G8">
         <v>1800</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2430540</v>
+        <v>3330540</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15600</v>
+        <v>21600</v>
       </c>
       <c r="G9">
         <v>2400</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2340720</v>
+        <v>3240720</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="G10">
         <v>3000</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2250900</v>
+        <v>3150900</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14400</v>
+        <v>20400</v>
       </c>
       <c r="G11">
         <v>3600</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2161080</v>
+        <v>3061080</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>13800</v>
+        <v>19800</v>
       </c>
       <c r="G12">
         <v>4200</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2071260</v>
+        <v>2971260</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13200</v>
+        <v>19200</v>
       </c>
       <c r="G13">
         <v>4800</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1981440</v>
+        <v>2881440</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>12600</v>
+        <v>18600</v>
       </c>
       <c r="G14">
         <v>5400</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1891620</v>
+        <v>2791620</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G15">
         <v>6000</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1801800</v>
+        <v>2701800</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>11400</v>
+        <v>17400</v>
       </c>
       <c r="G16">
         <v>6600</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1711980</v>
+        <v>2611980</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10800</v>
+        <v>16800</v>
       </c>
       <c r="G17">
         <v>7200</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1622160</v>
+        <v>2522160</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10200</v>
+        <v>16200</v>
       </c>
       <c r="G18">
         <v>7800</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1532340</v>
+        <v>2432340</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9600</v>
+        <v>15600</v>
       </c>
       <c r="G19">
         <v>8400</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1442520</v>
+        <v>2342520</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G20">
         <v>9000</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1352700</v>
+        <v>2252700</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8400</v>
+        <v>14400</v>
       </c>
       <c r="G21">
         <v>9600</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1262880</v>
+        <v>2162880</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>14400</v>
+        <v>20400</v>
       </c>
       <c r="G22">
         <v>9600</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2162880</v>
+        <v>3062880</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20400</v>
+        <v>26400</v>
       </c>
       <c r="G23">
         <v>9600</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3062880</v>
+        <v>3962880</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>20400</v>
+        <v>32400</v>
       </c>
       <c r="G24">
         <v>9600</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3062880</v>
+        <v>4862880</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>20400</v>
+        <v>38400</v>
       </c>
       <c r="G25">
         <v>9600</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3062880</v>
+        <v>5762880</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>20400</v>
+        <v>44400</v>
       </c>
       <c r="G26">
         <v>9600</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3062880</v>
+        <v>6662880</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>20400</v>
+        <v>50400</v>
       </c>
       <c r="G27">
         <v>9600</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>3062880</v>
+        <v>7562880</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>20400</v>
+        <v>56400</v>
       </c>
       <c r="G28">
         <v>9600</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>3062880</v>
+        <v>8462880</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,7 +1302,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>20400</v>
+        <v>62400</v>
       </c>
       <c r="G29">
         <v>9600</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3062880</v>
+        <v>9362880</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,7 +1334,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>20400</v>
+        <v>68400</v>
       </c>
       <c r="G30">
         <v>9600</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3062880</v>
+        <v>10262880</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,7 +1366,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>20400</v>
+        <v>74400</v>
       </c>
       <c r="G31">
         <v>9600</v>
@@ -1387,9 +1387,2249 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3062880</v>
+        <v>11162880</v>
       </c>
       <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>73800</v>
+      </c>
+      <c r="G32">
+        <v>10200</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>11073060</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>73200</v>
+      </c>
+      <c r="G33">
+        <v>10800</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10983240</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>72600</v>
+      </c>
+      <c r="G34">
+        <v>11400</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10893420</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>72000</v>
+      </c>
+      <c r="G35">
+        <v>12000</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10803600</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>71400</v>
+      </c>
+      <c r="G36">
+        <v>12600</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>10713780</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>70800</v>
+      </c>
+      <c r="G37">
+        <v>13200</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>10623960</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>70200</v>
+      </c>
+      <c r="G38">
+        <v>13800</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10534140</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>69600</v>
+      </c>
+      <c r="G39">
+        <v>14400</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>10444320</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>69000</v>
+      </c>
+      <c r="G40">
+        <v>15000</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>10354500</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>69000</v>
+      </c>
+      <c r="G41">
+        <v>8640</v>
+      </c>
+      <c r="H41">
+        <v>6360</v>
+      </c>
+      <c r="I41">
+        <v>10352592</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>69000</v>
+      </c>
+      <c r="G42">
+        <v>2280</v>
+      </c>
+      <c r="H42">
+        <v>12720</v>
+      </c>
+      <c r="I42">
+        <v>10350684</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>75000</v>
+      </c>
+      <c r="G43">
+        <v>2280</v>
+      </c>
+      <c r="H43">
+        <v>12720</v>
+      </c>
+      <c r="I43">
+        <v>11250684</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>81000</v>
+      </c>
+      <c r="G44">
+        <v>2280</v>
+      </c>
+      <c r="H44">
+        <v>12720</v>
+      </c>
+      <c r="I44">
+        <v>12150684</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>87000</v>
+      </c>
+      <c r="G45">
+        <v>2280</v>
+      </c>
+      <c r="H45">
+        <v>12720</v>
+      </c>
+      <c r="I45">
+        <v>13050684</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>93000</v>
+      </c>
+      <c r="G46">
+        <v>2280</v>
+      </c>
+      <c r="H46">
+        <v>12720</v>
+      </c>
+      <c r="I46">
+        <v>13950684</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>99000</v>
+      </c>
+      <c r="G47">
+        <v>2280</v>
+      </c>
+      <c r="H47">
+        <v>12720</v>
+      </c>
+      <c r="I47">
+        <v>14850684</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>99000</v>
+      </c>
+      <c r="G48">
+        <v>2280</v>
+      </c>
+      <c r="H48">
+        <v>12720</v>
+      </c>
+      <c r="I48">
+        <v>14850684</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>105000</v>
+      </c>
+      <c r="G49">
+        <v>2280</v>
+      </c>
+      <c r="H49">
+        <v>12720</v>
+      </c>
+      <c r="I49">
+        <v>15750684</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>111000</v>
+      </c>
+      <c r="G50">
+        <v>2280</v>
+      </c>
+      <c r="H50">
+        <v>12720</v>
+      </c>
+      <c r="I50">
+        <v>16650684</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>111000</v>
+      </c>
+      <c r="G51">
+        <v>2280</v>
+      </c>
+      <c r="H51">
+        <v>12720</v>
+      </c>
+      <c r="I51">
+        <v>16650684</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>117000</v>
+      </c>
+      <c r="G52">
+        <v>2280</v>
+      </c>
+      <c r="H52">
+        <v>12720</v>
+      </c>
+      <c r="I52">
+        <v>17550684</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>123000</v>
+      </c>
+      <c r="G53">
+        <v>2280</v>
+      </c>
+      <c r="H53">
+        <v>12720</v>
+      </c>
+      <c r="I53">
+        <v>18450684</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>129000</v>
+      </c>
+      <c r="G54">
+        <v>2280</v>
+      </c>
+      <c r="H54">
+        <v>12720</v>
+      </c>
+      <c r="I54">
+        <v>19350684</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>135000</v>
+      </c>
+      <c r="G55">
+        <v>2280</v>
+      </c>
+      <c r="H55">
+        <v>12720</v>
+      </c>
+      <c r="I55">
+        <v>20250684</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>141000</v>
+      </c>
+      <c r="G56">
+        <v>2280</v>
+      </c>
+      <c r="H56">
+        <v>12720</v>
+      </c>
+      <c r="I56">
+        <v>21150684</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>147000</v>
+      </c>
+      <c r="G57">
+        <v>2280</v>
+      </c>
+      <c r="H57">
+        <v>12720</v>
+      </c>
+      <c r="I57">
+        <v>22050684</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>153000</v>
+      </c>
+      <c r="G58">
+        <v>2280</v>
+      </c>
+      <c r="H58">
+        <v>12720</v>
+      </c>
+      <c r="I58">
+        <v>22950684</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>159000</v>
+      </c>
+      <c r="G59">
+        <v>2280</v>
+      </c>
+      <c r="H59">
+        <v>12720</v>
+      </c>
+      <c r="I59">
+        <v>23850684</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>165000</v>
+      </c>
+      <c r="G60">
+        <v>2280</v>
+      </c>
+      <c r="H60">
+        <v>12720</v>
+      </c>
+      <c r="I60">
+        <v>24750684</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>171000</v>
+      </c>
+      <c r="G61">
+        <v>2280</v>
+      </c>
+      <c r="H61">
+        <v>12720</v>
+      </c>
+      <c r="I61">
+        <v>25650684</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>177000</v>
+      </c>
+      <c r="G62">
+        <v>2280</v>
+      </c>
+      <c r="H62">
+        <v>12720</v>
+      </c>
+      <c r="I62">
+        <v>26550684</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>183000</v>
+      </c>
+      <c r="G63">
+        <v>2280</v>
+      </c>
+      <c r="H63">
+        <v>12720</v>
+      </c>
+      <c r="I63">
+        <v>27450684</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>189000</v>
+      </c>
+      <c r="G64">
+        <v>2280</v>
+      </c>
+      <c r="H64">
+        <v>12720</v>
+      </c>
+      <c r="I64">
+        <v>28350684</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>195000</v>
+      </c>
+      <c r="G65">
+        <v>2280</v>
+      </c>
+      <c r="H65">
+        <v>12720</v>
+      </c>
+      <c r="I65">
+        <v>29250684</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>201000</v>
+      </c>
+      <c r="G66">
+        <v>2280</v>
+      </c>
+      <c r="H66">
+        <v>12720</v>
+      </c>
+      <c r="I66">
+        <v>30150684</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>207000</v>
+      </c>
+      <c r="G67">
+        <v>2280</v>
+      </c>
+      <c r="H67">
+        <v>12720</v>
+      </c>
+      <c r="I67">
+        <v>31050684</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>207000</v>
+      </c>
+      <c r="G68">
+        <v>2280</v>
+      </c>
+      <c r="H68">
+        <v>12720</v>
+      </c>
+      <c r="I68">
+        <v>31050684</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>207000</v>
+      </c>
+      <c r="G69">
+        <v>2280</v>
+      </c>
+      <c r="H69">
+        <v>12720</v>
+      </c>
+      <c r="I69">
+        <v>31050684</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>207000</v>
+      </c>
+      <c r="G70">
+        <v>2280</v>
+      </c>
+      <c r="H70">
+        <v>12720</v>
+      </c>
+      <c r="I70">
+        <v>31050684</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>207000</v>
+      </c>
+      <c r="G71">
+        <v>2280</v>
+      </c>
+      <c r="H71">
+        <v>12720</v>
+      </c>
+      <c r="I71">
+        <v>31050684</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>207000</v>
+      </c>
+      <c r="G72">
+        <v>2280</v>
+      </c>
+      <c r="H72">
+        <v>12720</v>
+      </c>
+      <c r="I72">
+        <v>31050684</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>207000</v>
+      </c>
+      <c r="G73">
+        <v>2280</v>
+      </c>
+      <c r="H73">
+        <v>12720</v>
+      </c>
+      <c r="I73">
+        <v>31050684</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>207000</v>
+      </c>
+      <c r="G74">
+        <v>2280</v>
+      </c>
+      <c r="H74">
+        <v>12720</v>
+      </c>
+      <c r="I74">
+        <v>31050684</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>207000</v>
+      </c>
+      <c r="G75">
+        <v>2280</v>
+      </c>
+      <c r="H75">
+        <v>12720</v>
+      </c>
+      <c r="I75">
+        <v>31050684</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>207000</v>
+      </c>
+      <c r="G76">
+        <v>2280</v>
+      </c>
+      <c r="H76">
+        <v>12720</v>
+      </c>
+      <c r="I76">
+        <v>31050684</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>207000</v>
+      </c>
+      <c r="G77">
+        <v>2280</v>
+      </c>
+      <c r="H77">
+        <v>12720</v>
+      </c>
+      <c r="I77">
+        <v>31050684</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>207000</v>
+      </c>
+      <c r="G78">
+        <v>2280</v>
+      </c>
+      <c r="H78">
+        <v>12720</v>
+      </c>
+      <c r="I78">
+        <v>31050684</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>207000</v>
+      </c>
+      <c r="G79">
+        <v>2280</v>
+      </c>
+      <c r="H79">
+        <v>12720</v>
+      </c>
+      <c r="I79">
+        <v>31050684</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>207000</v>
+      </c>
+      <c r="G80">
+        <v>2280</v>
+      </c>
+      <c r="H80">
+        <v>12720</v>
+      </c>
+      <c r="I80">
+        <v>31050684</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>207000</v>
+      </c>
+      <c r="G81">
+        <v>2280</v>
+      </c>
+      <c r="H81">
+        <v>12720</v>
+      </c>
+      <c r="I81">
+        <v>31050684</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>207000</v>
+      </c>
+      <c r="G82">
+        <v>2280</v>
+      </c>
+      <c r="H82">
+        <v>12720</v>
+      </c>
+      <c r="I82">
+        <v>31050684</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>207000</v>
+      </c>
+      <c r="G83">
+        <v>2280</v>
+      </c>
+      <c r="H83">
+        <v>12720</v>
+      </c>
+      <c r="I83">
+        <v>31050684</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>207000</v>
+      </c>
+      <c r="G84">
+        <v>2280</v>
+      </c>
+      <c r="H84">
+        <v>12720</v>
+      </c>
+      <c r="I84">
+        <v>31050684</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>207000</v>
+      </c>
+      <c r="G85">
+        <v>2280</v>
+      </c>
+      <c r="H85">
+        <v>12720</v>
+      </c>
+      <c r="I85">
+        <v>31050684</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>207000</v>
+      </c>
+      <c r="G86">
+        <v>2280</v>
+      </c>
+      <c r="H86">
+        <v>12720</v>
+      </c>
+      <c r="I86">
+        <v>31050684</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>207000</v>
+      </c>
+      <c r="G87">
+        <v>2280</v>
+      </c>
+      <c r="H87">
+        <v>12720</v>
+      </c>
+      <c r="I87">
+        <v>31050684</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>207000</v>
+      </c>
+      <c r="G88">
+        <v>2280</v>
+      </c>
+      <c r="H88">
+        <v>12720</v>
+      </c>
+      <c r="I88">
+        <v>31050684</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>207000</v>
+      </c>
+      <c r="G89">
+        <v>2280</v>
+      </c>
+      <c r="H89">
+        <v>12720</v>
+      </c>
+      <c r="I89">
+        <v>31050684</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>207000</v>
+      </c>
+      <c r="G90">
+        <v>2280</v>
+      </c>
+      <c r="H90">
+        <v>12720</v>
+      </c>
+      <c r="I90">
+        <v>31050684</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>207000</v>
+      </c>
+      <c r="G91">
+        <v>2280</v>
+      </c>
+      <c r="H91">
+        <v>12720</v>
+      </c>
+      <c r="I91">
+        <v>31050684</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>207000</v>
+      </c>
+      <c r="G92">
+        <v>2280</v>
+      </c>
+      <c r="H92">
+        <v>12720</v>
+      </c>
+      <c r="I92">
+        <v>31050684</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>207000</v>
+      </c>
+      <c r="G93">
+        <v>2280</v>
+      </c>
+      <c r="H93">
+        <v>12720</v>
+      </c>
+      <c r="I93">
+        <v>31050684</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>213000</v>
+      </c>
+      <c r="G94">
+        <v>2280</v>
+      </c>
+      <c r="H94">
+        <v>12720</v>
+      </c>
+      <c r="I94">
+        <v>31950684</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>219000</v>
+      </c>
+      <c r="G95">
+        <v>2280</v>
+      </c>
+      <c r="H95">
+        <v>12720</v>
+      </c>
+      <c r="I95">
+        <v>32850684</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>225000</v>
+      </c>
+      <c r="G96">
+        <v>2280</v>
+      </c>
+      <c r="H96">
+        <v>12720</v>
+      </c>
+      <c r="I96">
+        <v>33750684</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>231000</v>
+      </c>
+      <c r="G97">
+        <v>2280</v>
+      </c>
+      <c r="H97">
+        <v>12720</v>
+      </c>
+      <c r="I97">
+        <v>34650684</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>231000</v>
+      </c>
+      <c r="G98">
+        <v>2280</v>
+      </c>
+      <c r="H98">
+        <v>12720</v>
+      </c>
+      <c r="I98">
+        <v>34650684</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>231000</v>
+      </c>
+      <c r="G99">
+        <v>2280</v>
+      </c>
+      <c r="H99">
+        <v>12720</v>
+      </c>
+      <c r="I99">
+        <v>34650684</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>231000</v>
+      </c>
+      <c r="G100">
+        <v>2280</v>
+      </c>
+      <c r="H100">
+        <v>12720</v>
+      </c>
+      <c r="I100">
+        <v>34650684</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>231000</v>
+      </c>
+      <c r="G101">
+        <v>2280</v>
+      </c>
+      <c r="H101">
+        <v>12720</v>
+      </c>
+      <c r="I101">
+        <v>34650684</v>
+      </c>
+      <c r="J101">
         <v>0</v>
       </c>
     </row>

--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iainh\Documents\GitHub\Strathdar\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE2214A-4C09-40B0-A521-723790E8C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="she7et1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -465,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -529,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -561,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -593,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -625,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -657,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -689,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -721,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -753,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -785,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -817,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -849,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -881,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -913,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -945,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -977,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1009,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1041,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1073,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1105,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1137,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1169,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1201,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1265,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1297,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1329,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1361,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1393,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1425,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1457,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1489,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1521,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1585,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1649,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1681,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1713,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1745,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1777,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1809,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1841,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1873,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1905,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1937,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1969,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2001,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2033,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2065,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2097,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2129,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2161,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2193,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2225,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2257,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2289,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2321,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2353,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2385,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2417,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2449,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2481,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2513,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2545,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2577,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2609,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2641,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2673,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2705,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2737,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2801,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2833,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2865,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2897,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2929,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2961,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2993,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3057,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3089,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3121,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3153,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3185,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3217,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3281,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3313,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3345,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3377,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3409,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3441,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3505,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3537,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3569,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3601,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3633,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3665,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3697,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3729,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3761,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3793,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3825,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3857,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3889,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3921,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3953,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3985,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4017,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4049,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4081,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4113,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4145,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4177,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4209,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4241,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4273,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4305,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4337,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4369,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4401,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4433,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4465,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4497,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4529,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4561,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4593,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4625,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4657,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4721,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4753,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4785,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4817,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4849,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4881,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4913,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4945,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4977,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5009,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5041,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5073,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5105,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5137,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5169,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5201,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5233,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5265,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5297,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5329,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5361,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5393,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5425,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5457,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5489,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5521,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5553,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5585,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5617,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5649,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5681,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5713,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5745,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5777,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5809,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5841,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5873,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5905,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5937,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6001,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6033,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6065,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6097,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6129,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6161,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6193,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6225,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6257,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6289,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6321,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6353,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6385,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6417,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6449,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6481,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6513,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6545,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6577,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6641,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6673,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6705,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6737,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6769,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6801,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6833,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6865,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6897,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6929,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6961,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6993,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7025,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7057,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7089,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7121,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7153,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7185,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7217,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7249,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7281,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7313,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7345,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7377,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7409,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7441,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7473,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7505,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7537,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7569,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7601,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7633,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7665,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7697,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7729,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7761,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7793,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7825,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7857,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7889,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7921,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7953,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7985,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8017,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8049,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8081,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8113,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8145,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8177,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8209,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8241,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8273,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8305,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8337,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8369,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8401,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8433,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8465,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8497,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8529,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8561,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8593,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8625,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8657,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8689,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8721,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8753,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8785,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8817,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8849,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8881,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8913,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8945,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8977,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9009,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9041,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9073,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9105,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9137,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9169,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9201,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9233,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9265,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9297,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9329,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9361,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -9393,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -9425,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -9457,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -9489,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9521,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -9553,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9585,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9617,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9649,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9681,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9713,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9745,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9777,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9809,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9841,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9873,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9905,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9937,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9969,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10001,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>299</v>
       </c>

--- a/results/scheduleraw.xlsx.xlsx
+++ b/results/scheduleraw.xlsx.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iainh\Documents\GitHub\Strathdar\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE2214A-4C09-40B0-A521-723790E8C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="she7et1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +110,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -517,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -549,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -581,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -613,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -677,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -709,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -741,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -773,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -805,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -837,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -901,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -933,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -965,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -997,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1093,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1125,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1157,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1189,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1221,15 +1169,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1238,30 +1186,30 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31800</v>
+        <v>38400</v>
       </c>
       <c r="G25">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4773060</v>
+        <v>5762880</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1270,30 +1218,30 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>31200</v>
+        <v>44400</v>
       </c>
       <c r="G26">
-        <v>10800</v>
+        <v>9600</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>4683240</v>
+        <v>6662880</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1302,30 +1250,30 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>30600</v>
+        <v>50400</v>
       </c>
       <c r="G27">
-        <v>11400</v>
+        <v>9600</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>4593420</v>
+        <v>7562880</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1334,30 +1282,30 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>30000</v>
+        <v>56400</v>
       </c>
       <c r="G28">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>4503600</v>
+        <v>8462880</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1366,30 +1314,30 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>29400</v>
+        <v>62400</v>
       </c>
       <c r="G29">
-        <v>12600</v>
+        <v>9600</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4413780</v>
+        <v>9362880</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1398,30 +1346,30 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>28800</v>
+        <v>68400</v>
       </c>
       <c r="G30">
-        <v>13200</v>
+        <v>9600</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4323960</v>
+        <v>10262880</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1430,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>28200</v>
+        <v>74400</v>
       </c>
       <c r="G31">
-        <v>13800</v>
+        <v>9600</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>4234140</v>
+        <v>11162880</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1462,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>27600</v>
+        <v>73800</v>
       </c>
       <c r="G32">
-        <v>14400</v>
+        <v>10200</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4144320</v>
+        <v>11073060</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1494,22 +1442,22 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>27000</v>
+        <v>73200</v>
       </c>
       <c r="G33">
-        <v>15000</v>
+        <v>10800</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>4054500</v>
+        <v>10983240</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1526,22 +1474,22 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>26400</v>
+        <v>72600</v>
       </c>
       <c r="G34">
-        <v>15600</v>
+        <v>11400</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>3964680</v>
+        <v>10893420</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1558,22 +1506,22 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25800</v>
+        <v>72000</v>
       </c>
       <c r="G35">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>3874860</v>
+        <v>10803600</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1590,22 +1538,22 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>25200</v>
+        <v>71400</v>
       </c>
       <c r="G36">
-        <v>16800</v>
+        <v>12600</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>3785040</v>
+        <v>10713780</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1622,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>24600</v>
+        <v>70800</v>
       </c>
       <c r="G37">
-        <v>17400</v>
+        <v>13200</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>3695220</v>
+        <v>10623960</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1654,22 +1602,22 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>24000</v>
+        <v>70200</v>
       </c>
       <c r="G38">
-        <v>18000</v>
+        <v>13800</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3605400</v>
+        <v>10534140</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1686,22 +1634,22 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>23400</v>
+        <v>69600</v>
       </c>
       <c r="G39">
-        <v>18600</v>
+        <v>14400</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3515580</v>
+        <v>10444320</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1718,22 +1666,22 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>22800</v>
+        <v>69000</v>
       </c>
       <c r="G40">
-        <v>19200</v>
+        <v>15000</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>3425760</v>
+        <v>10354500</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1750,22 +1698,22 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>22800</v>
+        <v>69000</v>
       </c>
       <c r="G41">
-        <v>12840</v>
+        <v>8640</v>
       </c>
       <c r="H41">
         <v>6360</v>
       </c>
       <c r="I41">
-        <v>3423852</v>
+        <v>10352592</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1782,22 +1730,22 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>22800</v>
+        <v>69000</v>
       </c>
       <c r="G42">
-        <v>6480</v>
+        <v>2280</v>
       </c>
       <c r="H42">
         <v>12720</v>
       </c>
       <c r="I42">
-        <v>3421944</v>
+        <v>10350684</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1814,22 +1762,22 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>22200</v>
+        <v>68400</v>
       </c>
       <c r="G43">
-        <v>7080</v>
+        <v>2880</v>
       </c>
       <c r="H43">
         <v>12720</v>
       </c>
       <c r="I43">
-        <v>3332124</v>
+        <v>10260864</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1846,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>21600</v>
+        <v>67800</v>
       </c>
       <c r="G44">
-        <v>7680</v>
+        <v>3480</v>
       </c>
       <c r="H44">
         <v>12720</v>
       </c>
       <c r="I44">
-        <v>3242304</v>
+        <v>10171044</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1878,22 +1826,22 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21000</v>
+        <v>67200</v>
       </c>
       <c r="G45">
-        <v>8280</v>
+        <v>4080</v>
       </c>
       <c r="H45">
         <v>12720</v>
       </c>
       <c r="I45">
-        <v>3152484</v>
+        <v>10081224</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1910,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20400</v>
+        <v>66600</v>
       </c>
       <c r="G46">
-        <v>8880</v>
+        <v>4680</v>
       </c>
       <c r="H46">
         <v>12720</v>
       </c>
       <c r="I46">
-        <v>3062664</v>
+        <v>9991404</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1942,22 +1890,22 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>19800</v>
+        <v>66000</v>
       </c>
       <c r="G47">
-        <v>9480</v>
+        <v>5280</v>
       </c>
       <c r="H47">
         <v>12720</v>
       </c>
       <c r="I47">
-        <v>2972844</v>
+        <v>9901584</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1974,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>19200</v>
+        <v>65400</v>
       </c>
       <c r="G48">
-        <v>10080</v>
+        <v>5880</v>
       </c>
       <c r="H48">
         <v>12720</v>
       </c>
       <c r="I48">
-        <v>2883024</v>
+        <v>9811764</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2006,22 +1954,22 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>25200</v>
+        <v>71400</v>
       </c>
       <c r="G49">
-        <v>10080</v>
+        <v>5880</v>
       </c>
       <c r="H49">
         <v>12720</v>
       </c>
       <c r="I49">
-        <v>3783024</v>
+        <v>10711764</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2038,22 +1986,22 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>31200</v>
+        <v>77400</v>
       </c>
       <c r="G50">
-        <v>10080</v>
+        <v>5880</v>
       </c>
       <c r="H50">
         <v>12720</v>
       </c>
       <c r="I50">
-        <v>4683024</v>
+        <v>11611764</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2070,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>30600</v>
+        <v>76800</v>
       </c>
       <c r="G51">
-        <v>10680</v>
+        <v>6480</v>
       </c>
       <c r="H51">
         <v>12720</v>
       </c>
       <c r="I51">
-        <v>4593204</v>
+        <v>11521944</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2102,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>30000</v>
+        <v>76200</v>
       </c>
       <c r="G52">
-        <v>11280</v>
+        <v>7080</v>
       </c>
       <c r="H52">
         <v>12720</v>
       </c>
       <c r="I52">
-        <v>4503384</v>
+        <v>11432124</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2134,22 +2082,22 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>29400</v>
+        <v>75600</v>
       </c>
       <c r="G53">
-        <v>11880</v>
+        <v>7680</v>
       </c>
       <c r="H53">
         <v>12720</v>
       </c>
       <c r="I53">
-        <v>4413564</v>
+        <v>11342304</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2166,30 +2114,30 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>28800</v>
+        <v>75000</v>
       </c>
       <c r="G54">
-        <v>12480</v>
+        <v>8280</v>
       </c>
       <c r="H54">
         <v>12720</v>
       </c>
       <c r="I54">
-        <v>4323744</v>
+        <v>11252484</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2198,30 +2146,30 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>28200</v>
+        <v>81000</v>
       </c>
       <c r="G55">
-        <v>13080</v>
+        <v>8280</v>
       </c>
       <c r="H55">
         <v>12720</v>
       </c>
       <c r="I55">
-        <v>4233924</v>
+        <v>12152484</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2230,30 +2178,30 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>27600</v>
+        <v>87000</v>
       </c>
       <c r="G56">
-        <v>13680</v>
+        <v>8280</v>
       </c>
       <c r="H56">
         <v>12720</v>
       </c>
       <c r="I56">
-        <v>4144104</v>
+        <v>13052484</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2262,30 +2210,30 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>27000</v>
+        <v>93000</v>
       </c>
       <c r="G57">
-        <v>14280</v>
+        <v>8280</v>
       </c>
       <c r="H57">
         <v>12720</v>
       </c>
       <c r="I57">
-        <v>4054284</v>
+        <v>13952484</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2294,30 +2242,30 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>26400</v>
+        <v>99000</v>
       </c>
       <c r="G58">
-        <v>14880</v>
+        <v>8280</v>
       </c>
       <c r="H58">
         <v>12720</v>
       </c>
       <c r="I58">
-        <v>3964464</v>
+        <v>14852484</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2326,30 +2274,30 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>25800</v>
+        <v>105000</v>
       </c>
       <c r="G59">
-        <v>15480</v>
+        <v>8280</v>
       </c>
       <c r="H59">
         <v>12720</v>
       </c>
       <c r="I59">
-        <v>3874644</v>
+        <v>15752484</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2358,30 +2306,30 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>25200</v>
+        <v>111000</v>
       </c>
       <c r="G60">
-        <v>16080</v>
+        <v>8280</v>
       </c>
       <c r="H60">
         <v>12720</v>
       </c>
       <c r="I60">
-        <v>3784824</v>
+        <v>16652484</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2390,30 +2338,30 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>24600</v>
+        <v>117000</v>
       </c>
       <c r="G61">
-        <v>16680</v>
+        <v>8280</v>
       </c>
       <c r="H61">
         <v>12720</v>
       </c>
       <c r="I61">
-        <v>3695004</v>
+        <v>17552484</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2422,30 +2370,30 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>24000</v>
+        <v>123000</v>
       </c>
       <c r="G62">
-        <v>17280</v>
+        <v>8280</v>
       </c>
       <c r="H62">
         <v>12720</v>
       </c>
       <c r="I62">
-        <v>3605184</v>
+        <v>18452484</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2454,30 +2402,30 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>23400</v>
+        <v>129000</v>
       </c>
       <c r="G63">
-        <v>17880</v>
+        <v>8280</v>
       </c>
       <c r="H63">
         <v>12720</v>
       </c>
       <c r="I63">
-        <v>3515364</v>
+        <v>19352484</v>
       </c>
       <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2486,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>22800</v>
+        <v>135000</v>
       </c>
       <c r="G64">
-        <v>18480</v>
+        <v>8280</v>
       </c>
       <c r="H64">
         <v>12720</v>
       </c>
       <c r="I64">
-        <v>3425544</v>
+        <v>20252484</v>
       </c>
       <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2518,22 +2466,22 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>28800</v>
+        <v>141000</v>
       </c>
       <c r="G65">
-        <v>18480</v>
+        <v>8280</v>
       </c>
       <c r="H65">
         <v>12720</v>
       </c>
       <c r="I65">
-        <v>4325544</v>
+        <v>21152484</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2550,22 +2498,22 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>34800</v>
+        <v>147000</v>
       </c>
       <c r="G66">
-        <v>18480</v>
+        <v>8280</v>
       </c>
       <c r="H66">
         <v>12720</v>
       </c>
       <c r="I66">
-        <v>5225544</v>
+        <v>22052484</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2582,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>40800</v>
+        <v>153000</v>
       </c>
       <c r="G67">
-        <v>18480</v>
+        <v>8280</v>
       </c>
       <c r="H67">
         <v>12720</v>
       </c>
       <c r="I67">
-        <v>6125544</v>
+        <v>22952484</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2614,22 +2562,22 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>40200</v>
+        <v>152400</v>
       </c>
       <c r="G68">
-        <v>19080</v>
+        <v>8880</v>
       </c>
       <c r="H68">
         <v>12720</v>
       </c>
       <c r="I68">
-        <v>6035724</v>
+        <v>22862664</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2646,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>39600</v>
+        <v>151800</v>
       </c>
       <c r="G69">
-        <v>19680</v>
+        <v>9480</v>
       </c>
       <c r="H69">
         <v>12720</v>
       </c>
       <c r="I69">
-        <v>5945904</v>
+        <v>22772844</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2678,22 +2626,22 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>39000</v>
+        <v>151200</v>
       </c>
       <c r="G70">
-        <v>20280</v>
+        <v>10080</v>
       </c>
       <c r="H70">
         <v>12720</v>
       </c>
       <c r="I70">
-        <v>5856084</v>
+        <v>22683024</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2710,22 +2658,22 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>38400</v>
+        <v>150600</v>
       </c>
       <c r="G71">
-        <v>20880</v>
+        <v>10680</v>
       </c>
       <c r="H71">
         <v>12720</v>
       </c>
       <c r="I71">
-        <v>5766264</v>
+        <v>22593204</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2742,22 +2690,22 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>37800</v>
+        <v>150000</v>
       </c>
       <c r="G72">
-        <v>21480</v>
+        <v>11280</v>
       </c>
       <c r="H72">
         <v>12720</v>
       </c>
       <c r="I72">
-        <v>5676444</v>
+        <v>22503384</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2774,22 +2722,22 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>37200</v>
+        <v>149400</v>
       </c>
       <c r="G73">
-        <v>22080</v>
+        <v>11880</v>
       </c>
       <c r="H73">
         <v>12720</v>
       </c>
       <c r="I73">
-        <v>5586624</v>
+        <v>22413564</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2806,22 +2754,22 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>36600</v>
+        <v>148800</v>
       </c>
       <c r="G74">
-        <v>22680</v>
+        <v>12480</v>
       </c>
       <c r="H74">
         <v>12720</v>
       </c>
       <c r="I74">
-        <v>5496804</v>
+        <v>22323744</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2838,22 +2786,22 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>36000</v>
+        <v>148200</v>
       </c>
       <c r="G75">
-        <v>23280</v>
+        <v>13080</v>
       </c>
       <c r="H75">
         <v>12720</v>
       </c>
       <c r="I75">
-        <v>5406984</v>
+        <v>22233924</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2870,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>35400</v>
+        <v>147600</v>
       </c>
       <c r="G76">
-        <v>23880</v>
+        <v>13680</v>
       </c>
       <c r="H76">
         <v>12720</v>
       </c>
       <c r="I76">
-        <v>5317164</v>
+        <v>22144104</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2902,22 +2850,22 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>34800</v>
+        <v>147000</v>
       </c>
       <c r="G77">
-        <v>24480</v>
+        <v>14280</v>
       </c>
       <c r="H77">
         <v>12720</v>
       </c>
       <c r="I77">
-        <v>5227344</v>
+        <v>22054284</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2934,22 +2882,22 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>34200</v>
+        <v>146400</v>
       </c>
       <c r="G78">
-        <v>25080</v>
+        <v>14880</v>
       </c>
       <c r="H78">
         <v>12720</v>
       </c>
       <c r="I78">
-        <v>5137524</v>
+        <v>21964464</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2966,22 +2914,22 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>33600</v>
+        <v>145800</v>
       </c>
       <c r="G79">
-        <v>25680</v>
+        <v>15480</v>
       </c>
       <c r="H79">
         <v>12720</v>
       </c>
       <c r="I79">
-        <v>5047704</v>
+        <v>21874644</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2998,22 +2946,22 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>33000</v>
+        <v>145200</v>
       </c>
       <c r="G80">
-        <v>26280</v>
+        <v>16080</v>
       </c>
       <c r="H80">
         <v>12720</v>
       </c>
       <c r="I80">
-        <v>4957884</v>
+        <v>21784824</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3030,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>32400</v>
+        <v>144600</v>
       </c>
       <c r="G81">
-        <v>26880</v>
+        <v>16680</v>
       </c>
       <c r="H81">
         <v>12720</v>
       </c>
       <c r="I81">
-        <v>4868064</v>
+        <v>21695004</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3062,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>31800</v>
+        <v>144000</v>
       </c>
       <c r="G82">
-        <v>27480</v>
+        <v>17280</v>
       </c>
       <c r="H82">
         <v>12720</v>
       </c>
       <c r="I82">
-        <v>4778244</v>
+        <v>21605184</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3094,22 +3042,22 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>31200</v>
+        <v>143400</v>
       </c>
       <c r="G83">
-        <v>28080</v>
+        <v>17880</v>
       </c>
       <c r="H83">
         <v>12720</v>
       </c>
       <c r="I83">
-        <v>4688424</v>
+        <v>21515364</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3126,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>30600</v>
+        <v>142800</v>
       </c>
       <c r="G84">
-        <v>28680</v>
+        <v>18480</v>
       </c>
       <c r="H84">
         <v>12720</v>
       </c>
       <c r="I84">
-        <v>4598604</v>
+        <v>21425544</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3158,22 +3106,22 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>30000</v>
+        <v>142200</v>
       </c>
       <c r="G85">
-        <v>29280</v>
+        <v>19080</v>
       </c>
       <c r="H85">
         <v>12720</v>
       </c>
       <c r="I85">
-        <v>4508784</v>
+        <v>21335724</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3190,22 +3138,22 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>29400</v>
+        <v>141600</v>
       </c>
       <c r="G86">
-        <v>29880</v>
+        <v>19680</v>
       </c>
       <c r="H86">
         <v>12720</v>
       </c>
       <c r="I86">
-        <v>4418964</v>
+        <v>21245904</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3222,22 +3170,22 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>28800</v>
+        <v>141000</v>
       </c>
       <c r="G87">
-        <v>30480</v>
+        <v>20280</v>
       </c>
       <c r="H87">
         <v>12720</v>
       </c>
       <c r="I87">
-        <v>4329144</v>
+        <v>21156084</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3254,22 +3202,22 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>28200</v>
+        <v>140400</v>
       </c>
       <c r="G88">
-        <v>31080</v>
+        <v>20880</v>
       </c>
       <c r="H88">
         <v>12720</v>
       </c>
       <c r="I88">
-        <v>4239324</v>
+        <v>21066264</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3286,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>27600</v>
+        <v>139800</v>
       </c>
       <c r="G89">
-        <v>31680</v>
+        <v>21480</v>
       </c>
       <c r="H89">
         <v>12720</v>
       </c>
       <c r="I89">
-        <v>4149504</v>
+        <v>20976444</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3318,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>27000</v>
+        <v>139200</v>
       </c>
       <c r="G90">
-        <v>32280</v>
+        <v>22080</v>
       </c>
       <c r="H90">
         <v>12720</v>
       </c>
       <c r="I90">
-        <v>4059684</v>
+        <v>20886624</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3350,22 +3298,22 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>26400</v>
+        <v>138600</v>
       </c>
       <c r="G91">
-        <v>32880</v>
+        <v>22680</v>
       </c>
       <c r="H91">
         <v>12720</v>
       </c>
       <c r="I91">
-        <v>3969864</v>
+        <v>20796804</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3382,22 +3330,22 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>25800</v>
+        <v>138000</v>
       </c>
       <c r="G92">
-        <v>33480</v>
+        <v>23280</v>
       </c>
       <c r="H92">
         <v>12720</v>
       </c>
       <c r="I92">
-        <v>3880044</v>
+        <v>20706984</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3414,22 +3362,22 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>25200</v>
+        <v>137400</v>
       </c>
       <c r="G93">
-        <v>34080</v>
+        <v>23880</v>
       </c>
       <c r="H93">
         <v>12720</v>
       </c>
       <c r="I93">
-        <v>3790224</v>
+        <v>20617164</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3446,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>31200</v>
+        <v>143400</v>
       </c>
       <c r="G94">
-        <v>34080</v>
+        <v>23880</v>
       </c>
       <c r="H94">
         <v>12720</v>
       </c>
       <c r="I94">
-        <v>4690224</v>
+        <v>21517164</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3478,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>30600</v>
+        <v>142800</v>
       </c>
       <c r="G95">
-        <v>34680</v>
+        <v>24480</v>
       </c>
       <c r="H95">
         <v>12720</v>
       </c>
       <c r="I95">
-        <v>4600404</v>
+        <v>21427344</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3510,27 +3458,27 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>36600</v>
+        <v>148800</v>
       </c>
       <c r="G96">
-        <v>34680</v>
+        <v>24480</v>
       </c>
       <c r="H96">
         <v>12720</v>
       </c>
       <c r="I96">
-        <v>5500404</v>
+        <v>22327344</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3539,33 +3487,33 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>42600</v>
+        <v>148800</v>
       </c>
       <c r="G97">
-        <v>34680</v>
+        <v>24480</v>
       </c>
       <c r="H97">
         <v>12720</v>
       </c>
       <c r="I97">
-        <v>6400404</v>
+        <v>22327344</v>
       </c>
       <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3574,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>42000</v>
+        <v>154800</v>
       </c>
       <c r="G98">
-        <v>35280</v>
+        <v>24480</v>
       </c>
       <c r="H98">
         <v>12720</v>
       </c>
       <c r="I98">
-        <v>6310584</v>
+        <v>23227344</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3606,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>41400</v>
+        <v>154200</v>
       </c>
       <c r="G99">
-        <v>35880</v>
+        <v>25080</v>
       </c>
       <c r="H99">
         <v>12720</v>
       </c>
       <c r="I99">
-        <v>6220764</v>
+        <v>23137524</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3638,22 +3586,22 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>40800</v>
+        <v>153600</v>
       </c>
       <c r="G100">
-        <v>36480</v>
+        <v>25680</v>
       </c>
       <c r="H100">
         <v>12720</v>
       </c>
       <c r="I100">
-        <v>6130944</v>
+        <v>23047704</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3670,22 +3618,22 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>40200</v>
+        <v>153000</v>
       </c>
       <c r="G101">
-        <v>37080</v>
+        <v>26280</v>
       </c>
       <c r="H101">
         <v>12720</v>
       </c>
       <c r="I101">
-        <v>6041124</v>
+        <v>22957884</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3702,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>39600</v>
+        <v>152400</v>
       </c>
       <c r="G102">
-        <v>37680</v>
+        <v>26880</v>
       </c>
       <c r="H102">
         <v>12720</v>
       </c>
       <c r="I102">
-        <v>5951304</v>
+        <v>22868064</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3734,22 +3682,22 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>39000</v>
+        <v>151800</v>
       </c>
       <c r="G103">
-        <v>38280</v>
+        <v>27480</v>
       </c>
       <c r="H103">
         <v>12720</v>
       </c>
       <c r="I103">
-        <v>5861484</v>
+        <v>22778244</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3766,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>38400</v>
+        <v>151200</v>
       </c>
       <c r="G104">
-        <v>38880</v>
+        <v>28080</v>
       </c>
       <c r="H104">
         <v>12720</v>
       </c>
       <c r="I104">
-        <v>5771664</v>
+        <v>22688424</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3798,22 +3746,22 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>37800</v>
+        <v>150600</v>
       </c>
       <c r="G105">
-        <v>39480</v>
+        <v>28680</v>
       </c>
       <c r="H105">
         <v>12720</v>
       </c>
       <c r="I105">
-        <v>5681844</v>
+        <v>22598604</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3830,22 +3778,22 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>37200</v>
+        <v>150000</v>
       </c>
       <c r="G106">
-        <v>40080</v>
+        <v>29280</v>
       </c>
       <c r="H106">
         <v>12720</v>
       </c>
       <c r="I106">
-        <v>5592024</v>
+        <v>22508784</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3862,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>36600</v>
+        <v>149400</v>
       </c>
       <c r="G107">
-        <v>40680</v>
+        <v>29880</v>
       </c>
       <c r="H107">
         <v>12720</v>
       </c>
       <c r="I107">
-        <v>5502204</v>
+        <v>22418964</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3894,22 +3842,22 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>36000</v>
+        <v>148800</v>
       </c>
       <c r="G108">
-        <v>41280</v>
+        <v>30480</v>
       </c>
       <c r="H108">
         <v>12720</v>
       </c>
       <c r="I108">
-        <v>5412384</v>
+        <v>22329144</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3926,22 +3874,22 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>35400</v>
+        <v>148200</v>
       </c>
       <c r="G109">
-        <v>41880</v>
+        <v>31080</v>
       </c>
       <c r="H109">
         <v>12720</v>
       </c>
       <c r="I109">
-        <v>5322564</v>
+        <v>22239324</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3958,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>34800</v>
+        <v>147600</v>
       </c>
       <c r="G110">
-        <v>42480</v>
+        <v>31680</v>
       </c>
       <c r="H110">
         <v>12720</v>
       </c>
       <c r="I110">
-        <v>5232744</v>
+        <v>22149504</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3990,22 +3938,22 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>34200</v>
+        <v>147000</v>
       </c>
       <c r="G111">
-        <v>43080</v>
+        <v>32280</v>
       </c>
       <c r="H111">
         <v>12720</v>
       </c>
       <c r="I111">
-        <v>5142924</v>
+        <v>22059684</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4022,22 +3970,22 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>33600</v>
+        <v>146400</v>
       </c>
       <c r="G112">
-        <v>43680</v>
+        <v>32880</v>
       </c>
       <c r="H112">
         <v>12720</v>
       </c>
       <c r="I112">
-        <v>5053104</v>
+        <v>21969864</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4054,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>33000</v>
+        <v>145800</v>
       </c>
       <c r="G113">
-        <v>44280</v>
+        <v>33480</v>
       </c>
       <c r="H113">
         <v>12720</v>
       </c>
       <c r="I113">
-        <v>4963284</v>
+        <v>21880044</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4086,22 +4034,22 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>32400</v>
+        <v>145200</v>
       </c>
       <c r="G114">
-        <v>44880</v>
+        <v>34080</v>
       </c>
       <c r="H114">
         <v>12720</v>
       </c>
       <c r="I114">
-        <v>4873464</v>
+        <v>21790224</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4118,22 +4066,22 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>31800</v>
+        <v>144600</v>
       </c>
       <c r="G115">
-        <v>45480</v>
+        <v>34680</v>
       </c>
       <c r="H115">
         <v>12720</v>
       </c>
       <c r="I115">
-        <v>4783644</v>
+        <v>21700404</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4150,22 +4098,22 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>31200</v>
+        <v>144000</v>
       </c>
       <c r="G116">
-        <v>46080</v>
+        <v>35280</v>
       </c>
       <c r="H116">
         <v>12720</v>
       </c>
       <c r="I116">
-        <v>4693824</v>
+        <v>21610584</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4182,22 +4130,22 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>30600</v>
+        <v>143400</v>
       </c>
       <c r="G117">
-        <v>46680</v>
+        <v>35880</v>
       </c>
       <c r="H117">
         <v>12720</v>
       </c>
       <c r="I117">
-        <v>4604004</v>
+        <v>21520764</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4214,22 +4162,22 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>30000</v>
+        <v>142800</v>
       </c>
       <c r="G118">
-        <v>47280</v>
+        <v>36480</v>
       </c>
       <c r="H118">
         <v>12720</v>
       </c>
       <c r="I118">
-        <v>4514184</v>
+        <v>21430944</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4246,22 +4194,22 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>29400</v>
+        <v>142200</v>
       </c>
       <c r="G119">
-        <v>47880</v>
+        <v>37080</v>
       </c>
       <c r="H119">
         <v>12720</v>
       </c>
       <c r="I119">
-        <v>4424364</v>
+        <v>21341124</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4278,22 +4226,22 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>28800</v>
+        <v>141600</v>
       </c>
       <c r="G120">
-        <v>48480</v>
+        <v>37680</v>
       </c>
       <c r="H120">
         <v>12720</v>
       </c>
       <c r="I120">
-        <v>4334544</v>
+        <v>21251304</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4310,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>28200</v>
+        <v>141000</v>
       </c>
       <c r="G121">
-        <v>49080</v>
+        <v>38280</v>
       </c>
       <c r="H121">
         <v>12720</v>
       </c>
       <c r="I121">
-        <v>4244724</v>
+        <v>21161484</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4342,22 +4290,22 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>27600</v>
+        <v>140400</v>
       </c>
       <c r="G122">
-        <v>49680</v>
+        <v>38880</v>
       </c>
       <c r="H122">
         <v>12720</v>
       </c>
       <c r="I122">
-        <v>4154904</v>
+        <v>21071664</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4374,22 +4322,22 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>27000</v>
+        <v>139800</v>
       </c>
       <c r="G123">
-        <v>50280</v>
+        <v>39480</v>
       </c>
       <c r="H123">
         <v>12720</v>
       </c>
       <c r="I123">
-        <v>4065084</v>
+        <v>20981844</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4406,22 +4354,22 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>26400</v>
+        <v>139200</v>
       </c>
       <c r="G124">
-        <v>50880</v>
+        <v>40080</v>
       </c>
       <c r="H124">
         <v>12720</v>
       </c>
       <c r="I124">
-        <v>3975264</v>
+        <v>20892024</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4438,22 +4386,22 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>25800</v>
+        <v>138600</v>
       </c>
       <c r="G125">
-        <v>51480</v>
+        <v>40680</v>
       </c>
       <c r="H125">
         <v>12720</v>
       </c>
       <c r="I125">
-        <v>3885444</v>
+        <v>20802204</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4470,22 +4418,22 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>25200</v>
+        <v>138000</v>
       </c>
       <c r="G126">
-        <v>52080</v>
+        <v>41280</v>
       </c>
       <c r="H126">
         <v>12720</v>
       </c>
       <c r="I126">
-        <v>3795624</v>
+        <v>20712384</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4502,22 +4450,22 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>24600</v>
+        <v>137400</v>
       </c>
       <c r="G127">
-        <v>52680</v>
+        <v>41880</v>
       </c>
       <c r="H127">
         <v>12720</v>
       </c>
       <c r="I127">
-        <v>3705804</v>
+        <v>20622564</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4534,22 +4482,22 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>24000</v>
+        <v>136800</v>
       </c>
       <c r="G128">
-        <v>53280</v>
+        <v>42480</v>
       </c>
       <c r="H128">
         <v>12720</v>
       </c>
       <c r="I128">
-        <v>3615984</v>
+        <v>20532744</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4566,22 +4514,22 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>23400</v>
+        <v>136200</v>
       </c>
       <c r="G129">
-        <v>53880</v>
+        <v>43080</v>
       </c>
       <c r="H129">
         <v>12720</v>
       </c>
       <c r="I129">
-        <v>3526164</v>
+        <v>20442924</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4598,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>22800</v>
+        <v>135600</v>
       </c>
       <c r="G130">
-        <v>54480</v>
+        <v>43680</v>
       </c>
       <c r="H130">
         <v>12720</v>
       </c>
       <c r="I130">
-        <v>3436344</v>
+        <v>20353104</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4630,22 +4578,22 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>22200</v>
+        <v>135000</v>
       </c>
       <c r="G131">
-        <v>55080</v>
+        <v>44280</v>
       </c>
       <c r="H131">
         <v>12720</v>
       </c>
       <c r="I131">
-        <v>3346524</v>
+        <v>20263284</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4662,22 +4610,22 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>21600</v>
+        <v>134400</v>
       </c>
       <c r="G132">
-        <v>55680</v>
+        <v>44880</v>
       </c>
       <c r="H132">
         <v>12720</v>
       </c>
       <c r="I132">
-        <v>3256704</v>
+        <v>20173464</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4694,22 +4642,22 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>21000</v>
+        <v>133800</v>
       </c>
       <c r="G133">
-        <v>56280</v>
+        <v>45480</v>
       </c>
       <c r="H133">
         <v>12720</v>
       </c>
       <c r="I133">
-        <v>3166884</v>
+        <v>20083644</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4726,22 +4674,22 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>20400</v>
+        <v>133200</v>
       </c>
       <c r="G134">
-        <v>56880</v>
+        <v>46080</v>
       </c>
       <c r="H134">
         <v>12720</v>
       </c>
       <c r="I134">
-        <v>3077064</v>
+        <v>19993824</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4758,22 +4706,22 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>19800</v>
+        <v>132600</v>
       </c>
       <c r="G135">
-        <v>57480</v>
+        <v>46680</v>
       </c>
       <c r="H135">
         <v>12720</v>
       </c>
       <c r="I135">
-        <v>2987244</v>
+        <v>19904004</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4790,22 +4738,22 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>25800</v>
+        <v>138600</v>
       </c>
       <c r="G136">
-        <v>57480</v>
+        <v>46680</v>
       </c>
       <c r="H136">
         <v>12720</v>
       </c>
       <c r="I136">
-        <v>3887244</v>
+        <v>20804004</v>
       </c>
       <c r="J136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4822,30 +4770,30 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>31800</v>
+        <v>144600</v>
       </c>
       <c r="G137">
-        <v>57480</v>
+        <v>46680</v>
       </c>
       <c r="H137">
         <v>12720</v>
       </c>
       <c r="I137">
-        <v>4787244</v>
+        <v>21704004</v>
       </c>
       <c r="J137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -4854,30 +4802,30 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>31200</v>
+        <v>150600</v>
       </c>
       <c r="G138">
-        <v>58080</v>
+        <v>46680</v>
       </c>
       <c r="H138">
         <v>12720</v>
       </c>
       <c r="I138">
-        <v>4697424</v>
+        <v>22604004</v>
       </c>
       <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4886,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>30600</v>
+        <v>156600</v>
       </c>
       <c r="G139">
-        <v>58680</v>
+        <v>46680</v>
       </c>
       <c r="H139">
         <v>12720</v>
       </c>
       <c r="I139">
-        <v>4607604</v>
+        <v>23504004</v>
       </c>
       <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4918,30 +4866,30 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>36600</v>
+        <v>162600</v>
       </c>
       <c r="G140">
-        <v>58680</v>
+        <v>46680</v>
       </c>
       <c r="H140">
         <v>12720</v>
       </c>
       <c r="I140">
-        <v>5507604</v>
+        <v>24404004</v>
       </c>
       <c r="J140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4950,30 +4898,30 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>36000</v>
+        <v>168600</v>
       </c>
       <c r="G141">
-        <v>59280</v>
+        <v>46680</v>
       </c>
       <c r="H141">
         <v>12720</v>
       </c>
       <c r="I141">
-        <v>5417784</v>
+        <v>25304004</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4982,30 +4930,30 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>35400</v>
+        <v>174600</v>
       </c>
       <c r="G142">
-        <v>59880</v>
+        <v>46680</v>
       </c>
       <c r="H142">
         <v>12720</v>
       </c>
       <c r="I142">
-        <v>5327964</v>
+        <v>26204004</v>
       </c>
       <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5014,22 +4962,22 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>34800</v>
+        <v>180600</v>
       </c>
       <c r="G143">
-        <v>60480</v>
+        <v>46680</v>
       </c>
       <c r="H143">
         <v>12720</v>
       </c>
       <c r="I143">
-        <v>5238144</v>
+        <v>27104004</v>
       </c>
       <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5046,30 +4994,30 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>34200</v>
+        <v>180000</v>
       </c>
       <c r="G144">
-        <v>61080</v>
+        <v>47280</v>
       </c>
       <c r="H144">
         <v>12720</v>
       </c>
       <c r="I144">
-        <v>5148324</v>
+        <v>27014184</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -5078,22 +5026,22 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>33600</v>
+        <v>186000</v>
       </c>
       <c r="G145">
-        <v>61680</v>
+        <v>47280</v>
       </c>
       <c r="H145">
         <v>12720</v>
       </c>
       <c r="I145">
-        <v>5058504</v>
+        <v>27914184</v>
       </c>
       <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5101,39 +5049,39 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>33000</v>
+        <v>186000</v>
       </c>
       <c r="G146">
-        <v>62280</v>
+        <v>47280</v>
       </c>
       <c r="H146">
         <v>12720</v>
       </c>
       <c r="I146">
-        <v>4968684</v>
+        <v>27914184</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -5142,30 +5090,30 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>32400</v>
+        <v>192000</v>
       </c>
       <c r="G147">
-        <v>62880</v>
+        <v>47280</v>
       </c>
       <c r="H147">
         <v>12720</v>
       </c>
       <c r="I147">
-        <v>4878864</v>
+        <v>28814184</v>
       </c>
       <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -5174,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>31800</v>
+        <v>198000</v>
       </c>
       <c r="G148">
-        <v>63480</v>
+        <v>47280</v>
       </c>
       <c r="H148">
         <v>12720</v>
       </c>
       <c r="I148">
-        <v>4789044</v>
+        <v>29714184</v>
       </c>
       <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5206,22 +5154,22 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>31200</v>
+        <v>197400</v>
       </c>
       <c r="G149">
-        <v>64080</v>
+        <v>47880</v>
       </c>
       <c r="H149">
         <v>12720</v>
       </c>
       <c r="I149">
-        <v>4699224</v>
+        <v>29624364</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5238,22 +5186,22 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>30600</v>
+        <v>196800</v>
       </c>
       <c r="G150">
-        <v>64680</v>
+        <v>48480</v>
       </c>
       <c r="H150">
         <v>12720</v>
       </c>
       <c r="I150">
-        <v>4609404</v>
+        <v>29534544</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5270,22 +5218,22 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>30000</v>
+        <v>196200</v>
       </c>
       <c r="G151">
-        <v>65280</v>
+        <v>49080</v>
       </c>
       <c r="H151">
         <v>12720</v>
       </c>
       <c r="I151">
-        <v>4519584</v>
+        <v>29444724</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5302,22 +5250,22 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>29400</v>
+        <v>195600</v>
       </c>
       <c r="G152">
-        <v>65880</v>
+        <v>49680</v>
       </c>
       <c r="H152">
         <v>12720</v>
       </c>
       <c r="I152">
-        <v>4429764</v>
+        <v>29354904</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5334,22 +5282,22 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>28800</v>
+        <v>195000</v>
       </c>
       <c r="G153">
-        <v>66480</v>
+        <v>50280</v>
       </c>
       <c r="H153">
         <v>12720</v>
       </c>
       <c r="I153">
-        <v>4339944</v>
+        <v>29265084</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5366,22 +5314,22 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>28200</v>
+        <v>194400</v>
       </c>
       <c r="G154">
-        <v>67080</v>
+        <v>50880</v>
       </c>
       <c r="H154">
         <v>12720</v>
       </c>
       <c r="I154">
-        <v>4250124</v>
+        <v>29175264</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5398,22 +5346,22 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>27600</v>
+        <v>193800</v>
       </c>
       <c r="G155">
-        <v>67680</v>
+        <v>51480</v>
       </c>
       <c r="H155">
         <v>12720</v>
       </c>
       <c r="I155">
-        <v>4160304</v>
+        <v>29085444</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5430,22 +5378,22 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>27000</v>
+        <v>193200</v>
       </c>
       <c r="G156">
-        <v>68280</v>
+        <v>52080</v>
       </c>
       <c r="H156">
         <v>12720</v>
       </c>
       <c r="I156">
-        <v>4070484</v>
+        <v>28995624</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5462,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>26400</v>
+        <v>192600</v>
       </c>
       <c r="G157">
-        <v>68880</v>
+        <v>52680</v>
       </c>
       <c r="H157">
         <v>12720</v>
       </c>
       <c r="I157">
-        <v>3980664</v>
+        <v>28905804</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5494,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>25800</v>
+        <v>192000</v>
       </c>
       <c r="G158">
-        <v>69480</v>
+        <v>53280</v>
       </c>
       <c r="H158">
         <v>12720</v>
       </c>
       <c r="I158">
-        <v>3890844</v>
+        <v>28815984</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5526,22 +5474,22 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>25200</v>
+        <v>191400</v>
       </c>
       <c r="G159">
-        <v>70080</v>
+        <v>53880</v>
       </c>
       <c r="H159">
         <v>12720</v>
       </c>
       <c r="I159">
-        <v>3801024</v>
+        <v>28726164</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5558,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>24600</v>
+        <v>190800</v>
       </c>
       <c r="G160">
-        <v>70680</v>
+        <v>54480</v>
       </c>
       <c r="H160">
         <v>12720</v>
       </c>
       <c r="I160">
-        <v>3711204</v>
+        <v>28636344</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5590,22 +5538,22 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>24000</v>
+        <v>190200</v>
       </c>
       <c r="G161">
-        <v>71280</v>
+        <v>55080</v>
       </c>
       <c r="H161">
         <v>12720</v>
       </c>
       <c r="I161">
-        <v>3621384</v>
+        <v>28546524</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5622,22 +5570,22 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>23400</v>
+        <v>189600</v>
       </c>
       <c r="G162">
-        <v>71880</v>
+        <v>55680</v>
       </c>
       <c r="H162">
         <v>12720</v>
       </c>
       <c r="I162">
-        <v>3531564</v>
+        <v>28456704</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5654,22 +5602,22 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>22800</v>
+        <v>189000</v>
       </c>
       <c r="G163">
-        <v>72480</v>
+        <v>56280</v>
       </c>
       <c r="H163">
         <v>12720</v>
       </c>
       <c r="I163">
-        <v>3441744</v>
+        <v>28366884</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5686,22 +5634,22 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>22200</v>
+        <v>188400</v>
       </c>
       <c r="G164">
-        <v>73080</v>
+        <v>56880</v>
       </c>
       <c r="H164">
         <v>12720</v>
       </c>
       <c r="I164">
-        <v>3351924</v>
+        <v>28277064</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5718,30 +5666,30 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>21600</v>
+        <v>187800</v>
       </c>
       <c r="G165">
-        <v>73680</v>
+        <v>57480</v>
       </c>
       <c r="H165">
         <v>12720</v>
       </c>
       <c r="I165">
-        <v>3262104</v>
+        <v>28187244</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5750,30 +5698,30 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>21000</v>
+        <v>193800</v>
       </c>
       <c r="G166">
-        <v>74280</v>
+        <v>57480</v>
       </c>
       <c r="H166">
         <v>12720</v>
       </c>
       <c r="I166">
-        <v>3172284</v>
+        <v>29087244</v>
       </c>
       <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -5782,30 +5730,30 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>20400</v>
+        <v>199800</v>
       </c>
       <c r="G167">
-        <v>74880</v>
+        <v>57480</v>
       </c>
       <c r="H167">
         <v>12720</v>
       </c>
       <c r="I167">
-        <v>3082464</v>
+        <v>29987244</v>
       </c>
       <c r="J167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -5814,30 +5762,30 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>19800</v>
+        <v>205800</v>
       </c>
       <c r="G168">
-        <v>75480</v>
+        <v>57480</v>
       </c>
       <c r="H168">
         <v>12720</v>
       </c>
       <c r="I168">
-        <v>2992644</v>
+        <v>30887244</v>
       </c>
       <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -5846,30 +5794,30 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>19200</v>
+        <v>211800</v>
       </c>
       <c r="G169">
-        <v>76080</v>
+        <v>57480</v>
       </c>
       <c r="H169">
         <v>12720</v>
       </c>
       <c r="I169">
-        <v>2902824</v>
+        <v>31787244</v>
       </c>
       <c r="J169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5878,30 +5826,30 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>18600</v>
+        <v>217800</v>
       </c>
       <c r="G170">
-        <v>76680</v>
+        <v>57480</v>
       </c>
       <c r="H170">
         <v>12720</v>
       </c>
       <c r="I170">
-        <v>2813004</v>
+        <v>32687244</v>
       </c>
       <c r="J170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -5910,30 +5858,30 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>18000</v>
+        <v>223800</v>
       </c>
       <c r="G171">
-        <v>77280</v>
+        <v>57480</v>
       </c>
       <c r="H171">
         <v>12720</v>
       </c>
       <c r="I171">
-        <v>2723184</v>
+        <v>33587244</v>
       </c>
       <c r="J171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -5942,30 +5890,30 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>17400</v>
+        <v>229800</v>
       </c>
       <c r="G172">
-        <v>77880</v>
+        <v>57480</v>
       </c>
       <c r="H172">
         <v>12720</v>
       </c>
       <c r="I172">
-        <v>2633364</v>
+        <v>34487244</v>
       </c>
       <c r="J172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5974,30 +5922,30 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>16800</v>
+        <v>235800</v>
       </c>
       <c r="G173">
-        <v>78480</v>
+        <v>57480</v>
       </c>
       <c r="H173">
         <v>12720</v>
       </c>
       <c r="I173">
-        <v>2543544</v>
+        <v>35387244</v>
       </c>
       <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -6006,30 +5954,30 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>16200</v>
+        <v>241800</v>
       </c>
       <c r="G174">
-        <v>79080</v>
+        <v>57480</v>
       </c>
       <c r="H174">
         <v>12720</v>
       </c>
       <c r="I174">
-        <v>2453724</v>
+        <v>36287244</v>
       </c>
       <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6038,30 +5986,30 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>15600</v>
+        <v>247800</v>
       </c>
       <c r="G175">
-        <v>79680</v>
+        <v>57480</v>
       </c>
       <c r="H175">
         <v>12720</v>
       </c>
       <c r="I175">
-        <v>2363904</v>
+        <v>37187244</v>
       </c>
       <c r="J175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6070,22 +6018,22 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>15000</v>
+        <v>253800</v>
       </c>
       <c r="G176">
-        <v>80280</v>
+        <v>57480</v>
       </c>
       <c r="H176">
         <v>12720</v>
       </c>
       <c r="I176">
-        <v>2274084</v>
+        <v>38087244</v>
       </c>
       <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6102,22 +6050,22 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>21000</v>
+        <v>259800</v>
       </c>
       <c r="G177">
-        <v>80280</v>
+        <v>57480</v>
       </c>
       <c r="H177">
         <v>12720</v>
       </c>
       <c r="I177">
-        <v>3174084</v>
+        <v>38987244</v>
       </c>
       <c r="J177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6134,22 +6082,22 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>27000</v>
+        <v>265800</v>
       </c>
       <c r="G178">
-        <v>80280</v>
+        <v>57480</v>
       </c>
       <c r="H178">
         <v>12720</v>
       </c>
       <c r="I178">
-        <v>4074084</v>
+        <v>39887244</v>
       </c>
       <c r="J178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6166,22 +6114,22 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>33000</v>
+        <v>271800</v>
       </c>
       <c r="G179">
-        <v>80280</v>
+        <v>57480</v>
       </c>
       <c r="H179">
         <v>12720</v>
       </c>
       <c r="I179">
-        <v>4974084</v>
+        <v>40787244</v>
       </c>
       <c r="J179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6198,22 +6146,22 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>39000</v>
+        <v>277800</v>
       </c>
       <c r="G180">
-        <v>80280</v>
+        <v>57480</v>
       </c>
       <c r="H180">
         <v>12720</v>
       </c>
       <c r="I180">
-        <v>5874084</v>
+        <v>41687244</v>
       </c>
       <c r="J180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6230,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>38400</v>
+        <v>277200</v>
       </c>
       <c r="G181">
-        <v>80880</v>
+        <v>58080</v>
       </c>
       <c r="H181">
         <v>12720</v>
       </c>
       <c r="I181">
-        <v>5784264</v>
+        <v>41597424</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6262,22 +6210,22 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>37800</v>
+        <v>276600</v>
       </c>
       <c r="G182">
-        <v>81480</v>
+        <v>58680</v>
       </c>
       <c r="H182">
         <v>12720</v>
       </c>
       <c r="I182">
-        <v>5694444</v>
+        <v>41507604</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6294,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>37200</v>
+        <v>276000</v>
       </c>
       <c r="G183">
-        <v>82080</v>
+        <v>59280</v>
       </c>
       <c r="H183">
         <v>12720</v>
       </c>
       <c r="I183">
-        <v>5604624</v>
+        <v>41417784</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6326,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>36600</v>
+        <v>275400</v>
       </c>
       <c r="G184">
-        <v>82680</v>
+        <v>59880</v>
       </c>
       <c r="H184">
         <v>12720</v>
       </c>
       <c r="I184">
-        <v>5514804</v>
+        <v>41327964</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6358,22 +6306,22 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>36000</v>
+        <v>274800</v>
       </c>
       <c r="G185">
-        <v>83280</v>
+        <v>60480</v>
       </c>
       <c r="H185">
         <v>12720</v>
       </c>
       <c r="I185">
-        <v>5424984</v>
+        <v>41238144</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6390,22 +6338,22 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>35400</v>
+        <v>274200</v>
       </c>
       <c r="G186">
-        <v>83880</v>
+        <v>61080</v>
       </c>
       <c r="H186">
         <v>12720</v>
       </c>
       <c r="I186">
-        <v>5335164</v>
+        <v>41148324</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6422,22 +6370,22 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>34800</v>
+        <v>273600</v>
       </c>
       <c r="G187">
-        <v>84480</v>
+        <v>61680</v>
       </c>
       <c r="H187">
         <v>12720</v>
       </c>
       <c r="I187">
-        <v>5245344</v>
+        <v>41058504</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6454,30 +6402,30 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>40800</v>
+        <v>279600</v>
       </c>
       <c r="G188">
-        <v>84480</v>
+        <v>61680</v>
       </c>
       <c r="H188">
         <v>12720</v>
       </c>
       <c r="I188">
-        <v>6145344</v>
+        <v>41958504</v>
       </c>
       <c r="J188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6486,22 +6434,22 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>40200</v>
+        <v>285600</v>
       </c>
       <c r="G189">
-        <v>85080</v>
+        <v>61680</v>
       </c>
       <c r="H189">
         <v>12720</v>
       </c>
       <c r="I189">
-        <v>6055524</v>
+        <v>42858504</v>
       </c>
       <c r="J189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6518,22 +6466,22 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>46200</v>
+        <v>291600</v>
       </c>
       <c r="G190">
-        <v>85080</v>
+        <v>61680</v>
       </c>
       <c r="H190">
         <v>12720</v>
       </c>
       <c r="I190">
-        <v>6955524</v>
+        <v>43758504</v>
       </c>
       <c r="J190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6550,30 +6498,30 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>45600</v>
+        <v>291000</v>
       </c>
       <c r="G191">
-        <v>85680</v>
+        <v>62280</v>
       </c>
       <c r="H191">
         <v>12720</v>
       </c>
       <c r="I191">
-        <v>6865704</v>
+        <v>43668684</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -6582,22 +6530,22 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>45000</v>
+        <v>297000</v>
       </c>
       <c r="G192">
-        <v>86280</v>
+        <v>62280</v>
       </c>
       <c r="H192">
         <v>12720</v>
       </c>
       <c r="I192">
-        <v>6775884</v>
+        <v>44568684</v>
       </c>
       <c r="J192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6614,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>44400</v>
+        <v>296400</v>
       </c>
       <c r="G193">
-        <v>86880</v>
+        <v>62880</v>
       </c>
       <c r="H193">
         <v>12720</v>
       </c>
       <c r="I193">
-        <v>6686064</v>
+        <v>44478864</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6646,22 +6594,22 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>43800</v>
+        <v>295800</v>
       </c>
       <c r="G194">
-        <v>87480</v>
+        <v>63480</v>
       </c>
       <c r="H194">
         <v>12720</v>
       </c>
       <c r="I194">
-        <v>6596244</v>
+        <v>44389044</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6678,22 +6626,22 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>43200</v>
+        <v>295200</v>
       </c>
       <c r="G195">
-        <v>88080</v>
+        <v>64080</v>
       </c>
       <c r="H195">
         <v>12720</v>
       </c>
       <c r="I195">
-        <v>6506424</v>
+        <v>44299224</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6710,22 +6658,22 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>42600</v>
+        <v>294600</v>
       </c>
       <c r="G196">
-        <v>88680</v>
+        <v>64680</v>
       </c>
       <c r="H196">
         <v>12720</v>
       </c>
       <c r="I196">
-        <v>6416604</v>
+        <v>44209404</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6742,22 +6690,22 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>42000</v>
+        <v>294000</v>
       </c>
       <c r="G197">
-        <v>89280</v>
+        <v>65280</v>
       </c>
       <c r="H197">
         <v>12720</v>
       </c>
       <c r="I197">
-        <v>6326784</v>
+        <v>44119584</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6774,22 +6722,22 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>41400</v>
+        <v>293400</v>
       </c>
       <c r="G198">
-        <v>89880</v>
+        <v>65880</v>
       </c>
       <c r="H198">
         <v>12720</v>
       </c>
       <c r="I198">
-        <v>6236964</v>
+        <v>44029764</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6806,22 +6754,22 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>40800</v>
+        <v>292800</v>
       </c>
       <c r="G199">
-        <v>90480</v>
+        <v>66480</v>
       </c>
       <c r="H199">
         <v>12720</v>
       </c>
       <c r="I199">
-        <v>6147144</v>
+        <v>43939944</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6838,22 +6786,22 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>40200</v>
+        <v>292200</v>
       </c>
       <c r="G200">
-        <v>91080</v>
+        <v>67080</v>
       </c>
       <c r="H200">
         <v>12720</v>
       </c>
       <c r="I200">
-        <v>6057324</v>
+        <v>43850124</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6870,22 +6818,22 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>39600</v>
+        <v>291600</v>
       </c>
       <c r="G201">
-        <v>91680</v>
+        <v>67680</v>
       </c>
       <c r="H201">
         <v>12720</v>
       </c>
       <c r="I201">
-        <v>5967504</v>
+        <v>43760304</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6902,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>39000</v>
+        <v>291000</v>
       </c>
       <c r="G202">
-        <v>92280</v>
+        <v>68280</v>
       </c>
       <c r="H202">
         <v>12720</v>
       </c>
       <c r="I202">
-        <v>5877684</v>
+        <v>43670484</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6934,22 +6882,22 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>38400</v>
+        <v>290400</v>
       </c>
       <c r="G203">
-        <v>92880</v>
+        <v>68880</v>
       </c>
       <c r="H203">
         <v>12720</v>
       </c>
       <c r="I203">
-        <v>5787864</v>
+        <v>43580664</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6966,22 +6914,22 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>37800</v>
+        <v>289800</v>
       </c>
       <c r="G204">
-        <v>93480</v>
+        <v>69480</v>
       </c>
       <c r="H204">
         <v>12720</v>
       </c>
       <c r="I204">
-        <v>5698044</v>
+        <v>43490844</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6998,22 +6946,22 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>37200</v>
+        <v>289200</v>
       </c>
       <c r="G205">
-        <v>94080</v>
+        <v>70080</v>
       </c>
       <c r="H205">
         <v>12720</v>
       </c>
       <c r="I205">
-        <v>5608224</v>
+        <v>43401024</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7030,22 +6978,22 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>36600</v>
+        <v>288600</v>
       </c>
       <c r="G206">
-        <v>94680</v>
+        <v>70680</v>
       </c>
       <c r="H206">
         <v>12720</v>
       </c>
       <c r="I206">
-        <v>5518404</v>
+        <v>43311204</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7062,22 +7010,22 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>36000</v>
+        <v>288000</v>
       </c>
       <c r="G207">
-        <v>95280</v>
+        <v>71280</v>
       </c>
       <c r="H207">
         <v>12720</v>
       </c>
       <c r="I207">
-        <v>5428584</v>
+        <v>43221384</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7094,22 +7042,22 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>35400</v>
+        <v>287400</v>
       </c>
       <c r="G208">
-        <v>95880</v>
+        <v>71880</v>
       </c>
       <c r="H208">
         <v>12720</v>
       </c>
       <c r="I208">
-        <v>5338764</v>
+        <v>43131564</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7126,22 +7074,22 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>34800</v>
+        <v>286800</v>
       </c>
       <c r="G209">
-        <v>96480</v>
+        <v>72480</v>
       </c>
       <c r="H209">
         <v>12720</v>
       </c>
       <c r="I209">
-        <v>5248944</v>
+        <v>43041744</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7158,22 +7106,22 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>34200</v>
+        <v>286200</v>
       </c>
       <c r="G210">
-        <v>97080</v>
+        <v>73080</v>
       </c>
       <c r="H210">
         <v>12720</v>
       </c>
       <c r="I210">
-        <v>5159124</v>
+        <v>42951924</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7190,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>33600</v>
+        <v>285600</v>
       </c>
       <c r="G211">
-        <v>97680</v>
+        <v>73680</v>
       </c>
       <c r="H211">
         <v>12720</v>
       </c>
       <c r="I211">
-        <v>5069304</v>
+        <v>42862104</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7222,22 +7170,22 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>33000</v>
+        <v>285000</v>
       </c>
       <c r="G212">
-        <v>98280</v>
+        <v>74280</v>
       </c>
       <c r="H212">
         <v>12720</v>
       </c>
       <c r="I212">
-        <v>4979484</v>
+        <v>42772284</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7254,22 +7202,22 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>32400</v>
+        <v>284400</v>
       </c>
       <c r="G213">
-        <v>98880</v>
+        <v>74880</v>
       </c>
       <c r="H213">
         <v>12720</v>
       </c>
       <c r="I213">
-        <v>4889664</v>
+        <v>42682464</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7286,22 +7234,22 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>31800</v>
+        <v>283800</v>
       </c>
       <c r="G214">
-        <v>99480</v>
+        <v>75480</v>
       </c>
       <c r="H214">
         <v>12720</v>
       </c>
       <c r="I214">
-        <v>4799844</v>
+        <v>42592644</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7318,22 +7266,22 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>31200</v>
+        <v>283200</v>
       </c>
       <c r="G215">
-        <v>100080</v>
+        <v>76080</v>
       </c>
       <c r="H215">
         <v>12720</v>
       </c>
       <c r="I215">
-        <v>4710024</v>
+        <v>42502824</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7350,22 +7298,22 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>30600</v>
+        <v>282600</v>
       </c>
       <c r="G216">
-        <v>100680</v>
+        <v>76680</v>
       </c>
       <c r="H216">
         <v>12720</v>
       </c>
       <c r="I216">
-        <v>4620204</v>
+        <v>42413004</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7382,22 +7330,22 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>30000</v>
+        <v>282000</v>
       </c>
       <c r="G217">
-        <v>101280</v>
+        <v>77280</v>
       </c>
       <c r="H217">
         <v>12720</v>
       </c>
       <c r="I217">
-        <v>4530384</v>
+        <v>42323184</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7414,22 +7362,22 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>29400</v>
+        <v>281400</v>
       </c>
       <c r="G218">
-        <v>101880</v>
+        <v>77880</v>
       </c>
       <c r="H218">
         <v>12720</v>
       </c>
       <c r="I218">
-        <v>4440564</v>
+        <v>42233364</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7446,22 +7394,22 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>28800</v>
+        <v>280800</v>
       </c>
       <c r="G219">
-        <v>102480</v>
+        <v>78480</v>
       </c>
       <c r="H219">
         <v>12720</v>
       </c>
       <c r="I219">
-        <v>4350744</v>
+        <v>42143544</v>
       </c>
       <c r="J219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7478,22 +7426,22 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>28200</v>
+        <v>280200</v>
       </c>
       <c r="G220">
-        <v>103080</v>
+        <v>79080</v>
       </c>
       <c r="H220">
         <v>12720</v>
       </c>
       <c r="I220">
-        <v>4260924</v>
+        <v>42053724</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7510,22 +7458,22 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>27600</v>
+        <v>279600</v>
       </c>
       <c r="G221">
-        <v>103680</v>
+        <v>79680</v>
       </c>
       <c r="H221">
         <v>12720</v>
       </c>
       <c r="I221">
-        <v>4171104</v>
+        <v>41963904</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7542,22 +7490,22 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>27000</v>
+        <v>279000</v>
       </c>
       <c r="G222">
-        <v>104280</v>
+        <v>80280</v>
       </c>
       <c r="H222">
         <v>12720</v>
       </c>
       <c r="I222">
-        <v>4081284</v>
+        <v>41874084</v>
       </c>
       <c r="J222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7574,22 +7522,22 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>26400</v>
+        <v>278400</v>
       </c>
       <c r="G223">
-        <v>104880</v>
+        <v>80880</v>
       </c>
       <c r="H223">
         <v>12720</v>
       </c>
       <c r="I223">
-        <v>3991464</v>
+        <v>41784264</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7606,22 +7554,22 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>25800</v>
+        <v>277800</v>
       </c>
       <c r="G224">
-        <v>105480</v>
+        <v>81480</v>
       </c>
       <c r="H224">
         <v>12720</v>
       </c>
       <c r="I224">
-        <v>3901644</v>
+        <v>41694444</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7638,22 +7586,22 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>25200</v>
+        <v>277200</v>
       </c>
       <c r="G225">
-        <v>106080</v>
+        <v>82080</v>
       </c>
       <c r="H225">
         <v>12720</v>
       </c>
       <c r="I225">
-        <v>3811824</v>
+        <v>41604624</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7670,22 +7618,22 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>24600</v>
+        <v>276600</v>
       </c>
       <c r="G226">
-        <v>106680</v>
+        <v>82680</v>
       </c>
       <c r="H226">
         <v>12720</v>
       </c>
       <c r="I226">
-        <v>3722004</v>
+        <v>41514804</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7702,22 +7650,22 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>24000</v>
+        <v>276000</v>
       </c>
       <c r="G227">
-        <v>107280</v>
+        <v>83280</v>
       </c>
       <c r="H227">
         <v>12720</v>
       </c>
       <c r="I227">
-        <v>3632184</v>
+        <v>41424984</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7734,22 +7682,22 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>23400</v>
+        <v>275400</v>
       </c>
       <c r="G228">
-        <v>107880</v>
+        <v>83880</v>
       </c>
       <c r="H228">
         <v>12720</v>
       </c>
       <c r="I228">
-        <v>3542364</v>
+        <v>41335164</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7766,22 +7714,22 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>22800</v>
+        <v>274800</v>
       </c>
       <c r="G229">
-        <v>108480</v>
+        <v>84480</v>
       </c>
       <c r="H229">
         <v>12720</v>
       </c>
       <c r="I229">
-        <v>3452544</v>
+        <v>41245344</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7798,22 +7746,22 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>22200</v>
+        <v>274200</v>
       </c>
       <c r="G230">
-        <v>109080</v>
+        <v>85080</v>
       </c>
       <c r="H230">
         <v>12720</v>
       </c>
       <c r="I230">
-        <v>3362724</v>
+        <v>41155524</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7830,22 +7778,22 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>21600</v>
+        <v>273600</v>
       </c>
       <c r="G231">
-        <v>109680</v>
+        <v>85680</v>
       </c>
       <c r="H231">
         <v>12720</v>
       </c>
       <c r="I231">
-        <v>3272904</v>
+        <v>41065704</v>
       </c>
       <c r="J231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7862,30 +7810,30 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>21000</v>
+        <v>273000</v>
       </c>
       <c r="G232">
-        <v>110280</v>
+        <v>86280</v>
       </c>
       <c r="H232">
         <v>12720</v>
       </c>
       <c r="I232">
-        <v>3183084</v>
+        <v>40975884</v>
       </c>
       <c r="J232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -7894,22 +7842,22 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>20400</v>
+        <v>279000</v>
       </c>
       <c r="G233">
-        <v>110880</v>
+        <v>86280</v>
       </c>
       <c r="H233">
         <v>12720</v>
       </c>
       <c r="I233">
-        <v>3093264</v>
+        <v>41875884</v>
       </c>
       <c r="J233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7926,30 +7874,30 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>19800</v>
+        <v>278400</v>
       </c>
       <c r="G234">
-        <v>111480</v>
+        <v>86880</v>
       </c>
       <c r="H234">
         <v>12720</v>
       </c>
       <c r="I234">
-        <v>3003444</v>
+        <v>41786064</v>
       </c>
       <c r="J234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -7958,30 +7906,30 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>19200</v>
+        <v>284400</v>
       </c>
       <c r="G235">
-        <v>112080</v>
+        <v>86880</v>
       </c>
       <c r="H235">
         <v>12720</v>
       </c>
       <c r="I235">
-        <v>2913624</v>
+        <v>42686064</v>
       </c>
       <c r="J235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -7990,22 +7938,22 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>18600</v>
+        <v>290400</v>
       </c>
       <c r="G236">
-        <v>112680</v>
+        <v>86880</v>
       </c>
       <c r="H236">
         <v>12720</v>
       </c>
       <c r="I236">
-        <v>2823804</v>
+        <v>43586064</v>
       </c>
       <c r="J236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8022,22 +7970,22 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>18000</v>
+        <v>289800</v>
       </c>
       <c r="G237">
-        <v>113280</v>
+        <v>87480</v>
       </c>
       <c r="H237">
         <v>12720</v>
       </c>
       <c r="I237">
-        <v>2733984</v>
+        <v>43496244</v>
       </c>
       <c r="J237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8054,22 +8002,22 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>17400</v>
+        <v>289200</v>
       </c>
       <c r="G238">
-        <v>113880</v>
+        <v>88080</v>
       </c>
       <c r="H238">
         <v>12720</v>
       </c>
       <c r="I238">
-        <v>2644164</v>
+        <v>43406424</v>
       </c>
       <c r="J238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8086,22 +8034,22 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>16800</v>
+        <v>288600</v>
       </c>
       <c r="G239">
-        <v>114480</v>
+        <v>88680</v>
       </c>
       <c r="H239">
         <v>12720</v>
       </c>
       <c r="I239">
-        <v>2554344</v>
+        <v>43316604</v>
       </c>
       <c r="J239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8118,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>16200</v>
+        <v>288000</v>
       </c>
       <c r="G240">
-        <v>115080</v>
+        <v>89280</v>
       </c>
       <c r="H240">
         <v>12720</v>
       </c>
       <c r="I240">
-        <v>2464524</v>
+        <v>43226784</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8150,22 +8098,22 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>15600</v>
+        <v>287400</v>
       </c>
       <c r="G241">
-        <v>115680</v>
+        <v>89880</v>
       </c>
       <c r="H241">
         <v>12720</v>
       </c>
       <c r="I241">
-        <v>2374704</v>
+        <v>43136964</v>
       </c>
       <c r="J241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8182,22 +8130,22 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>15000</v>
+        <v>286800</v>
       </c>
       <c r="G242">
-        <v>116280</v>
+        <v>90480</v>
       </c>
       <c r="H242">
         <v>12720</v>
       </c>
       <c r="I242">
-        <v>2284884</v>
+        <v>43047144</v>
       </c>
       <c r="J242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8214,22 +8162,22 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>14400</v>
+        <v>286200</v>
       </c>
       <c r="G243">
-        <v>116880</v>
+        <v>91080</v>
       </c>
       <c r="H243">
         <v>12720</v>
       </c>
       <c r="I243">
-        <v>2195064</v>
+        <v>42957324</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8246,22 +8194,22 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>13800</v>
+        <v>285600</v>
       </c>
       <c r="G244">
-        <v>117480</v>
+        <v>91680</v>
       </c>
       <c r="H244">
         <v>12720</v>
       </c>
       <c r="I244">
-        <v>2105244</v>
+        <v>42867504</v>
       </c>
       <c r="J244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8278,22 +8226,22 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>13200</v>
+        <v>285000</v>
       </c>
       <c r="G245">
-        <v>118080</v>
+        <v>92280</v>
       </c>
       <c r="H245">
         <v>12720</v>
       </c>
       <c r="I245">
-        <v>2015424</v>
+        <v>42777684</v>
       </c>
       <c r="J245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8310,22 +8258,22 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>12600</v>
+        <v>284400</v>
       </c>
       <c r="G246">
-        <v>118680</v>
+        <v>92880</v>
       </c>
       <c r="H246">
         <v>12720</v>
       </c>
       <c r="I246">
-        <v>1925604</v>
+        <v>42687864</v>
       </c>
       <c r="J246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8342,22 +8290,22 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>12000</v>
+        <v>283800</v>
       </c>
       <c r="G247">
-        <v>119280</v>
+        <v>93480</v>
       </c>
       <c r="H247">
         <v>12720</v>
       </c>
       <c r="I247">
-        <v>1835784</v>
+        <v>42598044</v>
       </c>
       <c r="J247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8374,22 +8322,22 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>11400</v>
+        <v>283200</v>
       </c>
       <c r="G248">
-        <v>119880</v>
+        <v>94080</v>
       </c>
       <c r="H248">
         <v>12720</v>
       </c>
       <c r="I248">
-        <v>1745964</v>
+        <v>42508224</v>
       </c>
       <c r="J248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8406,22 +8354,22 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>17400</v>
+        <v>289200</v>
       </c>
       <c r="G249">
-        <v>119880</v>
+        <v>94080</v>
       </c>
       <c r="H249">
         <v>12720</v>
       </c>
       <c r="I249">
-        <v>2645964</v>
+        <v>43408224</v>
       </c>
       <c r="J249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8438,30 +8386,30 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>23400</v>
+        <v>295200</v>
       </c>
       <c r="G250">
-        <v>119880</v>
+        <v>94080</v>
       </c>
       <c r="H250">
         <v>12720</v>
       </c>
       <c r="I250">
-        <v>3545964</v>
+        <v>44308224</v>
       </c>
       <c r="J250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8470,30 +8418,30 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>22800</v>
+        <v>301200</v>
       </c>
       <c r="G251">
-        <v>120480</v>
+        <v>94080</v>
       </c>
       <c r="H251">
         <v>12720</v>
       </c>
       <c r="I251">
-        <v>3456144</v>
+        <v>45208224</v>
       </c>
       <c r="J251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8502,30 +8450,30 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>22200</v>
+        <v>307200</v>
       </c>
       <c r="G252">
-        <v>121080</v>
+        <v>94080</v>
       </c>
       <c r="H252">
         <v>12720</v>
       </c>
       <c r="I252">
-        <v>3366324</v>
+        <v>46108224</v>
       </c>
       <c r="J252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8534,30 +8482,30 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>21600</v>
+        <v>313200</v>
       </c>
       <c r="G253">
-        <v>121680</v>
+        <v>94080</v>
       </c>
       <c r="H253">
         <v>12720</v>
       </c>
       <c r="I253">
-        <v>3276504</v>
+        <v>47008224</v>
       </c>
       <c r="J253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8566,30 +8514,30 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>21000</v>
+        <v>319200</v>
       </c>
       <c r="G254">
-        <v>122280</v>
+        <v>94080</v>
       </c>
       <c r="H254">
         <v>12720</v>
       </c>
       <c r="I254">
-        <v>3186684</v>
+        <v>47908224</v>
       </c>
       <c r="J254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8598,30 +8546,30 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>20400</v>
+        <v>325200</v>
       </c>
       <c r="G255">
-        <v>122880</v>
+        <v>94080</v>
       </c>
       <c r="H255">
         <v>12720</v>
       </c>
       <c r="I255">
-        <v>3096864</v>
+        <v>48808224</v>
       </c>
       <c r="J255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8630,30 +8578,30 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>19800</v>
+        <v>331200</v>
       </c>
       <c r="G256">
-        <v>123480</v>
+        <v>94080</v>
       </c>
       <c r="H256">
         <v>12720</v>
       </c>
       <c r="I256">
-        <v>3007044</v>
+        <v>49708224</v>
       </c>
       <c r="J256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8662,30 +8610,30 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>19200</v>
+        <v>337200</v>
       </c>
       <c r="G257">
-        <v>124080</v>
+        <v>94080</v>
       </c>
       <c r="H257">
         <v>12720</v>
       </c>
       <c r="I257">
-        <v>2917224</v>
+        <v>50608224</v>
       </c>
       <c r="J257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8694,30 +8642,30 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>18600</v>
+        <v>343200</v>
       </c>
       <c r="G258">
-        <v>124680</v>
+        <v>94080</v>
       </c>
       <c r="H258">
         <v>12720</v>
       </c>
       <c r="I258">
-        <v>2827404</v>
+        <v>51508224</v>
       </c>
       <c r="J258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8726,22 +8674,22 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>18000</v>
+        <v>349200</v>
       </c>
       <c r="G259">
-        <v>125280</v>
+        <v>94080</v>
       </c>
       <c r="H259">
         <v>12720</v>
       </c>
       <c r="I259">
-        <v>2737584</v>
+        <v>52408224</v>
       </c>
       <c r="J259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8758,30 +8706,30 @@
         <v>0</v>
       </c>
       <c r="F260">
-        <v>17400</v>
+        <v>348600</v>
       </c>
       <c r="G260">
-        <v>125880</v>
+        <v>94680</v>
       </c>
       <c r="H260">
         <v>12720</v>
       </c>
       <c r="I260">
-        <v>2647764</v>
+        <v>52318404</v>
       </c>
       <c r="J260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8790,22 +8738,22 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>16800</v>
+        <v>354600</v>
       </c>
       <c r="G261">
-        <v>126480</v>
+        <v>94680</v>
       </c>
       <c r="H261">
         <v>12720</v>
       </c>
       <c r="I261">
-        <v>2557944</v>
+        <v>53218404</v>
       </c>
       <c r="J261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8822,22 +8770,22 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>16200</v>
+        <v>354000</v>
       </c>
       <c r="G262">
-        <v>127080</v>
+        <v>95280</v>
       </c>
       <c r="H262">
         <v>12720</v>
       </c>
       <c r="I262">
-        <v>2468124</v>
+        <v>53128584</v>
       </c>
       <c r="J262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8854,22 +8802,22 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>15600</v>
+        <v>353400</v>
       </c>
       <c r="G263">
-        <v>127680</v>
+        <v>95880</v>
       </c>
       <c r="H263">
         <v>12720</v>
       </c>
       <c r="I263">
-        <v>2378304</v>
+        <v>53038764</v>
       </c>
       <c r="J263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8886,22 +8834,22 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>15000</v>
+        <v>352800</v>
       </c>
       <c r="G264">
-        <v>128280</v>
+        <v>96480</v>
       </c>
       <c r="H264">
         <v>12720</v>
       </c>
       <c r="I264">
-        <v>2288484</v>
+        <v>52948944</v>
       </c>
       <c r="J264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8918,22 +8866,22 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>14400</v>
+        <v>352200</v>
       </c>
       <c r="G265">
-        <v>128880</v>
+        <v>97080</v>
       </c>
       <c r="H265">
         <v>12720</v>
       </c>
       <c r="I265">
-        <v>2198664</v>
+        <v>52859124</v>
       </c>
       <c r="J265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8950,22 +8898,22 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>13800</v>
+        <v>351600</v>
       </c>
       <c r="G266">
-        <v>129480</v>
+        <v>97680</v>
       </c>
       <c r="H266">
         <v>12720</v>
       </c>
       <c r="I266">
-        <v>2108844</v>
+        <v>52769304</v>
       </c>
       <c r="J266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8982,22 +8930,22 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>13200</v>
+        <v>351000</v>
       </c>
       <c r="G267">
-        <v>130080</v>
+        <v>98280</v>
       </c>
       <c r="H267">
         <v>12720</v>
       </c>
       <c r="I267">
-        <v>2019024</v>
+        <v>52679484</v>
       </c>
       <c r="J267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9014,22 +8962,22 @@
         <v>0</v>
       </c>
       <c r="F268">
-        <v>12600</v>
+        <v>350400</v>
       </c>
       <c r="G268">
-        <v>130680</v>
+        <v>98880</v>
       </c>
       <c r="H268">
         <v>12720</v>
       </c>
       <c r="I268">
-        <v>1929204</v>
+        <v>52589664</v>
       </c>
       <c r="J268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9046,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>12000</v>
+        <v>349800</v>
       </c>
       <c r="G269">
-        <v>131280</v>
+        <v>99480</v>
       </c>
       <c r="H269">
         <v>12720</v>
       </c>
       <c r="I269">
-        <v>1839384</v>
+        <v>52499844</v>
       </c>
       <c r="J269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9078,22 +9026,22 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>11400</v>
+        <v>349200</v>
       </c>
       <c r="G270">
-        <v>131880</v>
+        <v>100080</v>
       </c>
       <c r="H270">
         <v>12720</v>
       </c>
       <c r="I270">
-        <v>1749564</v>
+        <v>52410024</v>
       </c>
       <c r="J270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9110,22 +9058,22 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>10800</v>
+        <v>348600</v>
       </c>
       <c r="G271">
-        <v>132480</v>
+        <v>100680</v>
       </c>
       <c r="H271">
         <v>12720</v>
       </c>
       <c r="I271">
-        <v>1659744</v>
+        <v>52320204</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9142,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>10200</v>
+        <v>348000</v>
       </c>
       <c r="G272">
-        <v>133080</v>
+        <v>101280</v>
       </c>
       <c r="H272">
         <v>12720</v>
       </c>
       <c r="I272">
-        <v>1569924</v>
+        <v>52230384</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9174,22 +9122,22 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>9600</v>
+        <v>347400</v>
       </c>
       <c r="G273">
-        <v>133680</v>
+        <v>101880</v>
       </c>
       <c r="H273">
         <v>12720</v>
       </c>
       <c r="I273">
-        <v>1480104</v>
+        <v>52140564</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9206,22 +9154,22 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>9000</v>
+        <v>346800</v>
       </c>
       <c r="G274">
-        <v>134280</v>
+        <v>102480</v>
       </c>
       <c r="H274">
         <v>12720</v>
       </c>
       <c r="I274">
-        <v>1390284</v>
+        <v>52050744</v>
       </c>
       <c r="J274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9238,22 +9186,22 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>8400</v>
+        <v>346200</v>
       </c>
       <c r="G275">
-        <v>134880</v>
+        <v>103080</v>
       </c>
       <c r="H275">
         <v>12720</v>
       </c>
       <c r="I275">
-        <v>1300464</v>
+        <v>51960924</v>
       </c>
       <c r="J275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9270,30 +9218,30 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>7800</v>
+        <v>345600</v>
       </c>
       <c r="G276">
-        <v>135480</v>
+        <v>103680</v>
       </c>
       <c r="H276">
         <v>12720</v>
       </c>
       <c r="I276">
-        <v>1210644</v>
+        <v>51871104</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9302,22 +9250,22 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>7200</v>
+        <v>351600</v>
       </c>
       <c r="G277">
-        <v>136080</v>
+        <v>103680</v>
       </c>
       <c r="H277">
         <v>12720</v>
       </c>
       <c r="I277">
-        <v>1120824</v>
+        <v>52771104</v>
       </c>
       <c r="J277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9334,22 +9282,22 @@
         <v>0</v>
       </c>
       <c r="F278">
-        <v>6600</v>
+        <v>351000</v>
       </c>
       <c r="G278">
-        <v>136680</v>
+        <v>104280</v>
       </c>
       <c r="H278">
         <v>12720</v>
       </c>
       <c r="I278">
-        <v>1031004</v>
+        <v>52681284</v>
       </c>
       <c r="J278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9366,30 +9314,30 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>12600</v>
+        <v>357000</v>
       </c>
       <c r="G279">
-        <v>136680</v>
+        <v>104280</v>
       </c>
       <c r="H279">
         <v>12720</v>
       </c>
       <c r="I279">
-        <v>1931004</v>
+        <v>53581284</v>
       </c>
       <c r="J279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9398,30 +9346,30 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>12000</v>
+        <v>363000</v>
       </c>
       <c r="G280">
-        <v>137280</v>
+        <v>104280</v>
       </c>
       <c r="H280">
         <v>12720</v>
       </c>
       <c r="I280">
-        <v>1841184</v>
+        <v>54481284</v>
       </c>
       <c r="J280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9430,30 +9378,30 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>11400</v>
+        <v>369000</v>
       </c>
       <c r="G281">
-        <v>137880</v>
+        <v>104280</v>
       </c>
       <c r="H281">
         <v>12720</v>
       </c>
       <c r="I281">
-        <v>1751364</v>
+        <v>55381284</v>
       </c>
       <c r="J281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9462,30 +9410,30 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>10800</v>
+        <v>375000</v>
       </c>
       <c r="G282">
-        <v>138480</v>
+        <v>104280</v>
       </c>
       <c r="H282">
         <v>12720</v>
       </c>
       <c r="I282">
-        <v>1661544</v>
+        <v>56281284</v>
       </c>
       <c r="J282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9494,30 +9442,30 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>10200</v>
+        <v>381000</v>
       </c>
       <c r="G283">
-        <v>139080</v>
+        <v>104280</v>
       </c>
       <c r="H283">
         <v>12720</v>
       </c>
       <c r="I283">
-        <v>1571724</v>
+        <v>57181284</v>
       </c>
       <c r="J283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9526,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>9600</v>
+        <v>387000</v>
       </c>
       <c r="G284">
-        <v>139680</v>
+        <v>104280</v>
       </c>
       <c r="H284">
         <v>12720</v>
       </c>
       <c r="I284">
-        <v>1481904</v>
+        <v>58081284</v>
       </c>
       <c r="J284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9558,30 +9506,30 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>9000</v>
+        <v>386400</v>
       </c>
       <c r="G285">
-        <v>140280</v>
+        <v>104880</v>
       </c>
       <c r="H285">
         <v>12720</v>
       </c>
       <c r="I285">
-        <v>1392084</v>
+        <v>57991464</v>
       </c>
       <c r="J285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9590,30 +9538,30 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>8400</v>
+        <v>392400</v>
       </c>
       <c r="G286">
-        <v>140880</v>
+        <v>104880</v>
       </c>
       <c r="H286">
         <v>12720</v>
       </c>
       <c r="I286">
-        <v>1302264</v>
+        <v>58891464</v>
       </c>
       <c r="J286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9622,30 +9570,30 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>7800</v>
+        <v>398400</v>
       </c>
       <c r="G287">
-        <v>141480</v>
+        <v>104880</v>
       </c>
       <c r="H287">
         <v>12720</v>
       </c>
       <c r="I287">
-        <v>1212444</v>
+        <v>59791464</v>
       </c>
       <c r="J287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9654,30 +9602,30 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>7200</v>
+        <v>404400</v>
       </c>
       <c r="G288">
-        <v>142080</v>
+        <v>104880</v>
       </c>
       <c r="H288">
         <v>12720</v>
       </c>
       <c r="I288">
-        <v>1122624</v>
+        <v>60691464</v>
       </c>
       <c r="J288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9686,30 +9634,30 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>6600</v>
+        <v>410400</v>
       </c>
       <c r="G289">
-        <v>142680</v>
+        <v>104880</v>
       </c>
       <c r="H289">
         <v>12720</v>
       </c>
       <c r="I289">
-        <v>1032804</v>
+        <v>61591464</v>
       </c>
       <c r="J289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9718,22 +9666,22 @@
         <v>0</v>
       </c>
       <c r="F290">
-        <v>6000</v>
+        <v>416400</v>
       </c>
       <c r="G290">
-        <v>143280</v>
+        <v>104880</v>
       </c>
       <c r="H290">
         <v>12720</v>
       </c>
       <c r="I290">
-        <v>942984</v>
+        <v>62491464</v>
       </c>
       <c r="J290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9750,22 +9698,22 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>12000</v>
+        <v>422400</v>
       </c>
       <c r="G291">
-        <v>143280</v>
+        <v>104880</v>
       </c>
       <c r="H291">
         <v>12720</v>
       </c>
       <c r="I291">
-        <v>1842984</v>
+        <v>63391464</v>
       </c>
       <c r="J291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9773,31 +9721,31 @@
         <v>0</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292">
-        <v>11400</v>
+        <v>422400</v>
       </c>
       <c r="G292">
-        <v>143880</v>
+        <v>104880</v>
       </c>
       <c r="H292">
         <v>12720</v>
       </c>
       <c r="I292">
-        <v>1753164</v>
+        <v>63391464</v>
       </c>
       <c r="J292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9805,31 +9753,31 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293">
-        <v>10800</v>
+        <v>422400</v>
       </c>
       <c r="G293">
-        <v>144480</v>
+        <v>104880</v>
       </c>
       <c r="H293">
         <v>12720</v>
       </c>
       <c r="I293">
-        <v>1663344</v>
+        <v>63391464</v>
       </c>
       <c r="J293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9837,31 +9785,31 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294">
-        <v>10200</v>
+        <v>422400</v>
       </c>
       <c r="G294">
-        <v>145080</v>
+        <v>104880</v>
       </c>
       <c r="H294">
         <v>12720</v>
       </c>
       <c r="I294">
-        <v>1573524</v>
+        <v>63391464</v>
       </c>
       <c r="J294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9869,31 +9817,31 @@
         <v>0</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295">
-        <v>9600</v>
+        <v>422400</v>
       </c>
       <c r="G295">
-        <v>145680</v>
+        <v>104880</v>
       </c>
       <c r="H295">
         <v>12720</v>
       </c>
       <c r="I295">
-        <v>1483704</v>
+        <v>63391464</v>
       </c>
       <c r="J295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9901,31 +9849,31 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296">
-        <v>9000</v>
+        <v>422400</v>
       </c>
       <c r="G296">
-        <v>146280</v>
+        <v>104880</v>
       </c>
       <c r="H296">
         <v>12720</v>
       </c>
       <c r="I296">
-        <v>1393884</v>
+        <v>63391464</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9933,31 +9881,31 @@
         <v>0</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297">
-        <v>8400</v>
+        <v>422400</v>
       </c>
       <c r="G297">
-        <v>146880</v>
+        <v>104880</v>
       </c>
       <c r="H297">
         <v>12720</v>
       </c>
       <c r="I297">
-        <v>1304064</v>
+        <v>63391464</v>
       </c>
       <c r="J297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9965,31 +9913,31 @@
         <v>0</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298">
-        <v>7800</v>
+        <v>422400</v>
       </c>
       <c r="G298">
-        <v>147480</v>
+        <v>104880</v>
       </c>
       <c r="H298">
         <v>12720</v>
       </c>
       <c r="I298">
-        <v>1214244</v>
+        <v>63391464</v>
       </c>
       <c r="J298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9997,31 +9945,31 @@
         <v>0</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299">
-        <v>7200</v>
+        <v>422400</v>
       </c>
       <c r="G299">
-        <v>148080</v>
+        <v>104880</v>
       </c>
       <c r="H299">
         <v>12720</v>
       </c>
       <c r="I299">
-        <v>1124424</v>
+        <v>63391464</v>
       </c>
       <c r="J299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10029,31 +9977,31 @@
         <v>0</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300">
-        <v>6600</v>
+        <v>422400</v>
       </c>
       <c r="G300">
-        <v>148680</v>
+        <v>104880</v>
       </c>
       <c r="H300">
         <v>12720</v>
       </c>
       <c r="I300">
-        <v>1034604</v>
+        <v>63391464</v>
       </c>
       <c r="J300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10061,25 +10009,25 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
         <v>0</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301">
-        <v>6000</v>
+        <v>422400</v>
       </c>
       <c r="G301">
-        <v>149280</v>
+        <v>104880</v>
       </c>
       <c r="H301">
         <v>12720</v>
       </c>
       <c r="I301">
-        <v>944784</v>
+        <v>63391464</v>
       </c>
       <c r="J301">
         <v>0</v>
